--- a/working/ISO국가코드.xlsx
+++ b/working/ISO국가코드.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbae/Downloads/coronascan_py/working/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E71025-2DA3-2B40-ACC0-B13C38CBF6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="국가코드" sheetId="1" r:id="rId3"/>
+    <sheet name="국가코드" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1246">
   <si>
     <t>ISO국가코드</t>
   </si>
@@ -3710,44 +3719,108 @@
   </si>
   <si>
     <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>투르크 메니스탄</t>
+  </si>
+  <si>
+    <t>모리타니아</t>
+  </si>
+  <si>
+    <t>대만</t>
+  </si>
+  <si>
+    <t>태국</t>
+  </si>
+  <si>
+    <t>민주콩고</t>
+  </si>
+  <si>
+    <t>콩고공화국</t>
+  </si>
+  <si>
+    <t>쿡제도</t>
+  </si>
+  <si>
+    <t>파푸아뉴기니</t>
+  </si>
+  <si>
+    <t>호주</t>
+  </si>
+  <si>
+    <t>북마케도니아</t>
+  </si>
+  <si>
+    <t>사이프러스</t>
+  </si>
+  <si>
+    <t>키르기즈스탄</t>
+  </si>
+  <si>
+    <t>적도기니</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3755,7 +3828,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3771,7 +3844,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
@@ -3785,86 +3864,366 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB1249"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="16.57"/>
-    <col customWidth="1" min="5" max="5" width="38.71"/>
-    <col customWidth="1" min="6" max="6" width="26.86"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +4255,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3928,7 +4287,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3936,7 +4295,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -3956,9 +4315,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="12">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -3976,9 +4335,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="12">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -3996,9 +4355,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="12">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>18</v>
@@ -4016,9 +4375,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="12">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>23</v>
@@ -4036,9 +4395,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="12">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -4056,9 +4415,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="12">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>33</v>
@@ -4076,9 +4435,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="12">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>38</v>
@@ -4096,9 +4455,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="12">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>43</v>
@@ -4116,9 +4475,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="12">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>48</v>
@@ -4136,9 +4495,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="12">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>53</v>
@@ -4156,9 +4515,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="12">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>58</v>
@@ -4176,9 +4535,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="12">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>63</v>
@@ -4196,9 +4555,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="12">
-        <v>624.0</v>
+        <v>624</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>68</v>
@@ -4216,9 +4575,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="12">
-        <v>516.0</v>
+        <v>516</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>73</v>
@@ -4236,9 +4595,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="12">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>78</v>
@@ -4256,9 +4615,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="12">
-        <v>566.0</v>
+        <v>566</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>83</v>
@@ -4276,9 +4635,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>88</v>
@@ -4296,9 +4655,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="12">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>93</v>
@@ -4316,9 +4675,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="12">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>98</v>
@@ -4336,9 +4695,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="12">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>103</v>
@@ -4356,9 +4715,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="12">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>108</v>
@@ -4376,9 +4735,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="12">
-        <v>524.0</v>
+        <v>524</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>113</v>
@@ -4396,9 +4755,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="12">
-        <v>578.0</v>
+        <v>578</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>118</v>
@@ -4416,9 +4775,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="12">
-        <v>574.0</v>
+        <v>574</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>123</v>
@@ -4436,9 +4795,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="12">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>128</v>
@@ -4456,9 +4815,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="12">
-        <v>554.0</v>
+        <v>554</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>133</v>
@@ -4476,9 +4835,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="12">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>138</v>
@@ -4496,9 +4855,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="12">
-        <v>562.0</v>
+        <v>562</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>143</v>
@@ -4516,9 +4875,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="12">
-        <v>558.0</v>
+        <v>558</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>148</v>
@@ -4536,9 +4895,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="12">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>153</v>
@@ -4556,9 +4915,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="12">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>158</v>
@@ -4576,9 +4935,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="12">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>163</v>
@@ -4596,9 +4955,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="12">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>168</v>
@@ -4616,9 +4975,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="12">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>173</v>
@@ -4636,9 +4995,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="12">
-        <v>626.0</v>
+        <v>626</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>178</v>
@@ -4656,9 +5015,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="12">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>183</v>
@@ -4676,9 +5035,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="12">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>188</v>
@@ -4696,9 +5055,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="12">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>193</v>
@@ -4716,9 +5075,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="12">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>198</v>
@@ -4736,9 +5095,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="12">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>203</v>
@@ -4756,9 +5115,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="12">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>208</v>
@@ -4776,9 +5135,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="14">
       <c r="A46" s="12">
-        <v>638.0</v>
+        <v>638</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>213</v>
@@ -4796,9 +5155,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="14">
       <c r="A47" s="12">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>218</v>
@@ -4816,9 +5175,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="14">
       <c r="A48" s="12">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>223</v>
@@ -4836,9 +5195,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="14">
       <c r="A49" s="12">
-        <v>646.0</v>
+        <v>646</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>228</v>
@@ -4856,9 +5215,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="14">
       <c r="A50" s="12">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>233</v>
@@ -4876,9 +5235,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="14">
       <c r="A51" s="12">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>238</v>
@@ -4896,9 +5255,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="14">
       <c r="A52" s="12">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>243</v>
@@ -4916,9 +5275,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="14">
       <c r="A53" s="12">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>248</v>
@@ -4936,9 +5295,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="14">
       <c r="A54" s="12">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>253</v>
@@ -4956,9 +5315,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="14">
       <c r="A55" s="12">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>258</v>
@@ -4976,9 +5335,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="14">
       <c r="A56" s="12">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>263</v>
@@ -4996,9 +5355,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="14">
       <c r="A57" s="12">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>268</v>
@@ -5016,9 +5375,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="14">
       <c r="A58" s="12">
-        <v>807.0</v>
+        <v>807</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>273</v>
@@ -5036,9 +5395,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="14">
       <c r="A59" s="12">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>278</v>
@@ -5056,9 +5415,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="14">
       <c r="A60" s="12">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>283</v>
@@ -5076,9 +5435,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="14">
       <c r="A61" s="12">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>288</v>
@@ -5096,9 +5455,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="14">
       <c r="A62" s="12">
-        <v>833.0</v>
+        <v>833</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>293</v>
@@ -5116,9 +5475,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="14">
       <c r="A63" s="12">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>298</v>
@@ -5136,9 +5495,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="14">
       <c r="A64" s="12">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>303</v>
@@ -5156,9 +5515,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="14">
       <c r="A65" s="12">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>308</v>
@@ -5176,9 +5535,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="14">
       <c r="A66" s="12">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>313</v>
@@ -5196,9 +5555,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="14">
       <c r="A67" s="12">
-        <v>478.0</v>
+        <v>478</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>318</v>
@@ -5216,9 +5575,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="14">
       <c r="A68" s="12">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>323</v>
@@ -5236,9 +5595,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="14">
       <c r="A69" s="12">
-        <v>499.0</v>
+        <v>499</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>328</v>
@@ -5256,9 +5615,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="14">
       <c r="A70" s="12">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>333</v>
@@ -5276,9 +5635,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="14">
       <c r="A71" s="12">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>338</v>
@@ -5296,9 +5655,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="14">
       <c r="A72" s="12">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>343</v>
@@ -5316,9 +5675,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="14">
       <c r="A73" s="12">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>348</v>
@@ -5336,9 +5695,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="14">
       <c r="A74" s="12">
-        <v>496.0</v>
+        <v>496</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>353</v>
@@ -5356,9 +5715,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="14">
       <c r="A75" s="12">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>358</v>
@@ -5376,9 +5735,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="14">
       <c r="A76" s="12">
-        <v>581.0</v>
+        <v>581</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>363</v>
@@ -5396,9 +5755,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="14">
       <c r="A77" s="12">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>368</v>
@@ -5416,9 +5775,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="14">
       <c r="A78" s="12">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>373</v>
@@ -5436,9 +5795,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="14">
       <c r="A79" s="12">
-        <v>583.0</v>
+        <v>583</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>378</v>
@@ -5456,9 +5815,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="14">
       <c r="A80" s="12">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>383</v>
@@ -5476,9 +5835,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="14">
       <c r="A81" s="12">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>388</v>
@@ -5496,9 +5855,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="14">
       <c r="A82" s="12">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>393</v>
@@ -5516,9 +5875,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="14">
       <c r="A83" s="12">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>398</v>
@@ -5536,9 +5895,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="14">
       <c r="A84" s="12">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>403</v>
@@ -5556,9 +5915,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="14">
       <c r="A85" s="12">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>408</v>
@@ -5576,9 +5935,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="14">
       <c r="A86" s="12">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>413</v>
@@ -5596,9 +5955,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="14">
       <c r="A87" s="12">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>418</v>
@@ -5616,9 +5975,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="14">
       <c r="A88" s="12">
-        <v>862.0</v>
+        <v>862</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>423</v>
@@ -5636,9 +5995,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="14">
       <c r="A89" s="12">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>428</v>
@@ -5656,9 +6015,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="14">
       <c r="A90" s="12">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>433</v>
@@ -5676,9 +6035,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="14">
       <c r="A91" s="12">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>438</v>
@@ -5696,9 +6055,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="14">
       <c r="A92" s="12">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>443</v>
@@ -5716,9 +6075,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" ht="14">
       <c r="A93" s="12">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>448</v>
@@ -5736,9 +6095,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="14">
       <c r="A94" s="12">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>453</v>
@@ -5756,9 +6115,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="14">
       <c r="A95" s="12">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>458</v>
@@ -5776,9 +6135,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="14">
       <c r="A96" s="12">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>463</v>
@@ -5796,9 +6155,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="14">
       <c r="A97" s="12">
-        <v>854.0</v>
+        <v>854</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>468</v>
@@ -5816,9 +6175,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="14">
       <c r="A98" s="12">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>473</v>
@@ -5836,9 +6195,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="14">
       <c r="A99" s="12">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>478</v>
@@ -5856,9 +6215,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="14">
       <c r="A100" s="12">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>483</v>
@@ -5876,9 +6235,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" ht="14">
       <c r="A101" s="12">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>488</v>
@@ -5896,9 +6255,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" ht="14">
       <c r="A102" s="12">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>493</v>
@@ -5916,9 +6275,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" ht="14">
       <c r="A103" s="12">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>498</v>
@@ -5936,9 +6295,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="14">
       <c r="A104" s="12">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>503</v>
@@ -5956,9 +6315,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="14">
       <c r="A105" s="12">
-        <v>682.0</v>
+        <v>682</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>508</v>
@@ -5976,9 +6335,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="14">
       <c r="A106" s="12">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>513</v>
@@ -5996,9 +6355,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" ht="14">
       <c r="A107" s="12">
-        <v>674.0</v>
+        <v>674</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>518</v>
@@ -6016,9 +6375,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="14">
       <c r="A108" s="12">
-        <v>678.0</v>
+        <v>678</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>523</v>
@@ -6036,9 +6395,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="14">
       <c r="A109" s="12">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>528</v>
@@ -6056,9 +6415,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" ht="14">
       <c r="A110" s="12">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>533</v>
@@ -6076,9 +6435,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" ht="14">
       <c r="A111" s="12">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>538</v>
@@ -6096,9 +6455,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" ht="14">
       <c r="A112" s="12">
-        <v>688.0</v>
+        <v>688</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>543</v>
@@ -6116,9 +6475,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" ht="14">
       <c r="A113" s="12">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>548</v>
@@ -6136,9 +6495,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" ht="14">
       <c r="A114" s="12">
-        <v>662.0</v>
+        <v>662</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>553</v>
@@ -6156,9 +6515,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" ht="14">
       <c r="A115" s="12">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>558</v>
@@ -6176,9 +6535,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" ht="14">
       <c r="A116" s="12">
-        <v>659.0</v>
+        <v>659</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>563</v>
@@ -6196,9 +6555,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" ht="14">
       <c r="A117" s="12">
-        <v>654.0</v>
+        <v>654</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>568</v>
@@ -6216,9 +6575,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" ht="14">
       <c r="A118" s="12">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>573</v>
@@ -6236,9 +6595,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" ht="14">
       <c r="A119" s="12">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>578</v>
@@ -6256,9 +6615,9 @@
         <v>582</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" ht="14">
       <c r="A120" s="12">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>583</v>
@@ -6276,9 +6635,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" ht="14">
       <c r="A121" s="12">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>588</v>
@@ -6296,9 +6655,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" ht="14">
       <c r="A122" s="12">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>593</v>
@@ -6316,9 +6675,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" ht="14">
       <c r="A123" s="12">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>598</v>
@@ -6336,9 +6695,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" ht="14">
       <c r="A124" s="12">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>603</v>
@@ -6356,9 +6715,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" ht="14">
       <c r="A125" s="12">
-        <v>752.0</v>
+        <v>752</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>608</v>
@@ -6376,9 +6735,9 @@
         <v>612</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" ht="14">
       <c r="A126" s="12">
-        <v>756.0</v>
+        <v>756</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>613</v>
@@ -6396,9 +6755,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" ht="14">
       <c r="A127" s="12">
-        <v>724.0</v>
+        <v>724</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>618</v>
@@ -6416,9 +6775,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" ht="14">
       <c r="A128" s="12">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>623</v>
@@ -6436,9 +6795,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" ht="14">
       <c r="A129" s="12">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>628</v>
@@ -6456,9 +6815,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" ht="14">
       <c r="A130" s="12">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>633</v>
@@ -6476,9 +6835,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" ht="14">
       <c r="A131" s="12">
-        <v>694.0</v>
+        <v>694</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>638</v>
@@ -6496,9 +6855,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" ht="14">
       <c r="A132" s="12">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>643</v>
@@ -6516,9 +6875,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" ht="14">
       <c r="A133" s="12">
-        <v>784.0</v>
+        <v>784</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>648</v>
@@ -6536,9 +6895,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" ht="14">
       <c r="A134" s="12">
-        <v>533.0</v>
+        <v>533</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>653</v>
@@ -6556,9 +6915,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" ht="14">
       <c r="A135" s="12">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>658</v>
@@ -6576,9 +6935,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" ht="14">
       <c r="A136" s="12">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>663</v>
@@ -6596,9 +6955,9 @@
         <v>667</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" ht="14">
       <c r="A137" s="12">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>668</v>
@@ -6616,9 +6975,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" ht="14">
       <c r="A138" s="12">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>673</v>
@@ -6636,9 +6995,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" ht="14">
       <c r="A139" s="12">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>678</v>
@@ -6656,9 +7015,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" ht="14">
       <c r="A140" s="12">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>683</v>
@@ -6676,9 +7035,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" ht="14">
       <c r="A141" s="12">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>688</v>
@@ -6696,9 +7055,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" ht="14">
       <c r="A142" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>693</v>
@@ -6716,9 +7075,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" ht="14">
       <c r="A143" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>698</v>
@@ -6736,9 +7095,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" ht="14">
       <c r="A144" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>703</v>
@@ -6756,9 +7115,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" ht="14">
       <c r="A145" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>708</v>
@@ -6776,9 +7135,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" ht="14">
       <c r="A146" s="12">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>713</v>
@@ -6796,9 +7155,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" ht="14">
       <c r="A147" s="12">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>718</v>
@@ -6816,9 +7175,9 @@
         <v>722</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" ht="14">
       <c r="A148" s="12">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>723</v>
@@ -6836,9 +7195,9 @@
         <v>727</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" ht="14">
       <c r="A149" s="12">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>728</v>
@@ -6856,9 +7215,9 @@
         <v>732</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" ht="14">
       <c r="A150" s="12">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>733</v>
@@ -6876,9 +7235,9 @@
         <v>737</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" ht="14">
       <c r="A151" s="12">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>738</v>
@@ -6896,9 +7255,9 @@
         <v>742</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" ht="14">
       <c r="A152" s="12">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>743</v>
@@ -6916,9 +7275,9 @@
         <v>747</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" ht="14">
       <c r="A153" s="12">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>748</v>
@@ -6936,9 +7295,9 @@
         <v>752</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" ht="14">
       <c r="A154" s="12">
-        <v>826.0</v>
+        <v>826</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>753</v>
@@ -6956,9 +7315,9 @@
         <v>757</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" ht="14">
       <c r="A155" s="12">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>758</v>
@@ -6976,9 +7335,9 @@
         <v>762</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" ht="14">
       <c r="A156" s="12">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>763</v>
@@ -6996,9 +7355,9 @@
         <v>767</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" ht="14">
       <c r="A157" s="12">
-        <v>887.0</v>
+        <v>887</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>768</v>
@@ -7016,9 +7375,9 @@
         <v>772</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" ht="14">
       <c r="A158" s="12">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>773</v>
@@ -7036,9 +7395,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" ht="14">
       <c r="A159" s="12">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>778</v>
@@ -7056,9 +7415,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" ht="14">
       <c r="A160" s="12">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>783</v>
@@ -7076,9 +7435,9 @@
         <v>787</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" ht="14">
       <c r="A161" s="12">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>788</v>
@@ -7096,9 +7455,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" ht="14">
       <c r="A162" s="12">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>793</v>
@@ -7116,9 +7475,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" ht="14">
       <c r="A163" s="12">
-        <v>876.0</v>
+        <v>876</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>798</v>
@@ -7136,9 +7495,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" ht="14">
       <c r="A164" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>803</v>
@@ -7156,9 +7515,9 @@
         <v>807</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" ht="14">
       <c r="A165" s="12">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>808</v>
@@ -7176,9 +7535,9 @@
         <v>812</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" ht="14">
       <c r="A166" s="12">
-        <v>858.0</v>
+        <v>858</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>813</v>
@@ -7196,9 +7555,9 @@
         <v>817</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" ht="14">
       <c r="A167" s="12">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>818</v>
@@ -7216,9 +7575,9 @@
         <v>822</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" ht="14">
       <c r="A168" s="12">
-        <v>804.0</v>
+        <v>804</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>823</v>
@@ -7236,9 +7595,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" ht="14">
       <c r="A169" s="12">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>828</v>
@@ -7256,9 +7615,9 @@
         <v>832</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" ht="14">
       <c r="A170" s="12">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>833</v>
@@ -7276,9 +7635,9 @@
         <v>837</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" ht="14">
       <c r="A171" s="12">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>838</v>
@@ -7296,9 +7655,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" ht="14">
       <c r="A172" s="12">
-        <v>818.0</v>
+        <v>818</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>843</v>
@@ -7316,9 +7675,9 @@
         <v>847</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" ht="14">
       <c r="A173" s="12">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>848</v>
@@ -7336,9 +7695,9 @@
         <v>852</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" ht="14">
       <c r="A174" s="12">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B174" s="12" t="s">
         <v>853</v>
@@ -7356,9 +7715,9 @@
         <v>857</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" ht="14">
       <c r="A175" s="12">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B175" s="12" t="s">
         <v>858</v>
@@ -7376,9 +7735,9 @@
         <v>862</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" ht="14">
       <c r="A176" s="12">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B176" s="12" t="s">
         <v>863</v>
@@ -7396,9 +7755,9 @@
         <v>867</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" ht="14">
       <c r="A177" s="12">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>868</v>
@@ -7416,9 +7775,9 @@
         <v>872</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" ht="14">
       <c r="A178" s="12">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>873</v>
@@ -7436,9 +7795,9 @@
         <v>877</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" ht="14">
       <c r="A179" s="12">
-        <v>832.0</v>
+        <v>832</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>878</v>
@@ -7456,9 +7815,9 @@
         <v>882</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" ht="14">
       <c r="A180" s="12">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B180" s="12" t="s">
         <v>883</v>
@@ -7476,9 +7835,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" ht="14">
       <c r="A181" s="12">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>888</v>
@@ -7496,9 +7855,9 @@
         <v>892</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" ht="14">
       <c r="A182" s="12">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>893</v>
@@ -7516,9 +7875,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" ht="14">
       <c r="A183" s="12">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>898</v>
@@ -7536,9 +7895,9 @@
         <v>902</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" ht="14">
       <c r="A184" s="12">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B184" s="12" t="s">
         <v>903</v>
@@ -7556,9 +7915,9 @@
         <v>907</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" ht="14">
       <c r="A185" s="12">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>908</v>
@@ -7576,9 +7935,9 @@
         <v>912</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" ht="14">
       <c r="A186" s="12">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B186" s="12" t="s">
         <v>913</v>
@@ -7596,9 +7955,9 @@
         <v>917</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" ht="14">
       <c r="A187" s="12">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>918</v>
@@ -7616,9 +7975,9 @@
         <v>922</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" ht="14">
       <c r="A188" s="12">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="B188" s="12" t="s">
         <v>923</v>
@@ -7636,9 +7995,9 @@
         <v>927</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" ht="14">
       <c r="A189" s="12">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>928</v>
@@ -7656,9 +8015,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" ht="14">
       <c r="A190" s="12">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>933</v>
@@ -7676,9 +8035,9 @@
         <v>937</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" ht="14">
       <c r="A191" s="12">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>938</v>
@@ -7696,9 +8055,9 @@
         <v>942</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" ht="14">
       <c r="A192" s="12">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B192" s="12" t="s">
         <v>943</v>
@@ -7716,9 +8075,9 @@
         <v>947</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" ht="14">
       <c r="A193" s="12">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>948</v>
@@ -7736,9 +8095,9 @@
         <v>952</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" ht="14">
       <c r="A194" s="12">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B194" s="12" t="s">
         <v>953</v>
@@ -7756,9 +8115,9 @@
         <v>957</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" ht="14">
       <c r="A195" s="12">
-        <v>634.0</v>
+        <v>634</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>958</v>
@@ -7776,9 +8135,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" ht="14">
       <c r="A196" s="12">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>963</v>
@@ -7796,9 +8155,9 @@
         <v>967</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" ht="14">
       <c r="A197" s="12">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>968</v>
@@ -7816,9 +8175,9 @@
         <v>972</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" ht="14">
       <c r="A198" s="12">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B198" s="12" t="s">
         <v>973</v>
@@ -7836,9 +8195,9 @@
         <v>977</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6" ht="14">
       <c r="A199" s="12">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>978</v>
@@ -7856,9 +8215,9 @@
         <v>982</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" ht="14">
       <c r="A200" s="12">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>983</v>
@@ -7876,9 +8235,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6" ht="14">
       <c r="A201" s="12">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>988</v>
@@ -7896,9 +8255,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" ht="14">
       <c r="A202" s="12">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>993</v>
@@ -7916,9 +8275,9 @@
         <v>997</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" ht="14">
       <c r="A203" s="12">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>998</v>
@@ -7936,9 +8295,9 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" ht="14">
       <c r="A204" s="12">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>1003</v>
@@ -7956,9 +8315,9 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" ht="14">
       <c r="A205" s="12">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>1008</v>
@@ -7976,9 +8335,9 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" ht="14">
       <c r="A206" s="12">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>1013</v>
@@ -7996,9 +8355,9 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" ht="14">
       <c r="A207" s="12">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>1018</v>
@@ -8016,9 +8375,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" ht="14">
       <c r="A208" s="12">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>1023</v>
@@ -8036,9 +8395,9 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" ht="14">
       <c r="A209" s="12">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>1028</v>
@@ -8056,9 +8415,9 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" ht="14">
       <c r="A210" s="12">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B210" s="12" t="s">
         <v>1033</v>
@@ -8076,9 +8435,9 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" ht="14">
       <c r="A211" s="12">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>1038</v>
@@ -8096,9 +8455,9 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" ht="14">
       <c r="A212" s="12">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B212" s="12" t="s">
         <v>1043</v>
@@ -8116,9 +8475,9 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" ht="14">
       <c r="A213" s="12">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>1048</v>
@@ -8136,9 +8495,9 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" ht="14">
       <c r="A214" s="12">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>1053</v>
@@ -8156,9 +8515,9 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" ht="14">
       <c r="A215" s="12">
-        <v>764.0</v>
+        <v>764</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>1058</v>
@@ -8176,9 +8535,9 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" ht="14">
       <c r="A216" s="12">
-        <v>762.0</v>
+        <v>762</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>1063</v>
@@ -8196,9 +8555,9 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" ht="14">
       <c r="A217" s="12">
-        <v>834.0</v>
+        <v>834</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>1068</v>
@@ -8216,9 +8575,9 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" ht="14">
       <c r="A218" s="12">
-        <v>796.0</v>
+        <v>796</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>1073</v>
@@ -8236,9 +8595,9 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" ht="14">
       <c r="A219" s="12">
-        <v>792.0</v>
+        <v>792</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>1078</v>
@@ -8256,9 +8615,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" ht="14">
       <c r="A220" s="12">
-        <v>768.0</v>
+        <v>768</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>1083</v>
@@ -8276,9 +8635,9 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" ht="14">
       <c r="A221" s="12">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>1088</v>
@@ -8296,9 +8655,9 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" ht="14">
       <c r="A222" s="12">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>1093</v>
@@ -8316,9 +8675,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" ht="14">
       <c r="A223" s="12">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>1098</v>
@@ -8336,9 +8695,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" ht="14">
       <c r="A224" s="12">
-        <v>798.0</v>
+        <v>798</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>1103</v>
@@ -8356,9 +8715,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" ht="14">
       <c r="A225" s="12">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>1108</v>
@@ -8376,9 +8735,9 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" ht="14">
       <c r="A226" s="12">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>1113</v>
@@ -8396,9 +8755,9 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" ht="14">
       <c r="A227" s="12">
-        <v>591.0</v>
+        <v>591</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>1118</v>
@@ -8416,9 +8775,9 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" ht="14">
       <c r="A228" s="12">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>1123</v>
@@ -8436,9 +8795,9 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" ht="14">
       <c r="A229" s="12">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>1128</v>
@@ -8456,9 +8815,9 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" ht="14">
       <c r="A230" s="12">
-        <v>598.0</v>
+        <v>598</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>1133</v>
@@ -8476,9 +8835,9 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" ht="14">
       <c r="A231" s="12">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="B231" s="12" t="s">
         <v>1138</v>
@@ -8496,9 +8855,9 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" ht="14">
       <c r="A232" s="12">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B232" s="12" t="s">
         <v>1143</v>
@@ -8516,9 +8875,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" ht="14">
       <c r="A233" s="12">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B233" s="12" t="s">
         <v>1148</v>
@@ -8536,9 +8895,9 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" ht="14">
       <c r="A234" s="12">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="B234" s="12" t="s">
         <v>1153</v>
@@ -8556,9 +8915,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" ht="14">
       <c r="A235" s="12">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="B235" s="12" t="s">
         <v>1158</v>
@@ -8576,9 +8935,9 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" ht="14">
       <c r="A236" s="12">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B236" s="12" t="s">
         <v>1163</v>
@@ -8596,9 +8955,9 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" ht="14">
       <c r="A237" s="12">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="B237" s="12" t="s">
         <v>1168</v>
@@ -8616,9 +8975,9 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" ht="14">
       <c r="A238" s="12">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="B238" s="12" t="s">
         <v>1173</v>
@@ -8636,9 +8995,9 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" ht="14">
       <c r="A239" s="12">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B239" s="12" t="s">
         <v>1178</v>
@@ -8656,9 +9015,9 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" ht="14">
       <c r="A240" s="12">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B240" s="12" t="s">
         <v>1183</v>
@@ -8676,9 +9035,9 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" ht="14">
       <c r="A241" s="12">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B241" s="12" t="s">
         <v>1188</v>
@@ -8696,9 +9055,9 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" ht="14">
       <c r="A242" s="12">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B242" s="12" t="s">
         <v>1193</v>
@@ -8716,9 +9075,9 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" ht="14">
       <c r="A243" s="12">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>1198</v>
@@ -8736,9 +9095,9 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" ht="14">
       <c r="A244" s="12">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B244" s="12" t="s">
         <v>1203</v>
@@ -8756,9 +9115,9 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" ht="14">
       <c r="A245" s="12">
-        <v>608.0</v>
+        <v>608</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>1208</v>
@@ -8776,9 +9135,9 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" ht="14">
       <c r="A246" s="12">
-        <v>612.0</v>
+        <v>612</v>
       </c>
       <c r="B246" s="12" t="s">
         <v>1213</v>
@@ -8796,9 +9155,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" ht="14">
       <c r="A247" s="12">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>1218</v>
@@ -8816,9 +9175,9 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" ht="14">
       <c r="A248" s="12">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B248" s="12" t="s">
         <v>1223</v>
@@ -8836,9 +9195,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6" ht="14">
       <c r="A249" s="12">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>1228</v>
@@ -8856,10 +9215,4063 @@
         <v>1232</v>
       </c>
     </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B250" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B251" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B252" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B253" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B254" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B255" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D255" s="16" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B256" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B257" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B258" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B259" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B260" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B261" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B262" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B263" s="16"/>
+      <c r="D263" s="16"/>
+    </row>
+    <row r="264" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B264" s="16"/>
+      <c r="D264" s="16"/>
+    </row>
+    <row r="265" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B265" s="16"/>
+      <c r="D265" s="16"/>
+    </row>
+    <row r="266" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B266" s="16"/>
+      <c r="D266" s="16"/>
+    </row>
+    <row r="267" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B267" s="16"/>
+      <c r="D267" s="16"/>
+    </row>
+    <row r="268" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B268" s="16"/>
+      <c r="D268" s="16"/>
+    </row>
+    <row r="269" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B269" s="16"/>
+      <c r="D269" s="16"/>
+    </row>
+    <row r="270" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B270" s="16"/>
+      <c r="D270" s="16"/>
+    </row>
+    <row r="271" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B271" s="16"/>
+      <c r="D271" s="16"/>
+    </row>
+    <row r="272" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B272" s="16"/>
+      <c r="D272" s="16"/>
+    </row>
+    <row r="273" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B273" s="16"/>
+      <c r="D273" s="16"/>
+    </row>
+    <row r="274" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B274" s="16"/>
+      <c r="D274" s="16"/>
+    </row>
+    <row r="275" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B275" s="16"/>
+      <c r="D275" s="16"/>
+    </row>
+    <row r="276" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B276" s="16"/>
+      <c r="D276" s="16"/>
+    </row>
+    <row r="277" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B277" s="16"/>
+      <c r="D277" s="16"/>
+    </row>
+    <row r="278" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B278" s="16"/>
+      <c r="D278" s="16"/>
+    </row>
+    <row r="279" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B279" s="16"/>
+      <c r="D279" s="16"/>
+    </row>
+    <row r="280" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B280" s="16"/>
+      <c r="D280" s="16"/>
+    </row>
+    <row r="281" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B281" s="16"/>
+      <c r="D281" s="16"/>
+    </row>
+    <row r="282" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B282" s="16"/>
+      <c r="D282" s="16"/>
+    </row>
+    <row r="283" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B283" s="16"/>
+      <c r="D283" s="16"/>
+    </row>
+    <row r="284" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B284" s="16"/>
+      <c r="D284" s="16"/>
+    </row>
+    <row r="285" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B285" s="16"/>
+      <c r="D285" s="16"/>
+    </row>
+    <row r="286" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B286" s="16"/>
+      <c r="D286" s="16"/>
+    </row>
+    <row r="287" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B287" s="16"/>
+      <c r="D287" s="16"/>
+    </row>
+    <row r="288" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B288" s="16"/>
+      <c r="D288" s="16"/>
+    </row>
+    <row r="289" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B289" s="16"/>
+      <c r="D289" s="16"/>
+    </row>
+    <row r="290" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B290" s="16"/>
+      <c r="D290" s="16"/>
+    </row>
+    <row r="291" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B291" s="16"/>
+      <c r="D291" s="16"/>
+    </row>
+    <row r="292" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B292" s="16"/>
+      <c r="D292" s="16"/>
+    </row>
+    <row r="293" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B293" s="16"/>
+      <c r="D293" s="16"/>
+    </row>
+    <row r="294" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B294" s="16"/>
+      <c r="D294" s="16"/>
+    </row>
+    <row r="295" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B295" s="16"/>
+      <c r="D295" s="16"/>
+    </row>
+    <row r="296" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B296" s="16"/>
+      <c r="D296" s="16"/>
+    </row>
+    <row r="297" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B297" s="16"/>
+      <c r="D297" s="16"/>
+    </row>
+    <row r="298" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B298" s="16"/>
+      <c r="D298" s="16"/>
+    </row>
+    <row r="299" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B299" s="16"/>
+      <c r="D299" s="16"/>
+    </row>
+    <row r="300" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B300" s="16"/>
+      <c r="D300" s="16"/>
+    </row>
+    <row r="301" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B301" s="16"/>
+      <c r="D301" s="16"/>
+    </row>
+    <row r="302" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B302" s="16"/>
+      <c r="D302" s="16"/>
+    </row>
+    <row r="303" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B303" s="16"/>
+      <c r="D303" s="16"/>
+    </row>
+    <row r="304" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B304" s="16"/>
+      <c r="D304" s="16"/>
+    </row>
+    <row r="305" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B305" s="16"/>
+      <c r="D305" s="16"/>
+    </row>
+    <row r="306" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B306" s="16"/>
+      <c r="D306" s="16"/>
+    </row>
+    <row r="307" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B307" s="16"/>
+      <c r="D307" s="16"/>
+    </row>
+    <row r="308" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B308" s="16"/>
+      <c r="D308" s="16"/>
+    </row>
+    <row r="309" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B309" s="16"/>
+      <c r="D309" s="16"/>
+    </row>
+    <row r="310" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B310" s="16"/>
+      <c r="D310" s="16"/>
+    </row>
+    <row r="311" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B311" s="16"/>
+      <c r="D311" s="16"/>
+    </row>
+    <row r="312" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B312" s="16"/>
+      <c r="D312" s="16"/>
+    </row>
+    <row r="313" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B313" s="16"/>
+      <c r="D313" s="16"/>
+    </row>
+    <row r="314" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B314" s="16"/>
+      <c r="D314" s="16"/>
+    </row>
+    <row r="315" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B315" s="16"/>
+      <c r="D315" s="16"/>
+    </row>
+    <row r="316" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B316" s="16"/>
+      <c r="D316" s="16"/>
+    </row>
+    <row r="317" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B317" s="16"/>
+      <c r="D317" s="16"/>
+    </row>
+    <row r="318" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B318" s="16"/>
+      <c r="D318" s="16"/>
+    </row>
+    <row r="319" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B319" s="16"/>
+      <c r="D319" s="16"/>
+    </row>
+    <row r="320" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B320" s="16"/>
+      <c r="D320" s="16"/>
+    </row>
+    <row r="321" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B321" s="16"/>
+      <c r="D321" s="16"/>
+    </row>
+    <row r="322" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B322" s="16"/>
+      <c r="D322" s="16"/>
+    </row>
+    <row r="323" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B323" s="16"/>
+      <c r="D323" s="16"/>
+    </row>
+    <row r="324" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B324" s="16"/>
+      <c r="D324" s="16"/>
+    </row>
+    <row r="325" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B325" s="16"/>
+      <c r="D325" s="16"/>
+    </row>
+    <row r="326" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B326" s="16"/>
+      <c r="D326" s="16"/>
+    </row>
+    <row r="327" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B327" s="16"/>
+      <c r="D327" s="16"/>
+    </row>
+    <row r="328" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B328" s="16"/>
+      <c r="D328" s="16"/>
+    </row>
+    <row r="329" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B329" s="16"/>
+      <c r="D329" s="16"/>
+    </row>
+    <row r="330" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B330" s="16"/>
+      <c r="D330" s="16"/>
+    </row>
+    <row r="331" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B331" s="16"/>
+      <c r="D331" s="16"/>
+    </row>
+    <row r="332" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B332" s="16"/>
+      <c r="D332" s="16"/>
+    </row>
+    <row r="333" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B333" s="16"/>
+      <c r="D333" s="16"/>
+    </row>
+    <row r="334" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B334" s="16"/>
+      <c r="D334" s="16"/>
+    </row>
+    <row r="335" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B335" s="16"/>
+      <c r="D335" s="16"/>
+    </row>
+    <row r="336" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B336" s="16"/>
+      <c r="D336" s="16"/>
+    </row>
+    <row r="337" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B337" s="16"/>
+      <c r="D337" s="16"/>
+    </row>
+    <row r="338" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B338" s="16"/>
+      <c r="D338" s="16"/>
+    </row>
+    <row r="339" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B339" s="16"/>
+      <c r="D339" s="16"/>
+    </row>
+    <row r="340" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B340" s="16"/>
+      <c r="D340" s="16"/>
+    </row>
+    <row r="341" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B341" s="16"/>
+      <c r="D341" s="16"/>
+    </row>
+    <row r="342" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B342" s="16"/>
+      <c r="D342" s="16"/>
+    </row>
+    <row r="343" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B343" s="16"/>
+      <c r="D343" s="16"/>
+    </row>
+    <row r="344" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B344" s="16"/>
+      <c r="D344" s="16"/>
+    </row>
+    <row r="345" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B345" s="16"/>
+      <c r="D345" s="16"/>
+    </row>
+    <row r="346" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B346" s="16"/>
+      <c r="D346" s="16"/>
+    </row>
+    <row r="347" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B347" s="16"/>
+      <c r="D347" s="16"/>
+    </row>
+    <row r="348" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B348" s="16"/>
+      <c r="D348" s="16"/>
+    </row>
+    <row r="349" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B349" s="16"/>
+      <c r="D349" s="16"/>
+    </row>
+    <row r="350" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B350" s="16"/>
+      <c r="D350" s="16"/>
+    </row>
+    <row r="351" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B351" s="16"/>
+      <c r="D351" s="16"/>
+    </row>
+    <row r="352" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B352" s="16"/>
+      <c r="D352" s="16"/>
+    </row>
+    <row r="353" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B353" s="16"/>
+      <c r="D353" s="16"/>
+    </row>
+    <row r="354" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B354" s="16"/>
+      <c r="D354" s="16"/>
+    </row>
+    <row r="355" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B355" s="16"/>
+      <c r="D355" s="16"/>
+    </row>
+    <row r="356" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B356" s="16"/>
+      <c r="D356" s="16"/>
+    </row>
+    <row r="357" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B357" s="16"/>
+      <c r="D357" s="16"/>
+    </row>
+    <row r="358" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B358" s="16"/>
+      <c r="D358" s="16"/>
+    </row>
+    <row r="359" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B359" s="16"/>
+      <c r="D359" s="16"/>
+    </row>
+    <row r="360" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B360" s="16"/>
+      <c r="D360" s="16"/>
+    </row>
+    <row r="361" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B361" s="16"/>
+      <c r="D361" s="16"/>
+    </row>
+    <row r="362" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B362" s="16"/>
+      <c r="D362" s="16"/>
+    </row>
+    <row r="363" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B363" s="16"/>
+      <c r="D363" s="16"/>
+    </row>
+    <row r="364" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B364" s="16"/>
+      <c r="D364" s="16"/>
+    </row>
+    <row r="365" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B365" s="16"/>
+      <c r="D365" s="16"/>
+    </row>
+    <row r="366" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B366" s="16"/>
+      <c r="D366" s="16"/>
+    </row>
+    <row r="367" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B367" s="16"/>
+      <c r="D367" s="16"/>
+    </row>
+    <row r="368" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B368" s="16"/>
+      <c r="D368" s="16"/>
+    </row>
+    <row r="369" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B369" s="16"/>
+      <c r="D369" s="16"/>
+    </row>
+    <row r="370" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B370" s="16"/>
+      <c r="D370" s="16"/>
+    </row>
+    <row r="371" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B371" s="16"/>
+      <c r="D371" s="16"/>
+    </row>
+    <row r="372" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B372" s="16"/>
+      <c r="D372" s="16"/>
+    </row>
+    <row r="373" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B373" s="16"/>
+      <c r="D373" s="16"/>
+    </row>
+    <row r="374" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B374" s="16"/>
+      <c r="D374" s="16"/>
+    </row>
+    <row r="375" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B375" s="16"/>
+      <c r="D375" s="16"/>
+    </row>
+    <row r="376" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B376" s="16"/>
+      <c r="D376" s="16"/>
+    </row>
+    <row r="377" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B377" s="16"/>
+      <c r="D377" s="16"/>
+    </row>
+    <row r="378" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B378" s="16"/>
+      <c r="D378" s="16"/>
+    </row>
+    <row r="379" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B379" s="16"/>
+      <c r="D379" s="16"/>
+    </row>
+    <row r="380" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B380" s="16"/>
+      <c r="D380" s="16"/>
+    </row>
+    <row r="381" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B381" s="16"/>
+      <c r="D381" s="16"/>
+    </row>
+    <row r="382" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B382" s="16"/>
+      <c r="D382" s="16"/>
+    </row>
+    <row r="383" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B383" s="16"/>
+      <c r="D383" s="16"/>
+    </row>
+    <row r="384" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B384" s="16"/>
+      <c r="D384" s="16"/>
+    </row>
+    <row r="385" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B385" s="16"/>
+      <c r="D385" s="16"/>
+    </row>
+    <row r="386" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B386" s="16"/>
+      <c r="D386" s="16"/>
+    </row>
+    <row r="387" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B387" s="16"/>
+      <c r="D387" s="16"/>
+    </row>
+    <row r="388" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B388" s="16"/>
+      <c r="D388" s="16"/>
+    </row>
+    <row r="389" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B389" s="16"/>
+      <c r="D389" s="16"/>
+    </row>
+    <row r="390" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B390" s="16"/>
+      <c r="D390" s="16"/>
+    </row>
+    <row r="391" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B391" s="16"/>
+      <c r="D391" s="16"/>
+    </row>
+    <row r="392" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B392" s="16"/>
+      <c r="D392" s="16"/>
+    </row>
+    <row r="393" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B393" s="16"/>
+      <c r="D393" s="16"/>
+    </row>
+    <row r="394" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B394" s="16"/>
+      <c r="D394" s="16"/>
+    </row>
+    <row r="395" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B395" s="16"/>
+      <c r="D395" s="16"/>
+    </row>
+    <row r="396" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B396" s="16"/>
+      <c r="D396" s="16"/>
+    </row>
+    <row r="397" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B397" s="16"/>
+      <c r="D397" s="16"/>
+    </row>
+    <row r="398" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B398" s="16"/>
+      <c r="D398" s="16"/>
+    </row>
+    <row r="399" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B399" s="16"/>
+      <c r="D399" s="16"/>
+    </row>
+    <row r="400" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B400" s="16"/>
+      <c r="D400" s="16"/>
+    </row>
+    <row r="401" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B401" s="16"/>
+      <c r="D401" s="16"/>
+    </row>
+    <row r="402" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B402" s="16"/>
+      <c r="D402" s="16"/>
+    </row>
+    <row r="403" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B403" s="16"/>
+      <c r="D403" s="16"/>
+    </row>
+    <row r="404" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B404" s="16"/>
+      <c r="D404" s="16"/>
+    </row>
+    <row r="405" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B405" s="16"/>
+      <c r="D405" s="16"/>
+    </row>
+    <row r="406" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B406" s="16"/>
+      <c r="D406" s="16"/>
+    </row>
+    <row r="407" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B407" s="16"/>
+      <c r="D407" s="16"/>
+    </row>
+    <row r="408" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B408" s="16"/>
+      <c r="D408" s="16"/>
+    </row>
+    <row r="409" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B409" s="16"/>
+      <c r="D409" s="16"/>
+    </row>
+    <row r="410" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B410" s="16"/>
+      <c r="D410" s="16"/>
+    </row>
+    <row r="411" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B411" s="16"/>
+      <c r="D411" s="16"/>
+    </row>
+    <row r="412" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B412" s="16"/>
+      <c r="D412" s="16"/>
+    </row>
+    <row r="413" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B413" s="16"/>
+      <c r="D413" s="16"/>
+    </row>
+    <row r="414" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B414" s="16"/>
+      <c r="D414" s="16"/>
+    </row>
+    <row r="415" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B415" s="16"/>
+      <c r="D415" s="16"/>
+    </row>
+    <row r="416" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B416" s="16"/>
+      <c r="D416" s="16"/>
+    </row>
+    <row r="417" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B417" s="16"/>
+      <c r="D417" s="16"/>
+    </row>
+    <row r="418" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B418" s="16"/>
+      <c r="D418" s="16"/>
+    </row>
+    <row r="419" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B419" s="16"/>
+      <c r="D419" s="16"/>
+    </row>
+    <row r="420" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B420" s="16"/>
+      <c r="D420" s="16"/>
+    </row>
+    <row r="421" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B421" s="16"/>
+      <c r="D421" s="16"/>
+    </row>
+    <row r="422" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B422" s="16"/>
+      <c r="D422" s="16"/>
+    </row>
+    <row r="423" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B423" s="16"/>
+      <c r="D423" s="16"/>
+    </row>
+    <row r="424" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B424" s="16"/>
+      <c r="D424" s="16"/>
+    </row>
+    <row r="425" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B425" s="16"/>
+      <c r="D425" s="16"/>
+    </row>
+    <row r="426" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B426" s="16"/>
+      <c r="D426" s="16"/>
+    </row>
+    <row r="427" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B427" s="16"/>
+      <c r="D427" s="16"/>
+    </row>
+    <row r="428" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B428" s="16"/>
+      <c r="D428" s="16"/>
+    </row>
+    <row r="429" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B429" s="16"/>
+      <c r="D429" s="16"/>
+    </row>
+    <row r="430" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B430" s="16"/>
+      <c r="D430" s="16"/>
+    </row>
+    <row r="431" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B431" s="16"/>
+      <c r="D431" s="16"/>
+    </row>
+    <row r="432" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B432" s="16"/>
+      <c r="D432" s="16"/>
+    </row>
+    <row r="433" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B433" s="16"/>
+      <c r="D433" s="16"/>
+    </row>
+    <row r="434" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B434" s="16"/>
+      <c r="D434" s="16"/>
+    </row>
+    <row r="435" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B435" s="16"/>
+      <c r="D435" s="16"/>
+    </row>
+    <row r="436" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B436" s="16"/>
+      <c r="D436" s="16"/>
+    </row>
+    <row r="437" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B437" s="16"/>
+      <c r="D437" s="16"/>
+    </row>
+    <row r="438" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B438" s="16"/>
+      <c r="D438" s="16"/>
+    </row>
+    <row r="439" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B439" s="16"/>
+      <c r="D439" s="16"/>
+    </row>
+    <row r="440" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B440" s="16"/>
+      <c r="D440" s="16"/>
+    </row>
+    <row r="441" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B441" s="16"/>
+      <c r="D441" s="16"/>
+    </row>
+    <row r="442" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B442" s="16"/>
+      <c r="D442" s="16"/>
+    </row>
+    <row r="443" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B443" s="16"/>
+      <c r="D443" s="16"/>
+    </row>
+    <row r="444" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B444" s="16"/>
+      <c r="D444" s="16"/>
+    </row>
+    <row r="445" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B445" s="16"/>
+      <c r="D445" s="16"/>
+    </row>
+    <row r="446" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B446" s="16"/>
+      <c r="D446" s="16"/>
+    </row>
+    <row r="447" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B447" s="16"/>
+      <c r="D447" s="16"/>
+    </row>
+    <row r="448" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B448" s="16"/>
+      <c r="D448" s="16"/>
+    </row>
+    <row r="449" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B449" s="16"/>
+      <c r="D449" s="16"/>
+    </row>
+    <row r="450" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B450" s="16"/>
+      <c r="D450" s="16"/>
+    </row>
+    <row r="451" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B451" s="16"/>
+      <c r="D451" s="16"/>
+    </row>
+    <row r="452" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B452" s="16"/>
+      <c r="D452" s="16"/>
+    </row>
+    <row r="453" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B453" s="16"/>
+      <c r="D453" s="16"/>
+    </row>
+    <row r="454" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B454" s="16"/>
+      <c r="D454" s="16"/>
+    </row>
+    <row r="455" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B455" s="16"/>
+      <c r="D455" s="16"/>
+    </row>
+    <row r="456" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B456" s="16"/>
+      <c r="D456" s="16"/>
+    </row>
+    <row r="457" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B457" s="16"/>
+      <c r="D457" s="16"/>
+    </row>
+    <row r="458" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B458" s="16"/>
+      <c r="D458" s="16"/>
+    </row>
+    <row r="459" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B459" s="16"/>
+      <c r="D459" s="16"/>
+    </row>
+    <row r="460" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B460" s="16"/>
+      <c r="D460" s="16"/>
+    </row>
+    <row r="461" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B461" s="16"/>
+      <c r="D461" s="16"/>
+    </row>
+    <row r="462" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B462" s="16"/>
+      <c r="D462" s="16"/>
+    </row>
+    <row r="463" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B463" s="16"/>
+      <c r="D463" s="16"/>
+    </row>
+    <row r="464" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B464" s="16"/>
+      <c r="D464" s="16"/>
+    </row>
+    <row r="465" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B465" s="16"/>
+      <c r="D465" s="16"/>
+    </row>
+    <row r="466" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B466" s="16"/>
+      <c r="D466" s="16"/>
+    </row>
+    <row r="467" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B467" s="16"/>
+      <c r="D467" s="16"/>
+    </row>
+    <row r="468" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B468" s="16"/>
+      <c r="D468" s="16"/>
+    </row>
+    <row r="469" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B469" s="16"/>
+      <c r="D469" s="16"/>
+    </row>
+    <row r="470" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B470" s="16"/>
+      <c r="D470" s="16"/>
+    </row>
+    <row r="471" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B471" s="16"/>
+      <c r="D471" s="16"/>
+    </row>
+    <row r="472" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B472" s="16"/>
+      <c r="D472" s="16"/>
+    </row>
+    <row r="473" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B473" s="16"/>
+      <c r="D473" s="16"/>
+    </row>
+    <row r="474" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B474" s="16"/>
+      <c r="D474" s="16"/>
+    </row>
+    <row r="475" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B475" s="16"/>
+      <c r="D475" s="16"/>
+    </row>
+    <row r="476" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B476" s="16"/>
+      <c r="D476" s="16"/>
+    </row>
+    <row r="477" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B477" s="16"/>
+      <c r="D477" s="16"/>
+    </row>
+    <row r="478" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B478" s="16"/>
+      <c r="D478" s="16"/>
+    </row>
+    <row r="479" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B479" s="16"/>
+      <c r="D479" s="16"/>
+    </row>
+    <row r="480" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B480" s="16"/>
+      <c r="D480" s="16"/>
+    </row>
+    <row r="481" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B481" s="16"/>
+      <c r="D481" s="16"/>
+    </row>
+    <row r="482" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B482" s="16"/>
+      <c r="D482" s="16"/>
+    </row>
+    <row r="483" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B483" s="16"/>
+      <c r="D483" s="16"/>
+    </row>
+    <row r="484" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B484" s="16"/>
+      <c r="D484" s="16"/>
+    </row>
+    <row r="485" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B485" s="16"/>
+      <c r="D485" s="16"/>
+    </row>
+    <row r="486" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B486" s="16"/>
+      <c r="D486" s="16"/>
+    </row>
+    <row r="487" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B487" s="16"/>
+      <c r="D487" s="16"/>
+    </row>
+    <row r="488" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B488" s="16"/>
+      <c r="D488" s="16"/>
+    </row>
+    <row r="489" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B489" s="16"/>
+      <c r="D489" s="16"/>
+    </row>
+    <row r="490" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B490" s="16"/>
+      <c r="D490" s="16"/>
+    </row>
+    <row r="491" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B491" s="16"/>
+      <c r="D491" s="16"/>
+    </row>
+    <row r="492" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B492" s="16"/>
+      <c r="D492" s="16"/>
+    </row>
+    <row r="493" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B493" s="16"/>
+      <c r="D493" s="16"/>
+    </row>
+    <row r="494" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B494" s="16"/>
+      <c r="D494" s="16"/>
+    </row>
+    <row r="495" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B495" s="16"/>
+      <c r="D495" s="16"/>
+    </row>
+    <row r="496" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B496" s="16"/>
+      <c r="D496" s="16"/>
+    </row>
+    <row r="497" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B497" s="16"/>
+      <c r="D497" s="16"/>
+    </row>
+    <row r="498" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B498" s="16"/>
+      <c r="D498" s="16"/>
+    </row>
+    <row r="499" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B499" s="16"/>
+      <c r="D499" s="16"/>
+    </row>
+    <row r="500" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B500" s="16"/>
+      <c r="D500" s="16"/>
+    </row>
+    <row r="501" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B501" s="16"/>
+      <c r="D501" s="16"/>
+    </row>
+    <row r="502" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B502" s="16"/>
+      <c r="D502" s="16"/>
+    </row>
+    <row r="503" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B503" s="16"/>
+      <c r="D503" s="16"/>
+    </row>
+    <row r="504" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B504" s="16"/>
+      <c r="D504" s="16"/>
+    </row>
+    <row r="505" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B505" s="16"/>
+      <c r="D505" s="16"/>
+    </row>
+    <row r="506" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B506" s="16"/>
+      <c r="D506" s="16"/>
+    </row>
+    <row r="507" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B507" s="16"/>
+      <c r="D507" s="16"/>
+    </row>
+    <row r="508" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B508" s="16"/>
+      <c r="D508" s="16"/>
+    </row>
+    <row r="509" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B509" s="16"/>
+      <c r="D509" s="16"/>
+    </row>
+    <row r="510" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B510" s="16"/>
+      <c r="D510" s="16"/>
+    </row>
+    <row r="511" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B511" s="16"/>
+      <c r="D511" s="16"/>
+    </row>
+    <row r="512" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B512" s="16"/>
+      <c r="D512" s="16"/>
+    </row>
+    <row r="513" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B513" s="16"/>
+      <c r="D513" s="16"/>
+    </row>
+    <row r="514" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B514" s="16"/>
+      <c r="D514" s="16"/>
+    </row>
+    <row r="515" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B515" s="16"/>
+      <c r="D515" s="16"/>
+    </row>
+    <row r="516" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B516" s="16"/>
+      <c r="D516" s="16"/>
+    </row>
+    <row r="517" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B517" s="16"/>
+      <c r="D517" s="16"/>
+    </row>
+    <row r="518" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B518" s="16"/>
+      <c r="D518" s="16"/>
+    </row>
+    <row r="519" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B519" s="16"/>
+      <c r="D519" s="16"/>
+    </row>
+    <row r="520" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B520" s="16"/>
+      <c r="D520" s="16"/>
+    </row>
+    <row r="521" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B521" s="16"/>
+      <c r="D521" s="16"/>
+    </row>
+    <row r="522" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B522" s="16"/>
+      <c r="D522" s="16"/>
+    </row>
+    <row r="523" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B523" s="16"/>
+      <c r="D523" s="16"/>
+    </row>
+    <row r="524" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B524" s="16"/>
+      <c r="D524" s="16"/>
+    </row>
+    <row r="525" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B525" s="16"/>
+      <c r="D525" s="16"/>
+    </row>
+    <row r="526" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B526" s="16"/>
+      <c r="D526" s="16"/>
+    </row>
+    <row r="527" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B527" s="16"/>
+      <c r="D527" s="16"/>
+    </row>
+    <row r="528" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B528" s="16"/>
+      <c r="D528" s="16"/>
+    </row>
+    <row r="529" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B529" s="16"/>
+      <c r="D529" s="16"/>
+    </row>
+    <row r="530" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B530" s="16"/>
+      <c r="D530" s="16"/>
+    </row>
+    <row r="531" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B531" s="16"/>
+      <c r="D531" s="16"/>
+    </row>
+    <row r="532" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B532" s="16"/>
+      <c r="D532" s="16"/>
+    </row>
+    <row r="533" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B533" s="16"/>
+      <c r="D533" s="16"/>
+    </row>
+    <row r="534" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B534" s="16"/>
+      <c r="D534" s="16"/>
+    </row>
+    <row r="535" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B535" s="16"/>
+      <c r="D535" s="16"/>
+    </row>
+    <row r="536" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B536" s="16"/>
+      <c r="D536" s="16"/>
+    </row>
+    <row r="537" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B537" s="16"/>
+      <c r="D537" s="16"/>
+    </row>
+    <row r="538" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B538" s="16"/>
+      <c r="D538" s="16"/>
+    </row>
+    <row r="539" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B539" s="16"/>
+      <c r="D539" s="16"/>
+    </row>
+    <row r="540" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B540" s="16"/>
+      <c r="D540" s="16"/>
+    </row>
+    <row r="541" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B541" s="16"/>
+      <c r="D541" s="16"/>
+    </row>
+    <row r="542" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B542" s="16"/>
+      <c r="D542" s="16"/>
+    </row>
+    <row r="543" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B543" s="16"/>
+      <c r="D543" s="16"/>
+    </row>
+    <row r="544" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B544" s="16"/>
+      <c r="D544" s="16"/>
+    </row>
+    <row r="545" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B545" s="16"/>
+      <c r="D545" s="16"/>
+    </row>
+    <row r="546" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B546" s="16"/>
+      <c r="D546" s="16"/>
+    </row>
+    <row r="547" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B547" s="16"/>
+      <c r="D547" s="16"/>
+    </row>
+    <row r="548" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B548" s="16"/>
+      <c r="D548" s="16"/>
+    </row>
+    <row r="549" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B549" s="16"/>
+      <c r="D549" s="16"/>
+    </row>
+    <row r="550" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B550" s="16"/>
+      <c r="D550" s="16"/>
+    </row>
+    <row r="551" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B551" s="16"/>
+      <c r="D551" s="16"/>
+    </row>
+    <row r="552" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B552" s="16"/>
+      <c r="D552" s="16"/>
+    </row>
+    <row r="553" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B553" s="16"/>
+      <c r="D553" s="16"/>
+    </row>
+    <row r="554" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B554" s="16"/>
+      <c r="D554" s="16"/>
+    </row>
+    <row r="555" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B555" s="16"/>
+      <c r="D555" s="16"/>
+    </row>
+    <row r="556" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B556" s="16"/>
+      <c r="D556" s="16"/>
+    </row>
+    <row r="557" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B557" s="16"/>
+      <c r="D557" s="16"/>
+    </row>
+    <row r="558" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B558" s="16"/>
+      <c r="D558" s="16"/>
+    </row>
+    <row r="559" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B559" s="16"/>
+      <c r="D559" s="16"/>
+    </row>
+    <row r="560" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B560" s="16"/>
+      <c r="D560" s="16"/>
+    </row>
+    <row r="561" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B561" s="16"/>
+      <c r="D561" s="16"/>
+    </row>
+    <row r="562" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B562" s="16"/>
+      <c r="D562" s="16"/>
+    </row>
+    <row r="563" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B563" s="16"/>
+      <c r="D563" s="16"/>
+    </row>
+    <row r="564" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B564" s="16"/>
+      <c r="D564" s="16"/>
+    </row>
+    <row r="565" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B565" s="16"/>
+      <c r="D565" s="16"/>
+    </row>
+    <row r="566" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B566" s="16"/>
+      <c r="D566" s="16"/>
+    </row>
+    <row r="567" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B567" s="16"/>
+      <c r="D567" s="16"/>
+    </row>
+    <row r="568" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B568" s="16"/>
+      <c r="D568" s="16"/>
+    </row>
+    <row r="569" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B569" s="16"/>
+      <c r="D569" s="16"/>
+    </row>
+    <row r="570" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B570" s="16"/>
+      <c r="D570" s="16"/>
+    </row>
+    <row r="571" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B571" s="16"/>
+      <c r="D571" s="16"/>
+    </row>
+    <row r="572" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B572" s="16"/>
+      <c r="D572" s="16"/>
+    </row>
+    <row r="573" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B573" s="16"/>
+      <c r="D573" s="16"/>
+    </row>
+    <row r="574" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B574" s="16"/>
+      <c r="D574" s="16"/>
+    </row>
+    <row r="575" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B575" s="16"/>
+      <c r="D575" s="16"/>
+    </row>
+    <row r="576" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B576" s="16"/>
+      <c r="D576" s="16"/>
+    </row>
+    <row r="577" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B577" s="16"/>
+      <c r="D577" s="16"/>
+    </row>
+    <row r="578" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B578" s="16"/>
+      <c r="D578" s="16"/>
+    </row>
+    <row r="579" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B579" s="16"/>
+      <c r="D579" s="16"/>
+    </row>
+    <row r="580" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B580" s="16"/>
+      <c r="D580" s="16"/>
+    </row>
+    <row r="581" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B581" s="16"/>
+      <c r="D581" s="16"/>
+    </row>
+    <row r="582" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B582" s="16"/>
+      <c r="D582" s="16"/>
+    </row>
+    <row r="583" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B583" s="16"/>
+      <c r="D583" s="16"/>
+    </row>
+    <row r="584" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B584" s="16"/>
+      <c r="D584" s="16"/>
+    </row>
+    <row r="585" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B585" s="16"/>
+      <c r="D585" s="16"/>
+    </row>
+    <row r="586" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B586" s="16"/>
+      <c r="D586" s="16"/>
+    </row>
+    <row r="587" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B587" s="16"/>
+      <c r="D587" s="16"/>
+    </row>
+    <row r="588" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B588" s="16"/>
+      <c r="D588" s="16"/>
+    </row>
+    <row r="589" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B589" s="16"/>
+      <c r="D589" s="16"/>
+    </row>
+    <row r="590" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B590" s="16"/>
+      <c r="D590" s="16"/>
+    </row>
+    <row r="591" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B591" s="16"/>
+      <c r="D591" s="16"/>
+    </row>
+    <row r="592" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B592" s="16"/>
+      <c r="D592" s="16"/>
+    </row>
+    <row r="593" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B593" s="16"/>
+      <c r="D593" s="16"/>
+    </row>
+    <row r="594" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B594" s="16"/>
+      <c r="D594" s="16"/>
+    </row>
+    <row r="595" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B595" s="16"/>
+      <c r="D595" s="16"/>
+    </row>
+    <row r="596" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B596" s="16"/>
+      <c r="D596" s="16"/>
+    </row>
+    <row r="597" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B597" s="16"/>
+      <c r="D597" s="16"/>
+    </row>
+    <row r="598" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B598" s="16"/>
+      <c r="D598" s="16"/>
+    </row>
+    <row r="599" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B599" s="16"/>
+      <c r="D599" s="16"/>
+    </row>
+    <row r="600" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B600" s="16"/>
+      <c r="D600" s="16"/>
+    </row>
+    <row r="601" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B601" s="16"/>
+      <c r="D601" s="16"/>
+    </row>
+    <row r="602" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B602" s="16"/>
+      <c r="D602" s="16"/>
+    </row>
+    <row r="603" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B603" s="16"/>
+      <c r="D603" s="16"/>
+    </row>
+    <row r="604" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B604" s="16"/>
+      <c r="D604" s="16"/>
+    </row>
+    <row r="605" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B605" s="16"/>
+      <c r="D605" s="16"/>
+    </row>
+    <row r="606" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B606" s="16"/>
+      <c r="D606" s="16"/>
+    </row>
+    <row r="607" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B607" s="16"/>
+      <c r="D607" s="16"/>
+    </row>
+    <row r="608" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B608" s="16"/>
+      <c r="D608" s="16"/>
+    </row>
+    <row r="609" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B609" s="16"/>
+      <c r="D609" s="16"/>
+    </row>
+    <row r="610" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B610" s="16"/>
+      <c r="D610" s="16"/>
+    </row>
+    <row r="611" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B611" s="16"/>
+      <c r="D611" s="16"/>
+    </row>
+    <row r="612" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B612" s="16"/>
+      <c r="D612" s="16"/>
+    </row>
+    <row r="613" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B613" s="16"/>
+      <c r="D613" s="16"/>
+    </row>
+    <row r="614" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B614" s="16"/>
+      <c r="D614" s="16"/>
+    </row>
+    <row r="615" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B615" s="16"/>
+      <c r="D615" s="16"/>
+    </row>
+    <row r="616" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B616" s="16"/>
+      <c r="D616" s="16"/>
+    </row>
+    <row r="617" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B617" s="16"/>
+      <c r="D617" s="16"/>
+    </row>
+    <row r="618" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B618" s="16"/>
+      <c r="D618" s="16"/>
+    </row>
+    <row r="619" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B619" s="16"/>
+      <c r="D619" s="16"/>
+    </row>
+    <row r="620" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B620" s="16"/>
+      <c r="D620" s="16"/>
+    </row>
+    <row r="621" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B621" s="16"/>
+      <c r="D621" s="16"/>
+    </row>
+    <row r="622" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B622" s="16"/>
+      <c r="D622" s="16"/>
+    </row>
+    <row r="623" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B623" s="16"/>
+      <c r="D623" s="16"/>
+    </row>
+    <row r="624" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B624" s="16"/>
+      <c r="D624" s="16"/>
+    </row>
+    <row r="625" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B625" s="16"/>
+      <c r="D625" s="16"/>
+    </row>
+    <row r="626" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B626" s="16"/>
+      <c r="D626" s="16"/>
+    </row>
+    <row r="627" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B627" s="16"/>
+      <c r="D627" s="16"/>
+    </row>
+    <row r="628" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B628" s="16"/>
+      <c r="D628" s="16"/>
+    </row>
+    <row r="629" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B629" s="16"/>
+      <c r="D629" s="16"/>
+    </row>
+    <row r="630" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B630" s="16"/>
+      <c r="D630" s="16"/>
+    </row>
+    <row r="631" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B631" s="16"/>
+      <c r="D631" s="16"/>
+    </row>
+    <row r="632" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B632" s="16"/>
+      <c r="D632" s="16"/>
+    </row>
+    <row r="633" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B633" s="16"/>
+      <c r="D633" s="16"/>
+    </row>
+    <row r="634" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B634" s="16"/>
+      <c r="D634" s="16"/>
+    </row>
+    <row r="635" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B635" s="16"/>
+      <c r="D635" s="16"/>
+    </row>
+    <row r="636" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B636" s="16"/>
+      <c r="D636" s="16"/>
+    </row>
+    <row r="637" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B637" s="16"/>
+      <c r="D637" s="16"/>
+    </row>
+    <row r="638" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B638" s="16"/>
+      <c r="D638" s="16"/>
+    </row>
+    <row r="639" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B639" s="16"/>
+      <c r="D639" s="16"/>
+    </row>
+    <row r="640" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B640" s="16"/>
+      <c r="D640" s="16"/>
+    </row>
+    <row r="641" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B641" s="16"/>
+      <c r="D641" s="16"/>
+    </row>
+    <row r="642" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B642" s="16"/>
+      <c r="D642" s="16"/>
+    </row>
+    <row r="643" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B643" s="16"/>
+      <c r="D643" s="16"/>
+    </row>
+    <row r="644" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B644" s="16"/>
+      <c r="D644" s="16"/>
+    </row>
+    <row r="645" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B645" s="16"/>
+      <c r="D645" s="16"/>
+    </row>
+    <row r="646" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B646" s="16"/>
+      <c r="D646" s="16"/>
+    </row>
+    <row r="647" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B647" s="16"/>
+      <c r="D647" s="16"/>
+    </row>
+    <row r="648" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B648" s="16"/>
+      <c r="D648" s="16"/>
+    </row>
+    <row r="649" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B649" s="16"/>
+      <c r="D649" s="16"/>
+    </row>
+    <row r="650" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B650" s="16"/>
+      <c r="D650" s="16"/>
+    </row>
+    <row r="651" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B651" s="16"/>
+      <c r="D651" s="16"/>
+    </row>
+    <row r="652" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B652" s="16"/>
+      <c r="D652" s="16"/>
+    </row>
+    <row r="653" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B653" s="16"/>
+      <c r="D653" s="16"/>
+    </row>
+    <row r="654" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B654" s="16"/>
+      <c r="D654" s="16"/>
+    </row>
+    <row r="655" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B655" s="16"/>
+      <c r="D655" s="16"/>
+    </row>
+    <row r="656" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B656" s="16"/>
+      <c r="D656" s="16"/>
+    </row>
+    <row r="657" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B657" s="16"/>
+      <c r="D657" s="16"/>
+    </row>
+    <row r="658" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B658" s="16"/>
+      <c r="D658" s="16"/>
+    </row>
+    <row r="659" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B659" s="16"/>
+      <c r="D659" s="16"/>
+    </row>
+    <row r="660" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B660" s="16"/>
+      <c r="D660" s="16"/>
+    </row>
+    <row r="661" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B661" s="16"/>
+      <c r="D661" s="16"/>
+    </row>
+    <row r="662" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B662" s="16"/>
+      <c r="D662" s="16"/>
+    </row>
+    <row r="663" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B663" s="16"/>
+      <c r="D663" s="16"/>
+    </row>
+    <row r="664" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B664" s="16"/>
+      <c r="D664" s="16"/>
+    </row>
+    <row r="665" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B665" s="16"/>
+      <c r="D665" s="16"/>
+    </row>
+    <row r="666" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B666" s="16"/>
+      <c r="D666" s="16"/>
+    </row>
+    <row r="667" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B667" s="16"/>
+      <c r="D667" s="16"/>
+    </row>
+    <row r="668" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B668" s="16"/>
+      <c r="D668" s="16"/>
+    </row>
+    <row r="669" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B669" s="16"/>
+      <c r="D669" s="16"/>
+    </row>
+    <row r="670" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B670" s="16"/>
+      <c r="D670" s="16"/>
+    </row>
+    <row r="671" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B671" s="16"/>
+      <c r="D671" s="16"/>
+    </row>
+    <row r="672" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B672" s="16"/>
+      <c r="D672" s="16"/>
+    </row>
+    <row r="673" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B673" s="16"/>
+      <c r="D673" s="16"/>
+    </row>
+    <row r="674" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B674" s="16"/>
+      <c r="D674" s="16"/>
+    </row>
+    <row r="675" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B675" s="16"/>
+      <c r="D675" s="16"/>
+    </row>
+    <row r="676" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B676" s="16"/>
+      <c r="D676" s="16"/>
+    </row>
+    <row r="677" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B677" s="16"/>
+      <c r="D677" s="16"/>
+    </row>
+    <row r="678" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B678" s="16"/>
+      <c r="D678" s="16"/>
+    </row>
+    <row r="679" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B679" s="16"/>
+      <c r="D679" s="16"/>
+    </row>
+    <row r="680" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B680" s="16"/>
+      <c r="D680" s="16"/>
+    </row>
+    <row r="681" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B681" s="16"/>
+      <c r="D681" s="16"/>
+    </row>
+    <row r="682" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B682" s="16"/>
+      <c r="D682" s="16"/>
+    </row>
+    <row r="683" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B683" s="16"/>
+      <c r="D683" s="16"/>
+    </row>
+    <row r="684" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B684" s="16"/>
+      <c r="D684" s="16"/>
+    </row>
+    <row r="685" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B685" s="16"/>
+      <c r="D685" s="16"/>
+    </row>
+    <row r="686" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B686" s="16"/>
+      <c r="D686" s="16"/>
+    </row>
+    <row r="687" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B687" s="16"/>
+      <c r="D687" s="16"/>
+    </row>
+    <row r="688" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B688" s="16"/>
+      <c r="D688" s="16"/>
+    </row>
+    <row r="689" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B689" s="16"/>
+      <c r="D689" s="16"/>
+    </row>
+    <row r="690" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B690" s="16"/>
+      <c r="D690" s="16"/>
+    </row>
+    <row r="691" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B691" s="16"/>
+      <c r="D691" s="16"/>
+    </row>
+    <row r="692" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B692" s="16"/>
+      <c r="D692" s="16"/>
+    </row>
+    <row r="693" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B693" s="16"/>
+      <c r="D693" s="16"/>
+    </row>
+    <row r="694" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B694" s="16"/>
+      <c r="D694" s="16"/>
+    </row>
+    <row r="695" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B695" s="16"/>
+      <c r="D695" s="16"/>
+    </row>
+    <row r="696" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B696" s="16"/>
+      <c r="D696" s="16"/>
+    </row>
+    <row r="697" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B697" s="16"/>
+      <c r="D697" s="16"/>
+    </row>
+    <row r="698" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B698" s="16"/>
+      <c r="D698" s="16"/>
+    </row>
+    <row r="699" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B699" s="16"/>
+      <c r="D699" s="16"/>
+    </row>
+    <row r="700" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B700" s="16"/>
+      <c r="D700" s="16"/>
+    </row>
+    <row r="701" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B701" s="16"/>
+      <c r="D701" s="16"/>
+    </row>
+    <row r="702" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B702" s="16"/>
+      <c r="D702" s="16"/>
+    </row>
+    <row r="703" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B703" s="16"/>
+      <c r="D703" s="16"/>
+    </row>
+    <row r="704" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B704" s="16"/>
+      <c r="D704" s="16"/>
+    </row>
+    <row r="705" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B705" s="16"/>
+      <c r="D705" s="16"/>
+    </row>
+    <row r="706" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B706" s="16"/>
+      <c r="D706" s="16"/>
+    </row>
+    <row r="707" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B707" s="16"/>
+      <c r="D707" s="16"/>
+    </row>
+    <row r="708" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B708" s="16"/>
+      <c r="D708" s="16"/>
+    </row>
+    <row r="709" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B709" s="16"/>
+      <c r="D709" s="16"/>
+    </row>
+    <row r="710" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B710" s="16"/>
+      <c r="D710" s="16"/>
+    </row>
+    <row r="711" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B711" s="16"/>
+      <c r="D711" s="16"/>
+    </row>
+    <row r="712" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B712" s="16"/>
+      <c r="D712" s="16"/>
+    </row>
+    <row r="713" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B713" s="16"/>
+      <c r="D713" s="16"/>
+    </row>
+    <row r="714" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B714" s="16"/>
+      <c r="D714" s="16"/>
+    </row>
+    <row r="715" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B715" s="16"/>
+      <c r="D715" s="16"/>
+    </row>
+    <row r="716" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B716" s="16"/>
+      <c r="D716" s="16"/>
+    </row>
+    <row r="717" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B717" s="16"/>
+      <c r="D717" s="16"/>
+    </row>
+    <row r="718" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B718" s="16"/>
+      <c r="D718" s="16"/>
+    </row>
+    <row r="719" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B719" s="16"/>
+      <c r="D719" s="16"/>
+    </row>
+    <row r="720" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B720" s="16"/>
+      <c r="D720" s="16"/>
+    </row>
+    <row r="721" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B721" s="16"/>
+      <c r="D721" s="16"/>
+    </row>
+    <row r="722" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B722" s="16"/>
+      <c r="D722" s="16"/>
+    </row>
+    <row r="723" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B723" s="16"/>
+      <c r="D723" s="16"/>
+    </row>
+    <row r="724" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B724" s="16"/>
+      <c r="D724" s="16"/>
+    </row>
+    <row r="725" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B725" s="16"/>
+      <c r="D725" s="16"/>
+    </row>
+    <row r="726" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B726" s="16"/>
+      <c r="D726" s="16"/>
+    </row>
+    <row r="727" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B727" s="16"/>
+      <c r="D727" s="16"/>
+    </row>
+    <row r="728" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B728" s="16"/>
+      <c r="D728" s="16"/>
+    </row>
+    <row r="729" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B729" s="16"/>
+      <c r="D729" s="16"/>
+    </row>
+    <row r="730" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B730" s="16"/>
+      <c r="D730" s="16"/>
+    </row>
+    <row r="731" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B731" s="16"/>
+      <c r="D731" s="16"/>
+    </row>
+    <row r="732" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B732" s="16"/>
+      <c r="D732" s="16"/>
+    </row>
+    <row r="733" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B733" s="16"/>
+      <c r="D733" s="16"/>
+    </row>
+    <row r="734" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B734" s="16"/>
+      <c r="D734" s="16"/>
+    </row>
+    <row r="735" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B735" s="16"/>
+      <c r="D735" s="16"/>
+    </row>
+    <row r="736" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B736" s="16"/>
+      <c r="D736" s="16"/>
+    </row>
+    <row r="737" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B737" s="16"/>
+      <c r="D737" s="16"/>
+    </row>
+    <row r="738" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B738" s="16"/>
+      <c r="D738" s="16"/>
+    </row>
+    <row r="739" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B739" s="16"/>
+      <c r="D739" s="16"/>
+    </row>
+    <row r="740" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B740" s="16"/>
+      <c r="D740" s="16"/>
+    </row>
+    <row r="741" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B741" s="16"/>
+      <c r="D741" s="16"/>
+    </row>
+    <row r="742" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B742" s="16"/>
+      <c r="D742" s="16"/>
+    </row>
+    <row r="743" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B743" s="16"/>
+      <c r="D743" s="16"/>
+    </row>
+    <row r="744" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B744" s="16"/>
+      <c r="D744" s="16"/>
+    </row>
+    <row r="745" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B745" s="16"/>
+      <c r="D745" s="16"/>
+    </row>
+    <row r="746" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B746" s="16"/>
+      <c r="D746" s="16"/>
+    </row>
+    <row r="747" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B747" s="16"/>
+      <c r="D747" s="16"/>
+    </row>
+    <row r="748" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B748" s="16"/>
+      <c r="D748" s="16"/>
+    </row>
+    <row r="749" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B749" s="16"/>
+      <c r="D749" s="16"/>
+    </row>
+    <row r="750" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B750" s="16"/>
+      <c r="D750" s="16"/>
+    </row>
+    <row r="751" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B751" s="16"/>
+      <c r="D751" s="16"/>
+    </row>
+    <row r="752" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B752" s="16"/>
+      <c r="D752" s="16"/>
+    </row>
+    <row r="753" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B753" s="16"/>
+      <c r="D753" s="16"/>
+    </row>
+    <row r="754" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B754" s="16"/>
+      <c r="D754" s="16"/>
+    </row>
+    <row r="755" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B755" s="16"/>
+      <c r="D755" s="16"/>
+    </row>
+    <row r="756" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B756" s="16"/>
+      <c r="D756" s="16"/>
+    </row>
+    <row r="757" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B757" s="16"/>
+      <c r="D757" s="16"/>
+    </row>
+    <row r="758" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B758" s="16"/>
+      <c r="D758" s="16"/>
+    </row>
+    <row r="759" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B759" s="16"/>
+      <c r="D759" s="16"/>
+    </row>
+    <row r="760" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B760" s="16"/>
+      <c r="D760" s="16"/>
+    </row>
+    <row r="761" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B761" s="16"/>
+      <c r="D761" s="16"/>
+    </row>
+    <row r="762" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B762" s="16"/>
+      <c r="D762" s="16"/>
+    </row>
+    <row r="763" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B763" s="16"/>
+      <c r="D763" s="16"/>
+    </row>
+    <row r="764" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B764" s="16"/>
+      <c r="D764" s="16"/>
+    </row>
+    <row r="765" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B765" s="16"/>
+      <c r="D765" s="16"/>
+    </row>
+    <row r="766" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B766" s="16"/>
+      <c r="D766" s="16"/>
+    </row>
+    <row r="767" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B767" s="16"/>
+      <c r="D767" s="16"/>
+    </row>
+    <row r="768" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B768" s="16"/>
+      <c r="D768" s="16"/>
+    </row>
+    <row r="769" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B769" s="16"/>
+      <c r="D769" s="16"/>
+    </row>
+    <row r="770" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B770" s="16"/>
+      <c r="D770" s="16"/>
+    </row>
+    <row r="771" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B771" s="16"/>
+      <c r="D771" s="16"/>
+    </row>
+    <row r="772" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B772" s="16"/>
+      <c r="D772" s="16"/>
+    </row>
+    <row r="773" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B773" s="16"/>
+      <c r="D773" s="16"/>
+    </row>
+    <row r="774" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B774" s="16"/>
+      <c r="D774" s="16"/>
+    </row>
+    <row r="775" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B775" s="16"/>
+      <c r="D775" s="16"/>
+    </row>
+    <row r="776" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B776" s="16"/>
+      <c r="D776" s="16"/>
+    </row>
+    <row r="777" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B777" s="16"/>
+      <c r="D777" s="16"/>
+    </row>
+    <row r="778" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B778" s="16"/>
+      <c r="D778" s="16"/>
+    </row>
+    <row r="779" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B779" s="16"/>
+      <c r="D779" s="16"/>
+    </row>
+    <row r="780" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B780" s="16"/>
+      <c r="D780" s="16"/>
+    </row>
+    <row r="781" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B781" s="16"/>
+      <c r="D781" s="16"/>
+    </row>
+    <row r="782" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B782" s="16"/>
+      <c r="D782" s="16"/>
+    </row>
+    <row r="783" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B783" s="16"/>
+      <c r="D783" s="16"/>
+    </row>
+    <row r="784" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B784" s="16"/>
+      <c r="D784" s="16"/>
+    </row>
+    <row r="785" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B785" s="16"/>
+      <c r="D785" s="16"/>
+    </row>
+    <row r="786" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B786" s="16"/>
+      <c r="D786" s="16"/>
+    </row>
+    <row r="787" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B787" s="16"/>
+      <c r="D787" s="16"/>
+    </row>
+    <row r="788" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B788" s="16"/>
+      <c r="D788" s="16"/>
+    </row>
+    <row r="789" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B789" s="16"/>
+      <c r="D789" s="16"/>
+    </row>
+    <row r="790" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B790" s="16"/>
+      <c r="D790" s="16"/>
+    </row>
+    <row r="791" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B791" s="16"/>
+      <c r="D791" s="16"/>
+    </row>
+    <row r="792" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B792" s="16"/>
+      <c r="D792" s="16"/>
+    </row>
+    <row r="793" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B793" s="16"/>
+      <c r="D793" s="16"/>
+    </row>
+    <row r="794" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B794" s="16"/>
+      <c r="D794" s="16"/>
+    </row>
+    <row r="795" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B795" s="16"/>
+      <c r="D795" s="16"/>
+    </row>
+    <row r="796" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B796" s="16"/>
+      <c r="D796" s="16"/>
+    </row>
+    <row r="797" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B797" s="16"/>
+      <c r="D797" s="16"/>
+    </row>
+    <row r="798" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B798" s="16"/>
+      <c r="D798" s="16"/>
+    </row>
+    <row r="799" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B799" s="16"/>
+      <c r="D799" s="16"/>
+    </row>
+    <row r="800" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B800" s="16"/>
+      <c r="D800" s="16"/>
+    </row>
+    <row r="801" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B801" s="16"/>
+      <c r="D801" s="16"/>
+    </row>
+    <row r="802" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B802" s="16"/>
+      <c r="D802" s="16"/>
+    </row>
+    <row r="803" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B803" s="16"/>
+      <c r="D803" s="16"/>
+    </row>
+    <row r="804" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B804" s="16"/>
+      <c r="D804" s="16"/>
+    </row>
+    <row r="805" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B805" s="16"/>
+      <c r="D805" s="16"/>
+    </row>
+    <row r="806" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B806" s="16"/>
+      <c r="D806" s="16"/>
+    </row>
+    <row r="807" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B807" s="16"/>
+      <c r="D807" s="16"/>
+    </row>
+    <row r="808" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B808" s="16"/>
+      <c r="D808" s="16"/>
+    </row>
+    <row r="809" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B809" s="16"/>
+      <c r="D809" s="16"/>
+    </row>
+    <row r="810" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B810" s="16"/>
+      <c r="D810" s="16"/>
+    </row>
+    <row r="811" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B811" s="16"/>
+      <c r="D811" s="16"/>
+    </row>
+    <row r="812" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B812" s="16"/>
+      <c r="D812" s="16"/>
+    </row>
+    <row r="813" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B813" s="16"/>
+      <c r="D813" s="16"/>
+    </row>
+    <row r="814" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B814" s="16"/>
+      <c r="D814" s="16"/>
+    </row>
+    <row r="815" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B815" s="16"/>
+      <c r="D815" s="16"/>
+    </row>
+    <row r="816" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B816" s="16"/>
+      <c r="D816" s="16"/>
+    </row>
+    <row r="817" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B817" s="16"/>
+      <c r="D817" s="16"/>
+    </row>
+    <row r="818" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B818" s="16"/>
+      <c r="D818" s="16"/>
+    </row>
+    <row r="819" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B819" s="16"/>
+      <c r="D819" s="16"/>
+    </row>
+    <row r="820" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B820" s="16"/>
+      <c r="D820" s="16"/>
+    </row>
+    <row r="821" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B821" s="16"/>
+      <c r="D821" s="16"/>
+    </row>
+    <row r="822" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B822" s="16"/>
+      <c r="D822" s="16"/>
+    </row>
+    <row r="823" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B823" s="16"/>
+      <c r="D823" s="16"/>
+    </row>
+    <row r="824" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B824" s="16"/>
+      <c r="D824" s="16"/>
+    </row>
+    <row r="825" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B825" s="16"/>
+      <c r="D825" s="16"/>
+    </row>
+    <row r="826" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B826" s="16"/>
+      <c r="D826" s="16"/>
+    </row>
+    <row r="827" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B827" s="16"/>
+      <c r="D827" s="16"/>
+    </row>
+    <row r="828" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B828" s="16"/>
+      <c r="D828" s="16"/>
+    </row>
+    <row r="829" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B829" s="16"/>
+      <c r="D829" s="16"/>
+    </row>
+    <row r="830" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B830" s="16"/>
+      <c r="D830" s="16"/>
+    </row>
+    <row r="831" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B831" s="16"/>
+      <c r="D831" s="16"/>
+    </row>
+    <row r="832" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B832" s="16"/>
+      <c r="D832" s="16"/>
+    </row>
+    <row r="833" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B833" s="16"/>
+      <c r="D833" s="16"/>
+    </row>
+    <row r="834" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B834" s="16"/>
+      <c r="D834" s="16"/>
+    </row>
+    <row r="835" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B835" s="16"/>
+      <c r="D835" s="16"/>
+    </row>
+    <row r="836" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B836" s="16"/>
+      <c r="D836" s="16"/>
+    </row>
+    <row r="837" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B837" s="16"/>
+      <c r="D837" s="16"/>
+    </row>
+    <row r="838" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B838" s="16"/>
+      <c r="D838" s="16"/>
+    </row>
+    <row r="839" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B839" s="16"/>
+      <c r="D839" s="16"/>
+    </row>
+    <row r="840" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B840" s="16"/>
+      <c r="D840" s="16"/>
+    </row>
+    <row r="841" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B841" s="16"/>
+      <c r="D841" s="16"/>
+    </row>
+    <row r="842" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B842" s="16"/>
+      <c r="D842" s="16"/>
+    </row>
+    <row r="843" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B843" s="16"/>
+      <c r="D843" s="16"/>
+    </row>
+    <row r="844" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B844" s="16"/>
+      <c r="D844" s="16"/>
+    </row>
+    <row r="845" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B845" s="16"/>
+      <c r="D845" s="16"/>
+    </row>
+    <row r="846" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B846" s="16"/>
+      <c r="D846" s="16"/>
+    </row>
+    <row r="847" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B847" s="16"/>
+      <c r="D847" s="16"/>
+    </row>
+    <row r="848" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B848" s="16"/>
+      <c r="D848" s="16"/>
+    </row>
+    <row r="849" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B849" s="16"/>
+      <c r="D849" s="16"/>
+    </row>
+    <row r="850" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B850" s="16"/>
+      <c r="D850" s="16"/>
+    </row>
+    <row r="851" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B851" s="16"/>
+      <c r="D851" s="16"/>
+    </row>
+    <row r="852" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B852" s="16"/>
+      <c r="D852" s="16"/>
+    </row>
+    <row r="853" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B853" s="16"/>
+      <c r="D853" s="16"/>
+    </row>
+    <row r="854" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B854" s="16"/>
+      <c r="D854" s="16"/>
+    </row>
+    <row r="855" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B855" s="16"/>
+      <c r="D855" s="16"/>
+    </row>
+    <row r="856" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B856" s="16"/>
+      <c r="D856" s="16"/>
+    </row>
+    <row r="857" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B857" s="16"/>
+      <c r="D857" s="16"/>
+    </row>
+    <row r="858" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B858" s="16"/>
+      <c r="D858" s="16"/>
+    </row>
+    <row r="859" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B859" s="16"/>
+      <c r="D859" s="16"/>
+    </row>
+    <row r="860" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B860" s="16"/>
+      <c r="D860" s="16"/>
+    </row>
+    <row r="861" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B861" s="16"/>
+      <c r="D861" s="16"/>
+    </row>
+    <row r="862" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B862" s="16"/>
+      <c r="D862" s="16"/>
+    </row>
+    <row r="863" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B863" s="16"/>
+      <c r="D863" s="16"/>
+    </row>
+    <row r="864" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B864" s="16"/>
+      <c r="D864" s="16"/>
+    </row>
+    <row r="865" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B865" s="16"/>
+      <c r="D865" s="16"/>
+    </row>
+    <row r="866" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B866" s="16"/>
+      <c r="D866" s="16"/>
+    </row>
+    <row r="867" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B867" s="16"/>
+      <c r="D867" s="16"/>
+    </row>
+    <row r="868" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B868" s="16"/>
+      <c r="D868" s="16"/>
+    </row>
+    <row r="869" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B869" s="16"/>
+      <c r="D869" s="16"/>
+    </row>
+    <row r="870" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B870" s="16"/>
+      <c r="D870" s="16"/>
+    </row>
+    <row r="871" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B871" s="16"/>
+      <c r="D871" s="16"/>
+    </row>
+    <row r="872" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B872" s="16"/>
+      <c r="D872" s="16"/>
+    </row>
+    <row r="873" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B873" s="16"/>
+      <c r="D873" s="16"/>
+    </row>
+    <row r="874" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B874" s="16"/>
+      <c r="D874" s="16"/>
+    </row>
+    <row r="875" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B875" s="16"/>
+      <c r="D875" s="16"/>
+    </row>
+    <row r="876" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B876" s="16"/>
+      <c r="D876" s="16"/>
+    </row>
+    <row r="877" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B877" s="16"/>
+      <c r="D877" s="16"/>
+    </row>
+    <row r="878" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B878" s="16"/>
+      <c r="D878" s="16"/>
+    </row>
+    <row r="879" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B879" s="16"/>
+      <c r="D879" s="16"/>
+    </row>
+    <row r="880" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B880" s="16"/>
+      <c r="D880" s="16"/>
+    </row>
+    <row r="881" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B881" s="16"/>
+      <c r="D881" s="16"/>
+    </row>
+    <row r="882" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B882" s="16"/>
+      <c r="D882" s="16"/>
+    </row>
+    <row r="883" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B883" s="16"/>
+      <c r="D883" s="16"/>
+    </row>
+    <row r="884" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B884" s="16"/>
+      <c r="D884" s="16"/>
+    </row>
+    <row r="885" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B885" s="16"/>
+      <c r="D885" s="16"/>
+    </row>
+    <row r="886" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B886" s="16"/>
+      <c r="D886" s="16"/>
+    </row>
+    <row r="887" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B887" s="16"/>
+      <c r="D887" s="16"/>
+    </row>
+    <row r="888" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B888" s="16"/>
+      <c r="D888" s="16"/>
+    </row>
+    <row r="889" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B889" s="16"/>
+      <c r="D889" s="16"/>
+    </row>
+    <row r="890" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B890" s="16"/>
+      <c r="D890" s="16"/>
+    </row>
+    <row r="891" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B891" s="16"/>
+      <c r="D891" s="16"/>
+    </row>
+    <row r="892" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B892" s="16"/>
+      <c r="D892" s="16"/>
+    </row>
+    <row r="893" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B893" s="16"/>
+      <c r="D893" s="16"/>
+    </row>
+    <row r="894" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B894" s="16"/>
+      <c r="D894" s="16"/>
+    </row>
+    <row r="895" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B895" s="16"/>
+      <c r="D895" s="16"/>
+    </row>
+    <row r="896" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B896" s="16"/>
+      <c r="D896" s="16"/>
+    </row>
+    <row r="897" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B897" s="16"/>
+      <c r="D897" s="16"/>
+    </row>
+    <row r="898" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B898" s="16"/>
+      <c r="D898" s="16"/>
+    </row>
+    <row r="899" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B899" s="16"/>
+      <c r="D899" s="16"/>
+    </row>
+    <row r="900" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B900" s="16"/>
+      <c r="D900" s="16"/>
+    </row>
+    <row r="901" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B901" s="16"/>
+      <c r="D901" s="16"/>
+    </row>
+    <row r="902" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B902" s="16"/>
+      <c r="D902" s="16"/>
+    </row>
+    <row r="903" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B903" s="16"/>
+      <c r="D903" s="16"/>
+    </row>
+    <row r="904" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B904" s="16"/>
+      <c r="D904" s="16"/>
+    </row>
+    <row r="905" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B905" s="16"/>
+      <c r="D905" s="16"/>
+    </row>
+    <row r="906" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B906" s="16"/>
+      <c r="D906" s="16"/>
+    </row>
+    <row r="907" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B907" s="16"/>
+      <c r="D907" s="16"/>
+    </row>
+    <row r="908" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B908" s="16"/>
+      <c r="D908" s="16"/>
+    </row>
+    <row r="909" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B909" s="16"/>
+      <c r="D909" s="16"/>
+    </row>
+    <row r="910" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B910" s="16"/>
+      <c r="D910" s="16"/>
+    </row>
+    <row r="911" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B911" s="16"/>
+      <c r="D911" s="16"/>
+    </row>
+    <row r="912" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B912" s="16"/>
+      <c r="D912" s="16"/>
+    </row>
+    <row r="913" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B913" s="16"/>
+      <c r="D913" s="16"/>
+    </row>
+    <row r="914" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B914" s="16"/>
+      <c r="D914" s="16"/>
+    </row>
+    <row r="915" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B915" s="16"/>
+      <c r="D915" s="16"/>
+    </row>
+    <row r="916" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B916" s="16"/>
+      <c r="D916" s="16"/>
+    </row>
+    <row r="917" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B917" s="16"/>
+      <c r="D917" s="16"/>
+    </row>
+    <row r="918" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B918" s="16"/>
+      <c r="D918" s="16"/>
+    </row>
+    <row r="919" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B919" s="16"/>
+      <c r="D919" s="16"/>
+    </row>
+    <row r="920" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B920" s="16"/>
+      <c r="D920" s="16"/>
+    </row>
+    <row r="921" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B921" s="16"/>
+      <c r="D921" s="16"/>
+    </row>
+    <row r="922" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B922" s="16"/>
+      <c r="D922" s="16"/>
+    </row>
+    <row r="923" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B923" s="16"/>
+      <c r="D923" s="16"/>
+    </row>
+    <row r="924" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B924" s="16"/>
+      <c r="D924" s="16"/>
+    </row>
+    <row r="925" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B925" s="16"/>
+      <c r="D925" s="16"/>
+    </row>
+    <row r="926" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B926" s="16"/>
+      <c r="D926" s="16"/>
+    </row>
+    <row r="927" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B927" s="16"/>
+      <c r="D927" s="16"/>
+    </row>
+    <row r="928" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B928" s="16"/>
+      <c r="D928" s="16"/>
+    </row>
+    <row r="929" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B929" s="16"/>
+      <c r="D929" s="16"/>
+    </row>
+    <row r="930" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B930" s="16"/>
+      <c r="D930" s="16"/>
+    </row>
+    <row r="931" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B931" s="16"/>
+      <c r="D931" s="16"/>
+    </row>
+    <row r="932" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B932" s="16"/>
+      <c r="D932" s="16"/>
+    </row>
+    <row r="933" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B933" s="16"/>
+      <c r="D933" s="16"/>
+    </row>
+    <row r="934" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B934" s="16"/>
+      <c r="D934" s="16"/>
+    </row>
+    <row r="935" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B935" s="16"/>
+      <c r="D935" s="16"/>
+    </row>
+    <row r="936" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B936" s="16"/>
+      <c r="D936" s="16"/>
+    </row>
+    <row r="937" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B937" s="16"/>
+      <c r="D937" s="16"/>
+    </row>
+    <row r="938" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B938" s="16"/>
+      <c r="D938" s="16"/>
+    </row>
+    <row r="939" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B939" s="16"/>
+      <c r="D939" s="16"/>
+    </row>
+    <row r="940" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B940" s="16"/>
+      <c r="D940" s="16"/>
+    </row>
+    <row r="941" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B941" s="16"/>
+      <c r="D941" s="16"/>
+    </row>
+    <row r="942" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B942" s="16"/>
+      <c r="D942" s="16"/>
+    </row>
+    <row r="943" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B943" s="16"/>
+      <c r="D943" s="16"/>
+    </row>
+    <row r="944" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B944" s="16"/>
+      <c r="D944" s="16"/>
+    </row>
+    <row r="945" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B945" s="16"/>
+      <c r="D945" s="16"/>
+    </row>
+    <row r="946" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B946" s="16"/>
+      <c r="D946" s="16"/>
+    </row>
+    <row r="947" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B947" s="16"/>
+      <c r="D947" s="16"/>
+    </row>
+    <row r="948" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B948" s="16"/>
+      <c r="D948" s="16"/>
+    </row>
+    <row r="949" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B949" s="16"/>
+      <c r="D949" s="16"/>
+    </row>
+    <row r="950" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B950" s="16"/>
+      <c r="D950" s="16"/>
+    </row>
+    <row r="951" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B951" s="16"/>
+      <c r="D951" s="16"/>
+    </row>
+    <row r="952" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B952" s="16"/>
+      <c r="D952" s="16"/>
+    </row>
+    <row r="953" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B953" s="16"/>
+      <c r="D953" s="16"/>
+    </row>
+    <row r="954" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B954" s="16"/>
+      <c r="D954" s="16"/>
+    </row>
+    <row r="955" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B955" s="16"/>
+      <c r="D955" s="16"/>
+    </row>
+    <row r="956" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B956" s="16"/>
+      <c r="D956" s="16"/>
+    </row>
+    <row r="957" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B957" s="16"/>
+      <c r="D957" s="16"/>
+    </row>
+    <row r="958" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B958" s="16"/>
+      <c r="D958" s="16"/>
+    </row>
+    <row r="959" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B959" s="16"/>
+      <c r="D959" s="16"/>
+    </row>
+    <row r="960" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B960" s="16"/>
+      <c r="D960" s="16"/>
+    </row>
+    <row r="961" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B961" s="16"/>
+      <c r="D961" s="16"/>
+    </row>
+    <row r="962" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B962" s="16"/>
+      <c r="D962" s="16"/>
+    </row>
+    <row r="963" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B963" s="16"/>
+      <c r="D963" s="16"/>
+    </row>
+    <row r="964" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B964" s="16"/>
+      <c r="D964" s="16"/>
+    </row>
+    <row r="965" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B965" s="16"/>
+      <c r="D965" s="16"/>
+    </row>
+    <row r="966" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B966" s="16"/>
+      <c r="D966" s="16"/>
+    </row>
+    <row r="967" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B967" s="16"/>
+      <c r="D967" s="16"/>
+    </row>
+    <row r="968" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B968" s="16"/>
+      <c r="D968" s="16"/>
+    </row>
+    <row r="969" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B969" s="16"/>
+      <c r="D969" s="16"/>
+    </row>
+    <row r="970" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B970" s="16"/>
+      <c r="D970" s="16"/>
+    </row>
+    <row r="971" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B971" s="16"/>
+      <c r="D971" s="16"/>
+    </row>
+    <row r="972" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B972" s="16"/>
+      <c r="D972" s="16"/>
+    </row>
+    <row r="973" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B973" s="16"/>
+      <c r="D973" s="16"/>
+    </row>
+    <row r="974" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B974" s="16"/>
+      <c r="D974" s="16"/>
+    </row>
+    <row r="975" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B975" s="16"/>
+      <c r="D975" s="16"/>
+    </row>
+    <row r="976" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B976" s="16"/>
+      <c r="D976" s="16"/>
+    </row>
+    <row r="977" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B977" s="16"/>
+      <c r="D977" s="16"/>
+    </row>
+    <row r="978" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B978" s="16"/>
+      <c r="D978" s="16"/>
+    </row>
+    <row r="979" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B979" s="16"/>
+      <c r="D979" s="16"/>
+    </row>
+    <row r="980" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B980" s="16"/>
+      <c r="D980" s="16"/>
+    </row>
+    <row r="981" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B981" s="16"/>
+      <c r="D981" s="16"/>
+    </row>
+    <row r="982" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B982" s="16"/>
+      <c r="D982" s="16"/>
+    </row>
+    <row r="983" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B983" s="16"/>
+      <c r="D983" s="16"/>
+    </row>
+    <row r="984" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B984" s="16"/>
+      <c r="D984" s="16"/>
+    </row>
+    <row r="985" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B985" s="16"/>
+      <c r="D985" s="16"/>
+    </row>
+    <row r="986" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B986" s="16"/>
+      <c r="D986" s="16"/>
+    </row>
+    <row r="987" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B987" s="16"/>
+      <c r="D987" s="16"/>
+    </row>
+    <row r="988" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B988" s="16"/>
+      <c r="D988" s="16"/>
+    </row>
+    <row r="989" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B989" s="16"/>
+      <c r="D989" s="16"/>
+    </row>
+    <row r="990" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B990" s="16"/>
+      <c r="D990" s="16"/>
+    </row>
+    <row r="991" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B991" s="16"/>
+      <c r="D991" s="16"/>
+    </row>
+    <row r="992" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B992" s="16"/>
+      <c r="D992" s="16"/>
+    </row>
+    <row r="993" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B993" s="16"/>
+      <c r="D993" s="16"/>
+    </row>
+    <row r="994" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B994" s="16"/>
+      <c r="D994" s="16"/>
+    </row>
+    <row r="995" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B995" s="16"/>
+      <c r="D995" s="16"/>
+    </row>
+    <row r="996" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B996" s="16"/>
+      <c r="D996" s="16"/>
+    </row>
+    <row r="997" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B997" s="16"/>
+      <c r="D997" s="16"/>
+    </row>
+    <row r="998" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B998" s="16"/>
+      <c r="D998" s="16"/>
+    </row>
+    <row r="999" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B999" s="16"/>
+      <c r="D999" s="16"/>
+    </row>
+    <row r="1000" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1000" s="16"/>
+      <c r="D1000" s="16"/>
+    </row>
+    <row r="1001" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1001" s="16"/>
+      <c r="D1001" s="16"/>
+    </row>
+    <row r="1002" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1002" s="16"/>
+      <c r="D1002" s="16"/>
+    </row>
+    <row r="1003" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1003" s="16"/>
+      <c r="D1003" s="16"/>
+    </row>
+    <row r="1004" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1004" s="16"/>
+      <c r="D1004" s="16"/>
+    </row>
+    <row r="1005" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1005" s="16"/>
+      <c r="D1005" s="16"/>
+    </row>
+    <row r="1006" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1006" s="16"/>
+      <c r="D1006" s="16"/>
+    </row>
+    <row r="1007" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1007" s="16"/>
+      <c r="D1007" s="16"/>
+    </row>
+    <row r="1008" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1008" s="16"/>
+      <c r="D1008" s="16"/>
+    </row>
+    <row r="1009" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1009" s="16"/>
+      <c r="D1009" s="16"/>
+    </row>
+    <row r="1010" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1010" s="16"/>
+      <c r="D1010" s="16"/>
+    </row>
+    <row r="1011" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1011" s="16"/>
+      <c r="D1011" s="16"/>
+    </row>
+    <row r="1012" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1012" s="16"/>
+      <c r="D1012" s="16"/>
+    </row>
+    <row r="1013" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1013" s="16"/>
+      <c r="D1013" s="16"/>
+    </row>
+    <row r="1014" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1014" s="16"/>
+      <c r="D1014" s="16"/>
+    </row>
+    <row r="1015" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1015" s="16"/>
+      <c r="D1015" s="16"/>
+    </row>
+    <row r="1016" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1016" s="16"/>
+      <c r="D1016" s="16"/>
+    </row>
+    <row r="1017" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1017" s="16"/>
+      <c r="D1017" s="16"/>
+    </row>
+    <row r="1018" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1018" s="16"/>
+      <c r="D1018" s="16"/>
+    </row>
+    <row r="1019" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1019" s="16"/>
+      <c r="D1019" s="16"/>
+    </row>
+    <row r="1020" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1020" s="16"/>
+      <c r="D1020" s="16"/>
+    </row>
+    <row r="1021" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1021" s="16"/>
+      <c r="D1021" s="16"/>
+    </row>
+    <row r="1022" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1022" s="16"/>
+      <c r="D1022" s="16"/>
+    </row>
+    <row r="1023" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1023" s="16"/>
+      <c r="D1023" s="16"/>
+    </row>
+    <row r="1024" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1024" s="16"/>
+      <c r="D1024" s="16"/>
+    </row>
+    <row r="1025" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1025" s="16"/>
+      <c r="D1025" s="16"/>
+    </row>
+    <row r="1026" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1026" s="16"/>
+      <c r="D1026" s="16"/>
+    </row>
+    <row r="1027" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1027" s="16"/>
+      <c r="D1027" s="16"/>
+    </row>
+    <row r="1028" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1028" s="16"/>
+      <c r="D1028" s="16"/>
+    </row>
+    <row r="1029" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1029" s="16"/>
+      <c r="D1029" s="16"/>
+    </row>
+    <row r="1030" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1030" s="16"/>
+      <c r="D1030" s="16"/>
+    </row>
+    <row r="1031" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1031" s="16"/>
+      <c r="D1031" s="16"/>
+    </row>
+    <row r="1032" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1032" s="16"/>
+      <c r="D1032" s="16"/>
+    </row>
+    <row r="1033" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1033" s="16"/>
+      <c r="D1033" s="16"/>
+    </row>
+    <row r="1034" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1034" s="16"/>
+      <c r="D1034" s="16"/>
+    </row>
+    <row r="1035" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1035" s="16"/>
+      <c r="D1035" s="16"/>
+    </row>
+    <row r="1036" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1036" s="16"/>
+      <c r="D1036" s="16"/>
+    </row>
+    <row r="1037" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1037" s="16"/>
+      <c r="D1037" s="16"/>
+    </row>
+    <row r="1038" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1038" s="16"/>
+      <c r="D1038" s="16"/>
+    </row>
+    <row r="1039" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1039" s="16"/>
+      <c r="D1039" s="16"/>
+    </row>
+    <row r="1040" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1040" s="16"/>
+      <c r="D1040" s="16"/>
+    </row>
+    <row r="1041" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1041" s="16"/>
+      <c r="D1041" s="16"/>
+    </row>
+    <row r="1042" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1042" s="16"/>
+      <c r="D1042" s="16"/>
+    </row>
+    <row r="1043" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1043" s="16"/>
+      <c r="D1043" s="16"/>
+    </row>
+    <row r="1044" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1044" s="16"/>
+      <c r="D1044" s="16"/>
+    </row>
+    <row r="1045" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1045" s="16"/>
+      <c r="D1045" s="16"/>
+    </row>
+    <row r="1046" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1046" s="16"/>
+      <c r="D1046" s="16"/>
+    </row>
+    <row r="1047" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1047" s="16"/>
+      <c r="D1047" s="16"/>
+    </row>
+    <row r="1048" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1048" s="16"/>
+      <c r="D1048" s="16"/>
+    </row>
+    <row r="1049" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1049" s="16"/>
+      <c r="D1049" s="16"/>
+    </row>
+    <row r="1050" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1050" s="16"/>
+      <c r="D1050" s="16"/>
+    </row>
+    <row r="1051" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1051" s="16"/>
+      <c r="D1051" s="16"/>
+    </row>
+    <row r="1052" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1052" s="16"/>
+      <c r="D1052" s="16"/>
+    </row>
+    <row r="1053" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1053" s="16"/>
+      <c r="D1053" s="16"/>
+    </row>
+    <row r="1054" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1054" s="16"/>
+      <c r="D1054" s="16"/>
+    </row>
+    <row r="1055" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1055" s="16"/>
+      <c r="D1055" s="16"/>
+    </row>
+    <row r="1056" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1056" s="16"/>
+      <c r="D1056" s="16"/>
+    </row>
+    <row r="1057" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1057" s="16"/>
+      <c r="D1057" s="16"/>
+    </row>
+    <row r="1058" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1058" s="16"/>
+      <c r="D1058" s="16"/>
+    </row>
+    <row r="1059" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1059" s="16"/>
+      <c r="D1059" s="16"/>
+    </row>
+    <row r="1060" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1060" s="16"/>
+      <c r="D1060" s="16"/>
+    </row>
+    <row r="1061" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1061" s="16"/>
+      <c r="D1061" s="16"/>
+    </row>
+    <row r="1062" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1062" s="16"/>
+      <c r="D1062" s="16"/>
+    </row>
+    <row r="1063" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1063" s="16"/>
+      <c r="D1063" s="16"/>
+    </row>
+    <row r="1064" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1064" s="16"/>
+      <c r="D1064" s="16"/>
+    </row>
+    <row r="1065" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1065" s="16"/>
+      <c r="D1065" s="16"/>
+    </row>
+    <row r="1066" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1066" s="16"/>
+      <c r="D1066" s="16"/>
+    </row>
+    <row r="1067" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1067" s="16"/>
+      <c r="D1067" s="16"/>
+    </row>
+    <row r="1068" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1068" s="16"/>
+      <c r="D1068" s="16"/>
+    </row>
+    <row r="1069" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1069" s="16"/>
+      <c r="D1069" s="16"/>
+    </row>
+    <row r="1070" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1070" s="16"/>
+      <c r="D1070" s="16"/>
+    </row>
+    <row r="1071" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1071" s="16"/>
+      <c r="D1071" s="16"/>
+    </row>
+    <row r="1072" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1072" s="16"/>
+      <c r="D1072" s="16"/>
+    </row>
+    <row r="1073" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1073" s="16"/>
+      <c r="D1073" s="16"/>
+    </row>
+    <row r="1074" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1074" s="16"/>
+      <c r="D1074" s="16"/>
+    </row>
+    <row r="1075" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1075" s="16"/>
+      <c r="D1075" s="16"/>
+    </row>
+    <row r="1076" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1076" s="16"/>
+      <c r="D1076" s="16"/>
+    </row>
+    <row r="1077" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1077" s="16"/>
+      <c r="D1077" s="16"/>
+    </row>
+    <row r="1078" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1078" s="16"/>
+      <c r="D1078" s="16"/>
+    </row>
+    <row r="1079" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1079" s="16"/>
+      <c r="D1079" s="16"/>
+    </row>
+    <row r="1080" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1080" s="16"/>
+      <c r="D1080" s="16"/>
+    </row>
+    <row r="1081" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1081" s="16"/>
+      <c r="D1081" s="16"/>
+    </row>
+    <row r="1082" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1082" s="16"/>
+      <c r="D1082" s="16"/>
+    </row>
+    <row r="1083" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1083" s="16"/>
+      <c r="D1083" s="16"/>
+    </row>
+    <row r="1084" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1084" s="16"/>
+      <c r="D1084" s="16"/>
+    </row>
+    <row r="1085" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1085" s="16"/>
+      <c r="D1085" s="16"/>
+    </row>
+    <row r="1086" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1086" s="16"/>
+      <c r="D1086" s="16"/>
+    </row>
+    <row r="1087" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1087" s="16"/>
+      <c r="D1087" s="16"/>
+    </row>
+    <row r="1088" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1088" s="16"/>
+      <c r="D1088" s="16"/>
+    </row>
+    <row r="1089" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1089" s="16"/>
+      <c r="D1089" s="16"/>
+    </row>
+    <row r="1090" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1090" s="16"/>
+      <c r="D1090" s="16"/>
+    </row>
+    <row r="1091" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1091" s="16"/>
+      <c r="D1091" s="16"/>
+    </row>
+    <row r="1092" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1092" s="16"/>
+      <c r="D1092" s="16"/>
+    </row>
+    <row r="1093" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1093" s="16"/>
+      <c r="D1093" s="16"/>
+    </row>
+    <row r="1094" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1094" s="16"/>
+      <c r="D1094" s="16"/>
+    </row>
+    <row r="1095" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1095" s="16"/>
+      <c r="D1095" s="16"/>
+    </row>
+    <row r="1096" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1096" s="16"/>
+      <c r="D1096" s="16"/>
+    </row>
+    <row r="1097" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1097" s="16"/>
+      <c r="D1097" s="16"/>
+    </row>
+    <row r="1098" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1098" s="16"/>
+      <c r="D1098" s="16"/>
+    </row>
+    <row r="1099" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1099" s="16"/>
+      <c r="D1099" s="16"/>
+    </row>
+    <row r="1100" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1100" s="16"/>
+      <c r="D1100" s="16"/>
+    </row>
+    <row r="1101" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1101" s="16"/>
+      <c r="D1101" s="16"/>
+    </row>
+    <row r="1102" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1102" s="16"/>
+      <c r="D1102" s="16"/>
+    </row>
+    <row r="1103" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1103" s="16"/>
+      <c r="D1103" s="16"/>
+    </row>
+    <row r="1104" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1104" s="16"/>
+      <c r="D1104" s="16"/>
+    </row>
+    <row r="1105" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1105" s="16"/>
+      <c r="D1105" s="16"/>
+    </row>
+    <row r="1106" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1106" s="16"/>
+      <c r="D1106" s="16"/>
+    </row>
+    <row r="1107" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1107" s="16"/>
+      <c r="D1107" s="16"/>
+    </row>
+    <row r="1108" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1108" s="16"/>
+      <c r="D1108" s="16"/>
+    </row>
+    <row r="1109" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1109" s="16"/>
+      <c r="D1109" s="16"/>
+    </row>
+    <row r="1110" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1110" s="16"/>
+      <c r="D1110" s="16"/>
+    </row>
+    <row r="1111" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1111" s="16"/>
+      <c r="D1111" s="16"/>
+    </row>
+    <row r="1112" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1112" s="16"/>
+      <c r="D1112" s="16"/>
+    </row>
+    <row r="1113" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1113" s="16"/>
+      <c r="D1113" s="16"/>
+    </row>
+    <row r="1114" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1114" s="16"/>
+      <c r="D1114" s="16"/>
+    </row>
+    <row r="1115" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1115" s="16"/>
+      <c r="D1115" s="16"/>
+    </row>
+    <row r="1116" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1116" s="16"/>
+      <c r="D1116" s="16"/>
+    </row>
+    <row r="1117" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1117" s="16"/>
+      <c r="D1117" s="16"/>
+    </row>
+    <row r="1118" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1118" s="16"/>
+      <c r="D1118" s="16"/>
+    </row>
+    <row r="1119" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1119" s="16"/>
+      <c r="D1119" s="16"/>
+    </row>
+    <row r="1120" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1120" s="16"/>
+      <c r="D1120" s="16"/>
+    </row>
+    <row r="1121" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1121" s="16"/>
+      <c r="D1121" s="16"/>
+    </row>
+    <row r="1122" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1122" s="16"/>
+      <c r="D1122" s="16"/>
+    </row>
+    <row r="1123" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1123" s="16"/>
+      <c r="D1123" s="16"/>
+    </row>
+    <row r="1124" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1124" s="16"/>
+      <c r="D1124" s="16"/>
+    </row>
+    <row r="1125" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1125" s="16"/>
+      <c r="D1125" s="16"/>
+    </row>
+    <row r="1126" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1126" s="16"/>
+      <c r="D1126" s="16"/>
+    </row>
+    <row r="1127" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1127" s="16"/>
+      <c r="D1127" s="16"/>
+    </row>
+    <row r="1128" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1128" s="16"/>
+      <c r="D1128" s="16"/>
+    </row>
+    <row r="1129" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1129" s="16"/>
+      <c r="D1129" s="16"/>
+    </row>
+    <row r="1130" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1130" s="16"/>
+      <c r="D1130" s="16"/>
+    </row>
+    <row r="1131" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1131" s="16"/>
+      <c r="D1131" s="16"/>
+    </row>
+    <row r="1132" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1132" s="16"/>
+      <c r="D1132" s="16"/>
+    </row>
+    <row r="1133" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1133" s="16"/>
+      <c r="D1133" s="16"/>
+    </row>
+    <row r="1134" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1134" s="16"/>
+      <c r="D1134" s="16"/>
+    </row>
+    <row r="1135" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1135" s="16"/>
+      <c r="D1135" s="16"/>
+    </row>
+    <row r="1136" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1136" s="16"/>
+      <c r="D1136" s="16"/>
+    </row>
+    <row r="1137" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1137" s="16"/>
+      <c r="D1137" s="16"/>
+    </row>
+    <row r="1138" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1138" s="16"/>
+      <c r="D1138" s="16"/>
+    </row>
+    <row r="1139" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1139" s="16"/>
+      <c r="D1139" s="16"/>
+    </row>
+    <row r="1140" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1140" s="16"/>
+      <c r="D1140" s="16"/>
+    </row>
+    <row r="1141" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1141" s="16"/>
+      <c r="D1141" s="16"/>
+    </row>
+    <row r="1142" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1142" s="16"/>
+      <c r="D1142" s="16"/>
+    </row>
+    <row r="1143" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1143" s="16"/>
+      <c r="D1143" s="16"/>
+    </row>
+    <row r="1144" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1144" s="16"/>
+      <c r="D1144" s="16"/>
+    </row>
+    <row r="1145" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1145" s="16"/>
+      <c r="D1145" s="16"/>
+    </row>
+    <row r="1146" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1146" s="16"/>
+      <c r="D1146" s="16"/>
+    </row>
+    <row r="1147" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1147" s="16"/>
+      <c r="D1147" s="16"/>
+    </row>
+    <row r="1148" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1148" s="16"/>
+      <c r="D1148" s="16"/>
+    </row>
+    <row r="1149" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1149" s="16"/>
+      <c r="D1149" s="16"/>
+    </row>
+    <row r="1150" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1150" s="16"/>
+      <c r="D1150" s="16"/>
+    </row>
+    <row r="1151" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1151" s="16"/>
+      <c r="D1151" s="16"/>
+    </row>
+    <row r="1152" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1152" s="16"/>
+      <c r="D1152" s="16"/>
+    </row>
+    <row r="1153" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1153" s="16"/>
+      <c r="D1153" s="16"/>
+    </row>
+    <row r="1154" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1154" s="16"/>
+      <c r="D1154" s="16"/>
+    </row>
+    <row r="1155" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1155" s="16"/>
+      <c r="D1155" s="16"/>
+    </row>
+    <row r="1156" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1156" s="16"/>
+      <c r="D1156" s="16"/>
+    </row>
+    <row r="1157" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1157" s="16"/>
+      <c r="D1157" s="16"/>
+    </row>
+    <row r="1158" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1158" s="16"/>
+      <c r="D1158" s="16"/>
+    </row>
+    <row r="1159" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1159" s="16"/>
+      <c r="D1159" s="16"/>
+    </row>
+    <row r="1160" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1160" s="16"/>
+      <c r="D1160" s="16"/>
+    </row>
+    <row r="1161" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1161" s="16"/>
+      <c r="D1161" s="16"/>
+    </row>
+    <row r="1162" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1162" s="16"/>
+      <c r="D1162" s="16"/>
+    </row>
+    <row r="1163" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1163" s="16"/>
+      <c r="D1163" s="16"/>
+    </row>
+    <row r="1164" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1164" s="16"/>
+      <c r="D1164" s="16"/>
+    </row>
+    <row r="1165" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1165" s="16"/>
+      <c r="D1165" s="16"/>
+    </row>
+    <row r="1166" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1166" s="16"/>
+      <c r="D1166" s="16"/>
+    </row>
+    <row r="1167" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1167" s="16"/>
+      <c r="D1167" s="16"/>
+    </row>
+    <row r="1168" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1168" s="16"/>
+      <c r="D1168" s="16"/>
+    </row>
+    <row r="1169" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1169" s="16"/>
+      <c r="D1169" s="16"/>
+    </row>
+    <row r="1170" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1170" s="16"/>
+      <c r="D1170" s="16"/>
+    </row>
+    <row r="1171" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1171" s="16"/>
+      <c r="D1171" s="16"/>
+    </row>
+    <row r="1172" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1172" s="16"/>
+      <c r="D1172" s="16"/>
+    </row>
+    <row r="1173" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1173" s="16"/>
+      <c r="D1173" s="16"/>
+    </row>
+    <row r="1174" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1174" s="16"/>
+      <c r="D1174" s="16"/>
+    </row>
+    <row r="1175" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1175" s="16"/>
+      <c r="D1175" s="16"/>
+    </row>
+    <row r="1176" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1176" s="16"/>
+      <c r="D1176" s="16"/>
+    </row>
+    <row r="1177" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1177" s="16"/>
+      <c r="D1177" s="16"/>
+    </row>
+    <row r="1178" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1178" s="16"/>
+      <c r="D1178" s="16"/>
+    </row>
+    <row r="1179" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1179" s="16"/>
+      <c r="D1179" s="16"/>
+    </row>
+    <row r="1180" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1180" s="16"/>
+      <c r="D1180" s="16"/>
+    </row>
+    <row r="1181" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1181" s="16"/>
+      <c r="D1181" s="16"/>
+    </row>
+    <row r="1182" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1182" s="16"/>
+      <c r="D1182" s="16"/>
+    </row>
+    <row r="1183" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1183" s="16"/>
+      <c r="D1183" s="16"/>
+    </row>
+    <row r="1184" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1184" s="16"/>
+      <c r="D1184" s="16"/>
+    </row>
+    <row r="1185" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1185" s="16"/>
+      <c r="D1185" s="16"/>
+    </row>
+    <row r="1186" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1186" s="16"/>
+      <c r="D1186" s="16"/>
+    </row>
+    <row r="1187" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1187" s="16"/>
+      <c r="D1187" s="16"/>
+    </row>
+    <row r="1188" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1188" s="16"/>
+      <c r="D1188" s="16"/>
+    </row>
+    <row r="1189" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1189" s="16"/>
+      <c r="D1189" s="16"/>
+    </row>
+    <row r="1190" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1190" s="16"/>
+      <c r="D1190" s="16"/>
+    </row>
+    <row r="1191" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1191" s="16"/>
+      <c r="D1191" s="16"/>
+    </row>
+    <row r="1192" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1192" s="16"/>
+      <c r="D1192" s="16"/>
+    </row>
+    <row r="1193" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1193" s="16"/>
+      <c r="D1193" s="16"/>
+    </row>
+    <row r="1194" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1194" s="16"/>
+      <c r="D1194" s="16"/>
+    </row>
+    <row r="1195" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1195" s="16"/>
+      <c r="D1195" s="16"/>
+    </row>
+    <row r="1196" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1196" s="16"/>
+      <c r="D1196" s="16"/>
+    </row>
+    <row r="1197" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1197" s="16"/>
+      <c r="D1197" s="16"/>
+    </row>
+    <row r="1198" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1198" s="16"/>
+      <c r="D1198" s="16"/>
+    </row>
+    <row r="1199" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1199" s="16"/>
+      <c r="D1199" s="16"/>
+    </row>
+    <row r="1200" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1200" s="16"/>
+      <c r="D1200" s="16"/>
+    </row>
+    <row r="1201" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1201" s="16"/>
+      <c r="D1201" s="16"/>
+    </row>
+    <row r="1202" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1202" s="16"/>
+      <c r="D1202" s="16"/>
+    </row>
+    <row r="1203" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1203" s="16"/>
+      <c r="D1203" s="16"/>
+    </row>
+    <row r="1204" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1204" s="16"/>
+      <c r="D1204" s="16"/>
+    </row>
+    <row r="1205" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1205" s="16"/>
+      <c r="D1205" s="16"/>
+    </row>
+    <row r="1206" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1206" s="16"/>
+      <c r="D1206" s="16"/>
+    </row>
+    <row r="1207" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1207" s="16"/>
+      <c r="D1207" s="16"/>
+    </row>
+    <row r="1208" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1208" s="16"/>
+      <c r="D1208" s="16"/>
+    </row>
+    <row r="1209" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1209" s="16"/>
+      <c r="D1209" s="16"/>
+    </row>
+    <row r="1210" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1210" s="16"/>
+      <c r="D1210" s="16"/>
+    </row>
+    <row r="1211" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1211" s="16"/>
+      <c r="D1211" s="16"/>
+    </row>
+    <row r="1212" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1212" s="16"/>
+      <c r="D1212" s="16"/>
+    </row>
+    <row r="1213" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1213" s="16"/>
+      <c r="D1213" s="16"/>
+    </row>
+    <row r="1214" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1214" s="16"/>
+      <c r="D1214" s="16"/>
+    </row>
+    <row r="1215" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1215" s="16"/>
+      <c r="D1215" s="16"/>
+    </row>
+    <row r="1216" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1216" s="16"/>
+      <c r="D1216" s="16"/>
+    </row>
+    <row r="1217" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1217" s="16"/>
+      <c r="D1217" s="16"/>
+    </row>
+    <row r="1218" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1218" s="16"/>
+      <c r="D1218" s="16"/>
+    </row>
+    <row r="1219" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1219" s="16"/>
+      <c r="D1219" s="16"/>
+    </row>
+    <row r="1220" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1220" s="16"/>
+      <c r="D1220" s="16"/>
+    </row>
+    <row r="1221" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1221" s="16"/>
+      <c r="D1221" s="16"/>
+    </row>
+    <row r="1222" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1222" s="16"/>
+      <c r="D1222" s="16"/>
+    </row>
+    <row r="1223" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1223" s="16"/>
+      <c r="D1223" s="16"/>
+    </row>
+    <row r="1224" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1224" s="16"/>
+      <c r="D1224" s="16"/>
+    </row>
+    <row r="1225" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1225" s="16"/>
+      <c r="D1225" s="16"/>
+    </row>
+    <row r="1226" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1226" s="16"/>
+      <c r="D1226" s="16"/>
+    </row>
+    <row r="1227" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1227" s="16"/>
+      <c r="D1227" s="16"/>
+    </row>
+    <row r="1228" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1228" s="16"/>
+      <c r="D1228" s="16"/>
+    </row>
+    <row r="1229" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1229" s="16"/>
+      <c r="D1229" s="16"/>
+    </row>
+    <row r="1230" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1230" s="16"/>
+      <c r="D1230" s="16"/>
+    </row>
+    <row r="1231" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1231" s="16"/>
+      <c r="D1231" s="16"/>
+    </row>
+    <row r="1232" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1232" s="16"/>
+      <c r="D1232" s="16"/>
+    </row>
+    <row r="1233" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1233" s="16"/>
+      <c r="D1233" s="16"/>
+    </row>
+    <row r="1234" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1234" s="16"/>
+      <c r="D1234" s="16"/>
+    </row>
+    <row r="1235" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1235" s="16"/>
+      <c r="D1235" s="16"/>
+    </row>
+    <row r="1236" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1236" s="16"/>
+      <c r="D1236" s="16"/>
+    </row>
+    <row r="1237" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1237" s="16"/>
+      <c r="D1237" s="16"/>
+    </row>
+    <row r="1238" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1238" s="16"/>
+      <c r="D1238" s="16"/>
+    </row>
+    <row r="1239" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1239" s="16"/>
+      <c r="D1239" s="16"/>
+    </row>
+    <row r="1240" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1240" s="16"/>
+      <c r="D1240" s="16"/>
+    </row>
+    <row r="1241" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1241" s="16"/>
+      <c r="D1241" s="16"/>
+    </row>
+    <row r="1242" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1242" s="16"/>
+      <c r="D1242" s="16"/>
+    </row>
+    <row r="1243" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1243" s="16"/>
+      <c r="D1243" s="16"/>
+    </row>
+    <row r="1244" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1244" s="16"/>
+      <c r="D1244" s="16"/>
+    </row>
+    <row r="1245" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1245" s="16"/>
+      <c r="D1245" s="16"/>
+    </row>
+    <row r="1246" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1246" s="16"/>
+      <c r="D1246" s="16"/>
+    </row>
+    <row r="1247" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1247" s="16"/>
+      <c r="D1247" s="16"/>
+    </row>
+    <row r="1248" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1248" s="16"/>
+      <c r="D1248" s="16"/>
+    </row>
+    <row r="1249" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B1249" s="16"/>
+      <c r="D1249" s="16"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/working/ISO국가코드.xlsx
+++ b/working/ISO국가코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbae/Downloads/coronascan_py/working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E71025-2DA3-2B40-ACC0-B13C38CBF6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F08570-D841-D041-8409-C65CF2B171E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,9 +1552,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>사우디아라비아</t>
-  </si>
-  <si>
     <t>SAUDI ARABIA</t>
   </si>
   <si>
@@ -3758,13 +3755,17 @@
   </si>
   <si>
     <t>적도기니</t>
+  </si>
+  <si>
+    <t>사우디</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3822,6 +3823,11 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3870,7 +3876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3891,6 +3897,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4210,8 +4217,8 @@
   </sheetPr>
   <dimension ref="A1:AB1249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4223,7 +4230,7 @@
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6325,14 +6332,14 @@
       <c r="C105" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="F105" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14">
@@ -6340,19 +6347,19 @@
         <v>239</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="E106" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14">
@@ -6360,19 +6367,19 @@
         <v>674</v>
       </c>
       <c r="B107" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="E107" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="F107" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14">
@@ -6380,19 +6387,19 @@
         <v>678</v>
       </c>
       <c r="B108" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="E108" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="F108" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14">
@@ -6400,19 +6407,19 @@
         <v>666</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="D109" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="E109" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="F109" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14">
@@ -6420,19 +6427,19 @@
         <v>732</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="D110" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="E110" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="F110" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14">
@@ -6440,19 +6447,19 @@
         <v>686</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="E111" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="F111" s="13" t="s">
         <v>541</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14">
@@ -6460,19 +6467,19 @@
         <v>688</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="D112" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="E112" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="F112" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14">
@@ -6480,19 +6487,19 @@
         <v>690</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="D113" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="E113" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="F113" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14">
@@ -6500,19 +6507,19 @@
         <v>662</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="D114" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="E114" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="F114" s="13" t="s">
         <v>556</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14">
@@ -6520,19 +6527,19 @@
         <v>670</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="D115" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="E115" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="F115" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14">
@@ -6540,19 +6547,19 @@
         <v>659</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="E116" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>566</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14">
@@ -6560,19 +6567,19 @@
         <v>654</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="E117" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14">
@@ -6580,19 +6587,19 @@
         <v>706</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="E118" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="F118" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14">
@@ -6600,19 +6607,19 @@
         <v>90</v>
       </c>
       <c r="B119" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="D119" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="E119" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14">
@@ -6620,19 +6627,19 @@
         <v>736</v>
       </c>
       <c r="B120" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="E120" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="F120" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14">
@@ -6640,19 +6647,19 @@
         <v>740</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="E121" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="F121" s="13" t="s">
         <v>591</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14">
@@ -6660,19 +6667,19 @@
         <v>144</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="D122" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="E122" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="F122" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14">
@@ -6680,19 +6687,19 @@
         <v>744</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="D123" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="E123" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="F123" s="13" t="s">
         <v>601</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14">
@@ -6700,19 +6707,19 @@
         <v>748</v>
       </c>
       <c r="B124" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="D124" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="E124" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="F124" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14">
@@ -6720,19 +6727,19 @@
         <v>752</v>
       </c>
       <c r="B125" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="E125" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="F125" s="13" t="s">
         <v>611</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14">
@@ -6740,19 +6747,19 @@
         <v>756</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="D126" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="E126" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="F126" s="13" t="s">
         <v>616</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14">
@@ -6760,19 +6767,19 @@
         <v>724</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="D127" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="E127" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="F127" s="13" t="s">
         <v>621</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14">
@@ -6780,19 +6787,19 @@
         <v>703</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="D128" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="E128" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="F128" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14">
@@ -6800,19 +6807,19 @@
         <v>705</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="D129" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="E129" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14">
@@ -6820,19 +6827,19 @@
         <v>760</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="D130" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="E130" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="F130" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14">
@@ -6840,19 +6847,19 @@
         <v>694</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="D131" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="E131" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="E131" s="13" t="s">
+      <c r="F131" s="13" t="s">
         <v>641</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14">
@@ -6860,19 +6867,19 @@
         <v>702</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="E132" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="F132" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14">
@@ -6880,19 +6887,19 @@
         <v>784</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="E133" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="F133" s="15" t="s">
         <v>651</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14">
@@ -6900,19 +6907,19 @@
         <v>533</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="E134" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="F134" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14">
@@ -6920,19 +6927,19 @@
         <v>51</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="D135" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="E135" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="E135" s="13" t="s">
+      <c r="F135" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14">
@@ -6940,19 +6947,19 @@
         <v>32</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="D136" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="E136" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="F136" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14">
@@ -6960,19 +6967,19 @@
         <v>16</v>
       </c>
       <c r="B137" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="D137" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="E137" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="E137" s="13" t="s">
+      <c r="F137" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14">
@@ -6980,19 +6987,19 @@
         <v>352</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="D138" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="E138" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="F138" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14">
@@ -7000,19 +7007,19 @@
         <v>332</v>
       </c>
       <c r="B139" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="D139" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="E139" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="E139" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>681</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14">
@@ -7020,19 +7027,19 @@
         <v>372</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="D140" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="E140" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>686</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14">
@@ -7040,19 +7047,19 @@
         <v>31</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="D141" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="E141" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="E141" s="13" t="s">
+      <c r="F141" s="13" t="s">
         <v>691</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14">
@@ -7060,19 +7067,19 @@
         <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="D142" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="E142" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="F142" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14">
@@ -7080,19 +7087,19 @@
         <v>20</v>
       </c>
       <c r="B143" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="D143" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="E143" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="F143" s="13" t="s">
         <v>701</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14">
@@ -7100,19 +7107,19 @@
         <v>8</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="D144" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="E144" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="F144" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14">
@@ -7120,19 +7127,19 @@
         <v>12</v>
       </c>
       <c r="B145" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="E145" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="F145" s="15" t="s">
         <v>711</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14">
@@ -7140,19 +7147,19 @@
         <v>24</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="E146" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="F146" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14">
@@ -7160,19 +7167,19 @@
         <v>28</v>
       </c>
       <c r="B147" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="D147" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="E147" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="F147" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14">
@@ -7180,19 +7187,19 @@
         <v>660</v>
       </c>
       <c r="B148" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="D148" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="E148" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="F148" s="13" t="s">
         <v>726</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14">
@@ -7200,19 +7207,19 @@
         <v>232</v>
       </c>
       <c r="B149" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="D149" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="E149" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="F149" s="13" t="s">
         <v>731</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14">
@@ -7220,19 +7227,19 @@
         <v>233</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="D150" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="E150" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="F150" s="13" t="s">
         <v>736</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14">
@@ -7240,19 +7247,19 @@
         <v>218</v>
       </c>
       <c r="B151" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="D151" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="E151" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14">
@@ -7260,19 +7267,19 @@
         <v>231</v>
       </c>
       <c r="B152" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="D152" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="E152" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="F152" s="13" t="s">
         <v>746</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14">
@@ -7280,19 +7287,19 @@
         <v>222</v>
       </c>
       <c r="B153" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="D153" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="E153" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="F153" s="13" t="s">
         <v>751</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14">
@@ -7300,19 +7307,19 @@
         <v>826</v>
       </c>
       <c r="B154" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="D154" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="E154" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="F154" s="13" t="s">
         <v>756</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14">
@@ -7320,19 +7327,19 @@
         <v>92</v>
       </c>
       <c r="B155" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="E155" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="F155" s="13" t="s">
         <v>761</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14">
@@ -7340,19 +7347,19 @@
         <v>86</v>
       </c>
       <c r="B156" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="D156" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="E156" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="F156" s="13" t="s">
         <v>766</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14">
@@ -7360,19 +7367,19 @@
         <v>887</v>
       </c>
       <c r="B157" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="D157" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="E157" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="E157" s="13" t="s">
+      <c r="F157" s="15" t="s">
         <v>771</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14">
@@ -7380,19 +7387,19 @@
         <v>512</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="D158" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="E158" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="E158" s="13" t="s">
+      <c r="F158" s="15" t="s">
         <v>776</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="14">
@@ -7400,19 +7407,19 @@
         <v>36</v>
       </c>
       <c r="B159" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="E159" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="F159" s="13" t="s">
         <v>781</v>
-      </c>
-      <c r="F159" s="13" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14">
@@ -7420,19 +7427,19 @@
         <v>40</v>
       </c>
       <c r="B160" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="E160" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="F160" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14">
@@ -7440,19 +7447,19 @@
         <v>340</v>
       </c>
       <c r="B161" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="D161" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="D161" s="12" t="s">
+      <c r="E161" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="F161" s="13" t="s">
         <v>791</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14">
@@ -7460,19 +7467,19 @@
         <v>248</v>
       </c>
       <c r="B162" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C162" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="D162" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="E162" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="F162" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14">
@@ -7480,19 +7487,19 @@
         <v>876</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C163" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="D163" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D163" s="12" t="s">
+      <c r="E163" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="F163" s="13" t="s">
         <v>801</v>
-      </c>
-      <c r="F163" s="13" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14">
@@ -7500,19 +7507,19 @@
         <v>400</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="C164" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="D164" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="E164" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="F164" s="15" t="s">
         <v>806</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14">
@@ -7520,19 +7527,19 @@
         <v>800</v>
       </c>
       <c r="B165" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="D165" s="12" t="s">
+      <c r="E165" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="F165" s="13" t="s">
         <v>811</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14">
@@ -7540,19 +7547,19 @@
         <v>858</v>
       </c>
       <c r="B166" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="D166" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="E166" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="E166" s="13" t="s">
+      <c r="F166" s="13" t="s">
         <v>816</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="14">
@@ -7560,19 +7567,19 @@
         <v>860</v>
       </c>
       <c r="B167" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="D167" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="E167" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="F167" s="13" t="s">
         <v>821</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="14">
@@ -7580,19 +7587,19 @@
         <v>804</v>
       </c>
       <c r="B168" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="D168" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="E168" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="F168" s="13" t="s">
         <v>826</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14">
@@ -7600,19 +7607,19 @@
         <v>368</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="D169" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="E169" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="F169" s="15" t="s">
         <v>831</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14">
@@ -7620,19 +7627,19 @@
         <v>364</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="E170" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="F170" s="15" t="s">
         <v>836</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14">
@@ -7640,19 +7647,19 @@
         <v>376</v>
       </c>
       <c r="B171" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="E171" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="E171" s="13" t="s">
+      <c r="F171" s="15" t="s">
         <v>841</v>
-      </c>
-      <c r="F171" s="15" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="14">
@@ -7660,19 +7667,19 @@
         <v>818</v>
       </c>
       <c r="B172" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="D172" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="E172" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="F172" s="15" t="s">
         <v>846</v>
-      </c>
-      <c r="F172" s="15" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="14">
@@ -7680,19 +7687,19 @@
         <v>380</v>
       </c>
       <c r="B173" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="D173" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="E173" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="F173" s="13" t="s">
         <v>851</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14">
@@ -7700,19 +7707,19 @@
         <v>356</v>
       </c>
       <c r="B174" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="D174" s="12" t="s">
+      <c r="E174" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="E174" s="13" t="s">
+      <c r="F174" s="13" t="s">
         <v>856</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="14">
@@ -7720,19 +7727,19 @@
         <v>360</v>
       </c>
       <c r="B175" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="E175" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="E175" s="13" t="s">
+      <c r="F175" s="13" t="s">
         <v>861</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14">
@@ -7740,19 +7747,19 @@
         <v>392</v>
       </c>
       <c r="B176" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="D176" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="E176" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="E176" s="13" t="s">
+      <c r="F176" s="13" t="s">
         <v>866</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="14">
@@ -7760,19 +7767,19 @@
         <v>388</v>
       </c>
       <c r="B177" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="D177" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="E177" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="E177" s="13" t="s">
+      <c r="F177" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="14">
@@ -7780,19 +7787,19 @@
         <v>894</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>873</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="D178" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="D178" s="12" t="s">
+      <c r="E178" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="F178" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="14">
@@ -7800,19 +7807,19 @@
         <v>832</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="D179" s="12" t="s">
         <v>879</v>
       </c>
-      <c r="D179" s="12" t="s">
+      <c r="E179" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="F179" s="13" t="s">
         <v>881</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14">
@@ -7820,19 +7827,19 @@
         <v>226</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>883</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="D180" s="12" t="s">
+      <c r="E180" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="F180" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="14">
@@ -7840,19 +7847,19 @@
         <v>408</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="D181" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="D181" s="12" t="s">
+      <c r="E181" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="E181" s="13" t="s">
+      <c r="F181" s="13" t="s">
         <v>891</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14">
@@ -7860,19 +7867,19 @@
         <v>268</v>
       </c>
       <c r="B182" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="D182" s="12" t="s">
         <v>894</v>
       </c>
-      <c r="D182" s="12" t="s">
+      <c r="E182" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="E182" s="13" t="s">
+      <c r="F182" s="13" t="s">
         <v>896</v>
-      </c>
-      <c r="F182" s="13" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14">
@@ -7880,19 +7887,19 @@
         <v>140</v>
       </c>
       <c r="B183" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="D183" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="E183" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="F183" s="13" t="s">
         <v>901</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14">
@@ -7900,19 +7907,19 @@
         <v>158</v>
       </c>
       <c r="B184" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="D184" s="12" t="s">
         <v>904</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="E184" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="F184" s="13" t="s">
         <v>906</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="14">
@@ -7920,19 +7927,19 @@
         <v>156</v>
       </c>
       <c r="B185" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="D185" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="E185" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="F185" s="13" t="s">
         <v>911</v>
-      </c>
-      <c r="F185" s="13" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="14">
@@ -7940,19 +7947,19 @@
         <v>262</v>
       </c>
       <c r="B186" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="D186" s="12" t="s">
         <v>914</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="E186" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="F186" s="13" t="s">
         <v>916</v>
-      </c>
-      <c r="F186" s="13" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="14">
@@ -7960,19 +7967,19 @@
         <v>292</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="E187" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="F187" s="13" t="s">
         <v>921</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="14">
@@ -7980,19 +7987,19 @@
         <v>716</v>
       </c>
       <c r="B188" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="D188" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="E188" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="F188" s="13" t="s">
         <v>926</v>
-      </c>
-      <c r="F188" s="13" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="14">
@@ -8000,19 +8007,19 @@
         <v>148</v>
       </c>
       <c r="B189" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="D189" s="12" t="s">
         <v>929</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="E189" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="F189" s="13" t="s">
         <v>931</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14">
@@ -8020,19 +8027,19 @@
         <v>203</v>
       </c>
       <c r="B190" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="E190" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="E190" s="13" t="s">
+      <c r="F190" s="13" t="s">
         <v>936</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="14">
@@ -8040,19 +8047,19 @@
         <v>152</v>
       </c>
       <c r="B191" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="D191" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="D191" s="12" t="s">
+      <c r="E191" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="F191" s="13" t="s">
         <v>941</v>
-      </c>
-      <c r="F191" s="13" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="14">
@@ -8060,19 +8067,19 @@
         <v>120</v>
       </c>
       <c r="B192" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="C192" s="12" t="s">
         <v>943</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="D192" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="D192" s="12" t="s">
+      <c r="E192" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="E192" s="13" t="s">
+      <c r="F192" s="13" t="s">
         <v>946</v>
-      </c>
-      <c r="F192" s="13" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="14">
@@ -8080,19 +8087,19 @@
         <v>132</v>
       </c>
       <c r="B193" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="D193" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="E193" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="F193" s="13" t="s">
         <v>951</v>
-      </c>
-      <c r="F193" s="13" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14">
@@ -8100,19 +8107,19 @@
         <v>398</v>
       </c>
       <c r="B194" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>953</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="D194" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="E194" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="F194" s="13" t="s">
         <v>956</v>
-      </c>
-      <c r="F194" s="13" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="14">
@@ -8120,19 +8127,19 @@
         <v>634</v>
       </c>
       <c r="B195" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="D195" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="E195" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="E195" s="13" t="s">
+      <c r="F195" s="15" t="s">
         <v>961</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="14">
@@ -8140,19 +8147,19 @@
         <v>116</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="D196" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="E196" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="E196" s="13" t="s">
+      <c r="F196" s="13" t="s">
         <v>966</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="14">
@@ -8160,19 +8167,19 @@
         <v>124</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="D197" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="E197" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="F197" s="13" t="s">
         <v>971</v>
-      </c>
-      <c r="F197" s="13" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="14">
@@ -8180,19 +8187,19 @@
         <v>404</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="D198" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D198" s="12" t="s">
+      <c r="E198" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="E198" s="13" t="s">
+      <c r="F198" s="13" t="s">
         <v>976</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14">
@@ -8200,19 +8207,19 @@
         <v>136</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="D199" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="D199" s="12" t="s">
+      <c r="E199" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="F199" s="13" t="s">
         <v>981</v>
-      </c>
-      <c r="F199" s="13" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="14">
@@ -8220,19 +8227,19 @@
         <v>174</v>
       </c>
       <c r="B200" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="D200" s="12" t="s">
         <v>984</v>
       </c>
-      <c r="D200" s="12" t="s">
+      <c r="E200" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="E200" s="13" t="s">
+      <c r="F200" s="13" t="s">
         <v>986</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="14">
@@ -8240,19 +8247,19 @@
         <v>188</v>
       </c>
       <c r="B201" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="C201" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="D201" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="E201" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E201" s="13" t="s">
+      <c r="F201" s="13" t="s">
         <v>991</v>
-      </c>
-      <c r="F201" s="13" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="14">
@@ -8260,19 +8267,19 @@
         <v>166</v>
       </c>
       <c r="B202" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="C202" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="D202" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="E202" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="E202" s="13" t="s">
+      <c r="F202" s="13" t="s">
         <v>996</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="14">
@@ -8280,19 +8287,19 @@
         <v>384</v>
       </c>
       <c r="B203" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="C203" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="D203" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="E203" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="E203" s="13" t="s">
+      <c r="F203" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="F203" s="13" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="14">
@@ -8300,19 +8307,19 @@
         <v>170</v>
       </c>
       <c r="B204" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C204" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="D204" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="D204" s="12" t="s">
+      <c r="E204" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="E204" s="13" t="s">
+      <c r="F204" s="13" t="s">
         <v>1006</v>
-      </c>
-      <c r="F204" s="13" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="14">
@@ -8320,19 +8327,19 @@
         <v>178</v>
       </c>
       <c r="B205" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C205" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="D205" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="D205" s="12" t="s">
+      <c r="E205" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="E205" s="13" t="s">
+      <c r="F205" s="13" t="s">
         <v>1011</v>
-      </c>
-      <c r="F205" s="13" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="14">
@@ -8340,19 +8347,19 @@
         <v>180</v>
       </c>
       <c r="B206" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C206" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="D206" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="E206" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="E206" s="13" t="s">
+      <c r="F206" s="13" t="s">
         <v>1016</v>
-      </c>
-      <c r="F206" s="13" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="14">
@@ -8360,19 +8367,19 @@
         <v>192</v>
       </c>
       <c r="B207" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C207" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="D207" s="12" t="s">
+      <c r="E207" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="F207" s="13" t="s">
         <v>1021</v>
-      </c>
-      <c r="F207" s="13" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="14">
@@ -8380,19 +8387,19 @@
         <v>414</v>
       </c>
       <c r="B208" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C208" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="D208" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="E208" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="E208" s="13" t="s">
+      <c r="F208" s="15" t="s">
         <v>1026</v>
-      </c>
-      <c r="F208" s="15" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="14">
@@ -8400,19 +8407,19 @@
         <v>184</v>
       </c>
       <c r="B209" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C209" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="D209" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="E209" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="E209" s="13" t="s">
+      <c r="F209" s="13" t="s">
         <v>1031</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="14">
@@ -8420,19 +8427,19 @@
         <v>191</v>
       </c>
       <c r="B210" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C210" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="D210" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="E210" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="E210" s="13" t="s">
+      <c r="F210" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="F210" s="13" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="14">
@@ -8440,19 +8447,19 @@
         <v>162</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C211" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="D211" s="12" t="s">
         <v>1039</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="E211" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="F211" s="13" t="s">
         <v>1041</v>
-      </c>
-      <c r="F211" s="13" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="14">
@@ -8460,19 +8467,19 @@
         <v>417</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="D212" s="12" t="s">
         <v>1044</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="E212" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="E212" s="13" t="s">
+      <c r="F212" s="13" t="s">
         <v>1046</v>
-      </c>
-      <c r="F212" s="13" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="14">
@@ -8480,19 +8487,19 @@
         <v>296</v>
       </c>
       <c r="B213" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C213" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="D213" s="12" t="s">
         <v>1049</v>
       </c>
-      <c r="D213" s="12" t="s">
+      <c r="E213" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="E213" s="13" t="s">
+      <c r="F213" s="13" t="s">
         <v>1051</v>
-      </c>
-      <c r="F213" s="13" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="14">
@@ -8500,19 +8507,19 @@
         <v>196</v>
       </c>
       <c r="B214" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>1053</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="D214" s="12" t="s">
         <v>1054</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="E214" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="E214" s="13" t="s">
+      <c r="F214" s="13" t="s">
         <v>1056</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="14">
@@ -8520,19 +8527,19 @@
         <v>764</v>
       </c>
       <c r="B215" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C215" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="D215" s="12" t="s">
         <v>1059</v>
       </c>
-      <c r="D215" s="12" t="s">
+      <c r="E215" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="E215" s="13" t="s">
+      <c r="F215" s="13" t="s">
         <v>1061</v>
-      </c>
-      <c r="F215" s="13" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="14">
@@ -8540,19 +8547,19 @@
         <v>762</v>
       </c>
       <c r="B216" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>1063</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="D216" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="D216" s="12" t="s">
+      <c r="E216" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="E216" s="13" t="s">
+      <c r="F216" s="13" t="s">
         <v>1066</v>
-      </c>
-      <c r="F216" s="13" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14">
@@ -8560,19 +8567,19 @@
         <v>834</v>
       </c>
       <c r="B217" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C217" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="D217" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="D217" s="12" t="s">
+      <c r="E217" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="E217" s="13" t="s">
+      <c r="F217" s="13" t="s">
         <v>1071</v>
-      </c>
-      <c r="F217" s="13" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="14">
@@ -8580,19 +8587,19 @@
         <v>796</v>
       </c>
       <c r="B218" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C218" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="D218" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="D218" s="12" t="s">
+      <c r="E218" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="E218" s="13" t="s">
+      <c r="F218" s="13" t="s">
         <v>1076</v>
-      </c>
-      <c r="F218" s="13" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="14">
@@ -8600,19 +8607,19 @@
         <v>792</v>
       </c>
       <c r="B219" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C219" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="D219" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="D219" s="12" t="s">
+      <c r="E219" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="E219" s="13" t="s">
+      <c r="F219" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="F219" s="13" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="14">
@@ -8620,19 +8627,19 @@
         <v>768</v>
       </c>
       <c r="B220" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C220" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="D220" s="12" t="s">
         <v>1084</v>
       </c>
-      <c r="D220" s="12" t="s">
+      <c r="E220" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="E220" s="13" t="s">
+      <c r="F220" s="13" t="s">
         <v>1086</v>
-      </c>
-      <c r="F220" s="13" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="14">
@@ -8640,19 +8647,19 @@
         <v>772</v>
       </c>
       <c r="B221" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C221" s="12" t="s">
         <v>1088</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="D221" s="12" t="s">
         <v>1089</v>
       </c>
-      <c r="D221" s="12" t="s">
+      <c r="E221" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="F221" s="13" t="s">
         <v>1091</v>
-      </c>
-      <c r="F221" s="13" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="14">
@@ -8660,19 +8667,19 @@
         <v>776</v>
       </c>
       <c r="B222" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="D222" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="D222" s="12" t="s">
+      <c r="E222" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="E222" s="13" t="s">
+      <c r="F222" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="F222" s="13" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="14">
@@ -8680,19 +8687,19 @@
         <v>795</v>
       </c>
       <c r="B223" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C223" s="12" t="s">
         <v>1098</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="D223" s="12" t="s">
         <v>1099</v>
       </c>
-      <c r="D223" s="12" t="s">
+      <c r="E223" s="13" t="s">
         <v>1100</v>
       </c>
-      <c r="E223" s="13" t="s">
+      <c r="F223" s="13" t="s">
         <v>1101</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="14">
@@ -8700,19 +8707,19 @@
         <v>798</v>
       </c>
       <c r="B224" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>1103</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="D224" s="12" t="s">
         <v>1104</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="E224" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="E224" s="13" t="s">
+      <c r="F224" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="14">
@@ -8720,19 +8727,19 @@
         <v>788</v>
       </c>
       <c r="B225" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C225" s="12" t="s">
         <v>1108</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="D225" s="12" t="s">
+      <c r="E225" s="13" t="s">
         <v>1110</v>
       </c>
-      <c r="E225" s="13" t="s">
+      <c r="F225" s="15" t="s">
         <v>1111</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="14">
@@ -8740,19 +8747,19 @@
         <v>780</v>
       </c>
       <c r="B226" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>1113</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="D226" s="12" t="s">
         <v>1114</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="E226" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="E226" s="13" t="s">
+      <c r="F226" s="13" t="s">
         <v>1116</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="14">
@@ -8760,19 +8767,19 @@
         <v>591</v>
       </c>
       <c r="B227" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C227" s="12" t="s">
         <v>1118</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="D227" s="12" t="s">
         <v>1119</v>
       </c>
-      <c r="D227" s="12" t="s">
+      <c r="E227" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="E227" s="13" t="s">
+      <c r="F227" s="13" t="s">
         <v>1121</v>
-      </c>
-      <c r="F227" s="13" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="14">
@@ -8780,19 +8787,19 @@
         <v>600</v>
       </c>
       <c r="B228" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C228" s="12" t="s">
         <v>1123</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="D228" s="12" t="s">
         <v>1124</v>
       </c>
-      <c r="D228" s="12" t="s">
+      <c r="E228" s="13" t="s">
         <v>1125</v>
       </c>
-      <c r="E228" s="13" t="s">
+      <c r="F228" s="13" t="s">
         <v>1126</v>
-      </c>
-      <c r="F228" s="13" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="14">
@@ -8800,19 +8807,19 @@
         <v>586</v>
       </c>
       <c r="B229" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C229" s="12" t="s">
         <v>1128</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="D229" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="E229" s="13" t="s">
         <v>1130</v>
       </c>
-      <c r="E229" s="13" t="s">
+      <c r="F229" s="15" t="s">
         <v>1131</v>
-      </c>
-      <c r="F229" s="15" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="14">
@@ -8820,19 +8827,19 @@
         <v>598</v>
       </c>
       <c r="B230" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C230" s="12" t="s">
         <v>1133</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="D230" s="12" t="s">
         <v>1134</v>
       </c>
-      <c r="D230" s="12" t="s">
+      <c r="E230" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="E230" s="13" t="s">
+      <c r="F230" s="13" t="s">
         <v>1136</v>
-      </c>
-      <c r="F230" s="13" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="14">
@@ -8840,19 +8847,19 @@
         <v>585</v>
       </c>
       <c r="B231" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C231" s="12" t="s">
         <v>1138</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="D231" s="12" t="s">
         <v>1139</v>
       </c>
-      <c r="D231" s="12" t="s">
+      <c r="E231" s="13" t="s">
         <v>1140</v>
       </c>
-      <c r="E231" s="13" t="s">
+      <c r="F231" s="13" t="s">
         <v>1141</v>
-      </c>
-      <c r="F231" s="13" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="14">
@@ -8860,19 +8867,19 @@
         <v>275</v>
       </c>
       <c r="B232" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C232" s="12" t="s">
         <v>1143</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="D232" s="12" t="s">
         <v>1144</v>
       </c>
-      <c r="D232" s="12" t="s">
+      <c r="E232" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="E232" s="13" t="s">
+      <c r="F232" s="13" t="s">
         <v>1146</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="14">
@@ -8880,19 +8887,19 @@
         <v>234</v>
       </c>
       <c r="B233" s="12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C233" s="12" t="s">
         <v>1148</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="D233" s="12" t="s">
         <v>1149</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="E233" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="E233" s="13" t="s">
+      <c r="F233" s="13" t="s">
         <v>1151</v>
-      </c>
-      <c r="F233" s="13" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="14">
@@ -8900,19 +8907,19 @@
         <v>604</v>
       </c>
       <c r="B234" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C234" s="12" t="s">
         <v>1153</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>1154</v>
       </c>
-      <c r="D234" s="12" t="s">
+      <c r="E234" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="E234" s="13" t="s">
+      <c r="F234" s="13" t="s">
         <v>1156</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="14">
@@ -8920,19 +8927,19 @@
         <v>620</v>
       </c>
       <c r="B235" s="12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C235" s="12" t="s">
         <v>1158</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="D235" s="12" t="s">
         <v>1159</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="E235" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="E235" s="13" t="s">
+      <c r="F235" s="13" t="s">
         <v>1161</v>
-      </c>
-      <c r="F235" s="13" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="14">
@@ -8940,19 +8947,19 @@
         <v>238</v>
       </c>
       <c r="B236" s="12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C236" s="12" t="s">
         <v>1163</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>1164</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="E236" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="E236" s="13" t="s">
+      <c r="F236" s="13" t="s">
         <v>1166</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="14">
@@ -8960,19 +8967,19 @@
         <v>616</v>
       </c>
       <c r="B237" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C237" s="12" t="s">
         <v>1168</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="D237" s="12" t="s">
         <v>1169</v>
       </c>
-      <c r="D237" s="12" t="s">
+      <c r="E237" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="E237" s="13" t="s">
+      <c r="F237" s="13" t="s">
         <v>1171</v>
-      </c>
-      <c r="F237" s="13" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="14">
@@ -8980,19 +8987,19 @@
         <v>630</v>
       </c>
       <c r="B238" s="12" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C238" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="D238" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="E238" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="E238" s="13" t="s">
+      <c r="F238" s="13" t="s">
         <v>1176</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="14">
@@ -9000,19 +9007,19 @@
         <v>250</v>
       </c>
       <c r="B239" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C239" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="D239" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="E239" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="F239" s="13" t="s">
         <v>1181</v>
-      </c>
-      <c r="F239" s="13" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="14">
@@ -9020,19 +9027,19 @@
         <v>254</v>
       </c>
       <c r="B240" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C240" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="D240" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="D240" s="12" t="s">
+      <c r="E240" s="13" t="s">
         <v>1185</v>
       </c>
-      <c r="E240" s="13" t="s">
+      <c r="F240" s="13" t="s">
         <v>1186</v>
-      </c>
-      <c r="F240" s="13" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="14">
@@ -9040,19 +9047,19 @@
         <v>260</v>
       </c>
       <c r="B241" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C241" s="12" t="s">
         <v>1188</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="D241" s="12" t="s">
         <v>1189</v>
       </c>
-      <c r="D241" s="12" t="s">
+      <c r="E241" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="E241" s="13" t="s">
+      <c r="F241" s="13" t="s">
         <v>1191</v>
-      </c>
-      <c r="F241" s="13" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="14">
@@ -9060,19 +9067,19 @@
         <v>258</v>
       </c>
       <c r="B242" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>1193</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="D242" s="12" t="s">
         <v>1194</v>
       </c>
-      <c r="D242" s="12" t="s">
+      <c r="E242" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="E242" s="13" t="s">
+      <c r="F242" s="13" t="s">
         <v>1196</v>
-      </c>
-      <c r="F242" s="13" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="14">
@@ -9080,19 +9087,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C243" s="12" t="s">
         <v>1198</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="D243" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="D243" s="12" t="s">
+      <c r="E243" s="13" t="s">
         <v>1200</v>
       </c>
-      <c r="E243" s="13" t="s">
+      <c r="F243" s="13" t="s">
         <v>1201</v>
-      </c>
-      <c r="F243" s="13" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="14">
@@ -9100,19 +9107,19 @@
         <v>246</v>
       </c>
       <c r="B244" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C244" s="12" t="s">
         <v>1203</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="D244" s="12" t="s">
         <v>1204</v>
       </c>
-      <c r="D244" s="12" t="s">
+      <c r="E244" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="F244" s="13" t="s">
         <v>1206</v>
-      </c>
-      <c r="F244" s="13" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="14">
@@ -9120,19 +9127,19 @@
         <v>608</v>
       </c>
       <c r="B245" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C245" s="12" t="s">
         <v>1208</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="D245" s="12" t="s">
         <v>1209</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="E245" s="13" t="s">
         <v>1210</v>
       </c>
-      <c r="E245" s="13" t="s">
+      <c r="F245" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="F245" s="13" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="14">
@@ -9140,19 +9147,19 @@
         <v>612</v>
       </c>
       <c r="B246" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C246" s="12" t="s">
         <v>1213</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="D246" s="12" t="s">
         <v>1214</v>
       </c>
-      <c r="D246" s="12" t="s">
+      <c r="E246" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="E246" s="13" t="s">
+      <c r="F246" s="13" t="s">
         <v>1216</v>
-      </c>
-      <c r="F246" s="13" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="14">
@@ -9160,19 +9167,19 @@
         <v>334</v>
       </c>
       <c r="B247" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C247" s="12" t="s">
         <v>1218</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="D247" s="12" t="s">
         <v>1219</v>
       </c>
-      <c r="D247" s="12" t="s">
+      <c r="E247" s="13" t="s">
         <v>1220</v>
       </c>
-      <c r="E247" s="13" t="s">
+      <c r="F247" s="13" t="s">
         <v>1221</v>
-      </c>
-      <c r="F247" s="13" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="14">
@@ -9180,19 +9187,19 @@
         <v>348</v>
       </c>
       <c r="B248" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C248" s="12" t="s">
         <v>1223</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="D248" s="12" t="s">
         <v>1224</v>
       </c>
-      <c r="D248" s="12" t="s">
+      <c r="E248" s="13" t="s">
         <v>1225</v>
       </c>
-      <c r="E248" s="13" t="s">
+      <c r="F248" s="13" t="s">
         <v>1226</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="14">
@@ -9200,27 +9207,27 @@
         <v>344</v>
       </c>
       <c r="B249" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C249" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="D249" s="12" t="s">
         <v>1229</v>
       </c>
-      <c r="D249" s="12" t="s">
+      <c r="E249" s="13" t="s">
         <v>1230</v>
       </c>
-      <c r="E249" s="13" t="s">
+      <c r="F249" s="13" t="s">
         <v>1231</v>
-      </c>
-      <c r="F249" s="13" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1">
       <c r="B250" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1">
@@ -9228,63 +9235,63 @@
         <v>318</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1">
       <c r="B252" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1">
       <c r="B253" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1">
       <c r="B254" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1">
       <c r="B255" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1">
       <c r="B256" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="257" spans="2:4" ht="15.75" customHeight="1">
       <c r="B257" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="258" spans="2:4" ht="15.75" customHeight="1">
       <c r="B258" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="259" spans="2:4" ht="15.75" customHeight="1">
@@ -9292,31 +9299,31 @@
         <v>273</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="260" spans="2:4" ht="15.75" customHeight="1">
       <c r="B260" s="16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="261" spans="2:4" ht="15.75" customHeight="1">
       <c r="B261" s="17" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="262" spans="2:4" ht="15.75" customHeight="1">
       <c r="B262" s="16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="263" spans="2:4" ht="15.75" customHeight="1">

--- a/working/ISO국가코드.xlsx
+++ b/working/ISO국가코드.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shbae/Downloads/coronascan_py/working/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lshj0\Jupyter_workspace\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F08570-D841-D041-8409-C65CF2B171E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67346B2C-E584-4482-B1CC-B2C7466CD332}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국가코드" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="1235">
   <si>
     <t>ISO국가코드</t>
   </si>
@@ -1552,6 +1552,9 @@
     <t>SA</t>
   </si>
   <si>
+    <t>사우디아라비아</t>
+  </si>
+  <si>
     <t>SAUDI ARABIA</t>
   </si>
   <si>
@@ -3049,9 +3052,6 @@
     <t>CG</t>
   </si>
   <si>
-    <t>콩고 공화국</t>
-  </si>
-  <si>
     <t>CONGO</t>
   </si>
   <si>
@@ -3064,9 +3064,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>콩고 민주 공화국</t>
-  </si>
-  <si>
     <t>DEMOCRATIC REPUBLIC OF THE CONGO</t>
   </si>
   <si>
@@ -3319,9 +3316,6 @@
     <t>TM</t>
   </si>
   <si>
-    <t>투르크메니스탄</t>
-  </si>
-  <si>
     <t>TURKMENISTAN</t>
   </si>
   <si>
@@ -3718,47 +3712,24 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>투르크 메니스탄</t>
-  </si>
-  <si>
-    <t>모리타니아</t>
-  </si>
-  <si>
-    <t>대만</t>
-  </si>
-  <si>
-    <t>태국</t>
-  </si>
-  <si>
-    <t>민주콩고</t>
+    <t>투르크메니스 탄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>민주콩코</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>콩고공화국</t>
-  </si>
-  <si>
-    <t>쿡제도</t>
-  </si>
-  <si>
-    <t>파푸아뉴기니</t>
-  </si>
-  <si>
-    <t>호주</t>
-  </si>
-  <si>
-    <t>북마케도니아</t>
-  </si>
-  <si>
-    <t>사이프러스</t>
-  </si>
-  <si>
-    <t>키르기즈스탄</t>
-  </si>
-  <si>
-    <t>적도기니</t>
-  </si>
-  <si>
-    <t>사우디</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3806,20 +3777,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="나눔명조"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -3849,7 +3820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3870,6 +3841,17 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3895,9 +3877,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4215,22 +4197,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1249"/>
+  <dimension ref="A1:AB250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.71875" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4722,7 +4704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="12">
         <v>530</v>
       </c>
@@ -4742,7 +4724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="12">
         <v>524</v>
       </c>
@@ -4762,7 +4744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="12">
         <v>578</v>
       </c>
@@ -4782,7 +4764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="12">
         <v>574</v>
       </c>
@@ -4802,7 +4784,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="12">
         <v>540</v>
       </c>
@@ -4822,7 +4804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="12">
         <v>554</v>
       </c>
@@ -4842,7 +4824,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="12">
         <v>570</v>
       </c>
@@ -4862,7 +4844,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="13.8">
       <c r="A32" s="12">
         <v>562</v>
       </c>
@@ -4882,7 +4864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="12">
         <v>558</v>
       </c>
@@ -4902,7 +4884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="12">
         <v>410</v>
       </c>
@@ -4922,7 +4904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="12">
         <v>208</v>
       </c>
@@ -4942,7 +4924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="12">
         <v>214</v>
       </c>
@@ -4962,7 +4944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="13.8">
       <c r="A37" s="12">
         <v>212</v>
       </c>
@@ -4982,7 +4964,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="13.8">
       <c r="A38" s="12">
         <v>276</v>
       </c>
@@ -5002,7 +4984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="13.8">
       <c r="A39" s="12">
         <v>626</v>
       </c>
@@ -5022,7 +5004,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="13.8">
       <c r="A40" s="12">
         <v>418</v>
       </c>
@@ -5042,7 +5024,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="13.8">
       <c r="A41" s="12">
         <v>430</v>
       </c>
@@ -5062,7 +5044,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="13.8">
       <c r="A42" s="12">
         <v>428</v>
       </c>
@@ -5082,7 +5064,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="13.8">
       <c r="A43" s="12">
         <v>643</v>
       </c>
@@ -5102,7 +5084,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="13.8">
       <c r="A44" s="12">
         <v>422</v>
       </c>
@@ -5122,7 +5104,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="13.8">
       <c r="A45" s="12">
         <v>426</v>
       </c>
@@ -5142,7 +5124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14">
+    <row r="46" spans="1:6" ht="13.8">
       <c r="A46" s="12">
         <v>638</v>
       </c>
@@ -5162,7 +5144,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14">
+    <row r="47" spans="1:6" ht="13.8">
       <c r="A47" s="12">
         <v>642</v>
       </c>
@@ -5182,7 +5164,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14">
+    <row r="48" spans="1:6" ht="13.8">
       <c r="A48" s="12">
         <v>442</v>
       </c>
@@ -5202,7 +5184,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14">
+    <row r="49" spans="1:6" ht="13.8">
       <c r="A49" s="12">
         <v>646</v>
       </c>
@@ -5222,7 +5204,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14">
+    <row r="50" spans="1:6" ht="13.8">
       <c r="A50" s="12">
         <v>434</v>
       </c>
@@ -5242,7 +5224,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14">
+    <row r="51" spans="1:6" ht="13.8">
       <c r="A51" s="12">
         <v>440</v>
       </c>
@@ -5262,7 +5244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14">
+    <row r="52" spans="1:6" ht="13.8">
       <c r="A52" s="12">
         <v>438</v>
       </c>
@@ -5282,7 +5264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14">
+    <row r="53" spans="1:6" ht="13.8">
       <c r="A53" s="12">
         <v>450</v>
       </c>
@@ -5302,7 +5284,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14">
+    <row r="54" spans="1:6" ht="13.8">
       <c r="A54" s="12">
         <v>474</v>
       </c>
@@ -5322,7 +5304,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14">
+    <row r="55" spans="1:6" ht="13.8">
       <c r="A55" s="12">
         <v>584</v>
       </c>
@@ -5342,7 +5324,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14">
+    <row r="56" spans="1:6" ht="13.8">
       <c r="A56" s="12">
         <v>175</v>
       </c>
@@ -5362,7 +5344,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14">
+    <row r="57" spans="1:6" ht="13.8">
       <c r="A57" s="12">
         <v>446</v>
       </c>
@@ -5382,7 +5364,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14">
+    <row r="58" spans="1:6" ht="13.8">
       <c r="A58" s="12">
         <v>807</v>
       </c>
@@ -5402,7 +5384,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14">
+    <row r="59" spans="1:6" ht="13.8">
       <c r="A59" s="12">
         <v>454</v>
       </c>
@@ -5422,7 +5404,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14">
+    <row r="60" spans="1:6" ht="13.8">
       <c r="A60" s="12">
         <v>458</v>
       </c>
@@ -5442,7 +5424,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14">
+    <row r="61" spans="1:6" ht="13.8">
       <c r="A61" s="12">
         <v>466</v>
       </c>
@@ -5462,7 +5444,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14">
+    <row r="62" spans="1:6" ht="13.8">
       <c r="A62" s="12">
         <v>833</v>
       </c>
@@ -5482,7 +5464,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14">
+    <row r="63" spans="1:6" ht="13.8">
       <c r="A63" s="12">
         <v>484</v>
       </c>
@@ -5502,7 +5484,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14">
+    <row r="64" spans="1:6" ht="13.8">
       <c r="A64" s="12">
         <v>492</v>
       </c>
@@ -5522,7 +5504,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14">
+    <row r="65" spans="1:6" ht="13.8">
       <c r="A65" s="12">
         <v>504</v>
       </c>
@@ -5542,7 +5524,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14">
+    <row r="66" spans="1:6" ht="13.8">
       <c r="A66" s="12">
         <v>480</v>
       </c>
@@ -5562,7 +5544,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14">
+    <row r="67" spans="1:6" ht="13.8">
       <c r="A67" s="12">
         <v>478</v>
       </c>
@@ -5582,7 +5564,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14">
+    <row r="68" spans="1:6" ht="13.8">
       <c r="A68" s="12">
         <v>508</v>
       </c>
@@ -5602,7 +5584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14">
+    <row r="69" spans="1:6" ht="13.8">
       <c r="A69" s="12">
         <v>499</v>
       </c>
@@ -5622,7 +5604,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14">
+    <row r="70" spans="1:6" ht="13.8">
       <c r="A70" s="12">
         <v>500</v>
       </c>
@@ -5642,7 +5624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14">
+    <row r="71" spans="1:6" ht="13.8">
       <c r="A71" s="12">
         <v>498</v>
       </c>
@@ -5662,7 +5644,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14">
+    <row r="72" spans="1:6" ht="13.8">
       <c r="A72" s="12">
         <v>462</v>
       </c>
@@ -5682,7 +5664,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14">
+    <row r="73" spans="1:6" ht="13.8">
       <c r="A73" s="12">
         <v>470</v>
       </c>
@@ -5702,7 +5684,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14">
+    <row r="74" spans="1:6" ht="13.8">
       <c r="A74" s="12">
         <v>496</v>
       </c>
@@ -5722,7 +5704,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14">
+    <row r="75" spans="1:6" ht="13.8">
       <c r="A75" s="12">
         <v>840</v>
       </c>
@@ -5742,7 +5724,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14">
+    <row r="76" spans="1:6" ht="13.8">
       <c r="A76" s="12">
         <v>581</v>
       </c>
@@ -5762,7 +5744,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14">
+    <row r="77" spans="1:6" ht="13.8">
       <c r="A77" s="12">
         <v>850</v>
       </c>
@@ -5782,7 +5764,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14">
+    <row r="78" spans="1:6" ht="13.8">
       <c r="A78" s="12">
         <v>104</v>
       </c>
@@ -5802,7 +5784,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14">
+    <row r="79" spans="1:6" ht="13.8">
       <c r="A79" s="12">
         <v>583</v>
       </c>
@@ -5822,7 +5804,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14">
+    <row r="80" spans="1:6" ht="13.8">
       <c r="A80" s="12">
         <v>548</v>
       </c>
@@ -5842,7 +5824,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14">
+    <row r="81" spans="1:6" ht="13.8">
       <c r="A81" s="12">
         <v>48</v>
       </c>
@@ -5862,7 +5844,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14">
+    <row r="82" spans="1:6" ht="13.8">
       <c r="A82" s="12">
         <v>52</v>
       </c>
@@ -5882,7 +5864,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14">
+    <row r="83" spans="1:6" ht="13.8">
       <c r="A83" s="12">
         <v>336</v>
       </c>
@@ -5902,7 +5884,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14">
+    <row r="84" spans="1:6" ht="13.8">
       <c r="A84" s="12">
         <v>44</v>
       </c>
@@ -5922,7 +5904,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14">
+    <row r="85" spans="1:6" ht="13.8">
       <c r="A85" s="12">
         <v>50</v>
       </c>
@@ -5942,7 +5924,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14">
+    <row r="86" spans="1:6" ht="13.8">
       <c r="A86" s="12">
         <v>60</v>
       </c>
@@ -5962,7 +5944,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14">
+    <row r="87" spans="1:6" ht="13.8">
       <c r="A87" s="12">
         <v>204</v>
       </c>
@@ -5982,7 +5964,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14">
+    <row r="88" spans="1:6" ht="13.8">
       <c r="A88" s="12">
         <v>862</v>
       </c>
@@ -6002,7 +5984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14">
+    <row r="89" spans="1:6" ht="13.8">
       <c r="A89" s="12">
         <v>704</v>
       </c>
@@ -6022,7 +6004,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14">
+    <row r="90" spans="1:6" ht="13.8">
       <c r="A90" s="12">
         <v>56</v>
       </c>
@@ -6042,7 +6024,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14">
+    <row r="91" spans="1:6" ht="13.8">
       <c r="A91" s="12">
         <v>112</v>
       </c>
@@ -6062,7 +6044,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14">
+    <row r="92" spans="1:6" ht="13.8">
       <c r="A92" s="12">
         <v>84</v>
       </c>
@@ -6082,7 +6064,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14">
+    <row r="93" spans="1:6" ht="13.8">
       <c r="A93" s="12">
         <v>70</v>
       </c>
@@ -6102,7 +6084,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14">
+    <row r="94" spans="1:6" ht="13.8">
       <c r="A94" s="12">
         <v>72</v>
       </c>
@@ -6122,7 +6104,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14">
+    <row r="95" spans="1:6" ht="13.8">
       <c r="A95" s="12">
         <v>68</v>
       </c>
@@ -6142,7 +6124,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14">
+    <row r="96" spans="1:6" ht="13.8">
       <c r="A96" s="12">
         <v>108</v>
       </c>
@@ -6162,7 +6144,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14">
+    <row r="97" spans="1:6" ht="13.8">
       <c r="A97" s="12">
         <v>854</v>
       </c>
@@ -6182,7 +6164,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14">
+    <row r="98" spans="1:6" ht="13.8">
       <c r="A98" s="12">
         <v>74</v>
       </c>
@@ -6202,7 +6184,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14">
+    <row r="99" spans="1:6" ht="13.8">
       <c r="A99" s="12">
         <v>64</v>
       </c>
@@ -6222,7 +6204,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14">
+    <row r="100" spans="1:6" ht="13.8">
       <c r="A100" s="12">
         <v>580</v>
       </c>
@@ -6242,7 +6224,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14">
+    <row r="101" spans="1:6" ht="13.8">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -6262,7 +6244,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14">
+    <row r="102" spans="1:6" ht="13.8">
       <c r="A102" s="12">
         <v>76</v>
       </c>
@@ -6282,7 +6264,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14">
+    <row r="103" spans="1:6" ht="13.8">
       <c r="A103" s="12">
         <v>96</v>
       </c>
@@ -6302,7 +6284,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14">
+    <row r="104" spans="1:6" ht="13.8">
       <c r="A104" s="12">
         <v>882</v>
       </c>
@@ -6322,7 +6304,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14">
+    <row r="105" spans="1:6" ht="13.8">
       <c r="A105" s="12">
         <v>682</v>
       </c>
@@ -6332,2008 +6314,2008 @@
       <c r="C105" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D105" s="18" t="s">
-        <v>1245</v>
+      <c r="D105" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13.8">
       <c r="A106" s="12">
         <v>239</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="14">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.8">
       <c r="A107" s="12">
         <v>674</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="14">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.8">
       <c r="A108" s="12">
         <v>678</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="14">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.8">
       <c r="A109" s="12">
         <v>666</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="14">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.8">
       <c r="A110" s="12">
         <v>732</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.8">
       <c r="A111" s="12">
         <v>686</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="14">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.8">
       <c r="A112" s="12">
         <v>688</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="14">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13.8">
       <c r="A113" s="12">
         <v>690</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="14">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13.8">
       <c r="A114" s="12">
         <v>662</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="14">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.8">
       <c r="A115" s="12">
         <v>670</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="14">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13.8">
       <c r="A116" s="12">
         <v>659</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="14">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.8">
       <c r="A117" s="12">
         <v>654</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="14">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.8">
       <c r="A118" s="12">
         <v>706</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="14">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.8">
       <c r="A119" s="12">
         <v>90</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="14">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.8">
       <c r="A120" s="12">
         <v>736</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="14">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13.8">
       <c r="A121" s="12">
         <v>740</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="14">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.8">
       <c r="A122" s="12">
         <v>144</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.8">
       <c r="A123" s="12">
         <v>744</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="14">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13.8">
       <c r="A124" s="12">
         <v>748</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="14">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.8">
       <c r="A125" s="12">
         <v>752</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="14">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.8">
       <c r="A126" s="12">
         <v>756</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="14">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.8">
       <c r="A127" s="12">
         <v>724</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="14">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.8">
       <c r="A128" s="12">
         <v>703</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.8">
       <c r="A129" s="12">
         <v>705</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="14">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.8">
       <c r="A130" s="12">
         <v>760</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="14">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.8">
       <c r="A131" s="12">
         <v>694</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="14">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.8">
       <c r="A132" s="12">
         <v>702</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="14">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.8">
       <c r="A133" s="12">
         <v>784</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="14">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.8">
       <c r="A134" s="12">
         <v>533</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="14">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.8">
       <c r="A135" s="12">
         <v>51</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="14">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.8">
       <c r="A136" s="12">
         <v>32</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="14">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13.8">
       <c r="A137" s="12">
         <v>16</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="14">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13.8">
       <c r="A138" s="12">
         <v>352</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.8">
       <c r="A139" s="12">
         <v>332</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="14">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.8">
       <c r="A140" s="12">
         <v>372</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="14">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.8">
       <c r="A141" s="12">
         <v>31</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.8">
       <c r="A142" s="12">
         <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="14">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.8">
       <c r="A143" s="12">
         <v>20</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="14">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.8">
       <c r="A144" s="12">
         <v>8</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="14">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.8">
       <c r="A145" s="12">
         <v>12</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="14">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.8">
       <c r="A146" s="12">
         <v>24</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="14">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.8">
       <c r="A147" s="12">
         <v>28</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.8">
       <c r="A148" s="12">
         <v>660</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="14">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.8">
       <c r="A149" s="12">
         <v>232</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="14">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.8">
       <c r="A150" s="12">
         <v>233</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="14">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13.8">
       <c r="A151" s="12">
         <v>218</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="14">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.8">
       <c r="A152" s="12">
         <v>231</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="14">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.8">
       <c r="A153" s="12">
         <v>222</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="14">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.8">
       <c r="A154" s="12">
         <v>826</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="14">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.8">
       <c r="A155" s="12">
         <v>92</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="14">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.8">
       <c r="A156" s="12">
         <v>86</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="14">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.8">
       <c r="A157" s="12">
         <v>887</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="14">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.8">
       <c r="A158" s="12">
         <v>512</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="14">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.8">
       <c r="A159" s="12">
         <v>36</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="14">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.8">
       <c r="A160" s="12">
         <v>40</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="14">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.8">
       <c r="A161" s="12">
         <v>340</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="14">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.8">
       <c r="A162" s="12">
         <v>248</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="14">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.8">
       <c r="A163" s="12">
         <v>876</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="14">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.8">
       <c r="A164" s="12">
         <v>400</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="14">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.8">
       <c r="A165" s="12">
         <v>800</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="14">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.8">
       <c r="A166" s="12">
         <v>858</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="14">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.8">
       <c r="A167" s="12">
         <v>860</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="14">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.8">
       <c r="A168" s="12">
         <v>804</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="14">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.8">
       <c r="A169" s="12">
         <v>368</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="14">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13.8">
       <c r="A170" s="12">
         <v>364</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="14">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13.8">
       <c r="A171" s="12">
         <v>376</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="14">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.8">
       <c r="A172" s="12">
         <v>818</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="14">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.8">
       <c r="A173" s="12">
         <v>380</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="14">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.8">
       <c r="A174" s="12">
         <v>356</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="14">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.8">
       <c r="A175" s="12">
         <v>360</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.8">
       <c r="A176" s="12">
         <v>392</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="14">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.8">
       <c r="A177" s="12">
         <v>388</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="14">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.8">
       <c r="A178" s="12">
         <v>894</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="14">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.8">
       <c r="A179" s="12">
         <v>832</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="14">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.8">
       <c r="A180" s="12">
         <v>226</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="14">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.8">
       <c r="A181" s="12">
         <v>408</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="14">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.8">
       <c r="A182" s="12">
         <v>268</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="14">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.8">
       <c r="A183" s="12">
         <v>140</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="14">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.8">
       <c r="A184" s="12">
         <v>158</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="14">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.8">
       <c r="A185" s="12">
         <v>156</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="14">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.8">
       <c r="A186" s="12">
         <v>262</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="14">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.8">
       <c r="A187" s="12">
         <v>292</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="14">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.8">
       <c r="A188" s="12">
         <v>716</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="14">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.8">
       <c r="A189" s="12">
         <v>148</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="14">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.8">
       <c r="A190" s="12">
         <v>203</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="14">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.8">
       <c r="A191" s="12">
         <v>152</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="14">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.8">
       <c r="A192" s="12">
         <v>120</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="14">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13.8">
       <c r="A193" s="12">
         <v>132</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="14">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13.8">
       <c r="A194" s="12">
         <v>398</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="14">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.8">
       <c r="A195" s="12">
         <v>634</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F195" s="15" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="14">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.8">
       <c r="A196" s="12">
         <v>116</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="14">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.8">
       <c r="A197" s="12">
         <v>124</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="14">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.8">
       <c r="A198" s="12">
         <v>404</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="14">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.8">
       <c r="A199" s="12">
         <v>136</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="14">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.8">
       <c r="A200" s="12">
         <v>174</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="14">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.8">
       <c r="A201" s="12">
         <v>188</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="14">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.8">
       <c r="A202" s="12">
         <v>166</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="14">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.8">
       <c r="A203" s="12">
         <v>384</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="14">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.8">
       <c r="A204" s="12">
         <v>170</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="14">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="16.5">
       <c r="A205" s="12">
         <v>178</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D205" s="12" t="s">
         <v>1009</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>1232</v>
       </c>
       <c r="E205" s="13" t="s">
         <v>1010</v>
@@ -8342,7 +8324,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14">
+    <row r="206" spans="1:6" ht="13.8">
       <c r="A206" s="12">
         <v>180</v>
       </c>
@@ -8352,4933 +8334,891 @@
       <c r="C206" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D206" s="16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E206" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="E206" s="13" t="s">
+      <c r="F206" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="F206" s="13" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="14">
+    </row>
+    <row r="207" spans="1:6" ht="13.8">
       <c r="A207" s="12">
         <v>192</v>
       </c>
       <c r="B207" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C207" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="D207" s="12" t="s">
+      <c r="E207" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="F207" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="F207" s="13" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="14">
+    </row>
+    <row r="208" spans="1:6" ht="13.8">
       <c r="A208" s="12">
         <v>414</v>
       </c>
       <c r="B208" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C208" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="D208" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="E208" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="E208" s="13" t="s">
+      <c r="F208" s="15" t="s">
         <v>1025</v>
       </c>
-      <c r="F208" s="15" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="14">
+    </row>
+    <row r="209" spans="1:6" ht="13.8">
       <c r="A209" s="12">
         <v>184</v>
       </c>
       <c r="B209" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C209" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="D209" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="E209" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="E209" s="13" t="s">
+      <c r="F209" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="F209" s="13" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="14">
+    </row>
+    <row r="210" spans="1:6" ht="13.8">
       <c r="A210" s="12">
         <v>191</v>
       </c>
       <c r="B210" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C210" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="D210" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="E210" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="E210" s="13" t="s">
+      <c r="F210" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="F210" s="13" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="14">
+    </row>
+    <row r="211" spans="1:6" ht="13.8">
       <c r="A211" s="12">
         <v>162</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C211" s="12" t="s">
         <v>1037</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="D211" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="E211" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="F211" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="F211" s="13" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="14">
+    </row>
+    <row r="212" spans="1:6" ht="13.8">
       <c r="A212" s="12">
         <v>417</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>1042</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="D212" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="E212" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="E212" s="13" t="s">
+      <c r="F212" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="F212" s="13" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="14">
+    </row>
+    <row r="213" spans="1:6" ht="13.8">
       <c r="A213" s="12">
         <v>296</v>
       </c>
       <c r="B213" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C213" s="12" t="s">
         <v>1047</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="D213" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="D213" s="12" t="s">
+      <c r="E213" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="E213" s="13" t="s">
+      <c r="F213" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="F213" s="13" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="14">
+    </row>
+    <row r="214" spans="1:6" ht="13.8">
       <c r="A214" s="12">
         <v>196</v>
       </c>
       <c r="B214" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>1052</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="D214" s="12" t="s">
         <v>1053</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="E214" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="E214" s="13" t="s">
+      <c r="F214" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="F214" s="13" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="14">
+    </row>
+    <row r="215" spans="1:6" ht="13.8">
       <c r="A215" s="12">
         <v>764</v>
       </c>
       <c r="B215" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C215" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="D215" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="D215" s="12" t="s">
+      <c r="E215" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="E215" s="13" t="s">
+      <c r="F215" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="F215" s="13" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="14">
+    </row>
+    <row r="216" spans="1:6" ht="13.8">
       <c r="A216" s="12">
         <v>762</v>
       </c>
       <c r="B216" s="12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>1062</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="D216" s="12" t="s">
         <v>1063</v>
       </c>
-      <c r="D216" s="12" t="s">
+      <c r="E216" s="13" t="s">
         <v>1064</v>
       </c>
-      <c r="E216" s="13" t="s">
+      <c r="F216" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="F216" s="13" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="14">
+    </row>
+    <row r="217" spans="1:6" ht="13.8">
       <c r="A217" s="12">
         <v>834</v>
       </c>
       <c r="B217" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C217" s="12" t="s">
         <v>1067</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="D217" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="D217" s="12" t="s">
+      <c r="E217" s="13" t="s">
         <v>1069</v>
       </c>
-      <c r="E217" s="13" t="s">
+      <c r="F217" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="F217" s="13" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="14">
+    </row>
+    <row r="218" spans="1:6" ht="13.8">
       <c r="A218" s="12">
         <v>796</v>
       </c>
       <c r="B218" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C218" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="D218" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="D218" s="12" t="s">
+      <c r="E218" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="E218" s="13" t="s">
+      <c r="F218" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="F218" s="13" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="14">
+    </row>
+    <row r="219" spans="1:6" ht="13.8">
       <c r="A219" s="12">
         <v>792</v>
       </c>
       <c r="B219" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C219" s="12" t="s">
         <v>1077</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="D219" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="D219" s="12" t="s">
+      <c r="E219" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="E219" s="13" t="s">
+      <c r="F219" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="F219" s="13" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="14">
+    </row>
+    <row r="220" spans="1:6" ht="13.8">
       <c r="A220" s="12">
         <v>768</v>
       </c>
       <c r="B220" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C220" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="D220" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D220" s="12" t="s">
+      <c r="E220" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="E220" s="13" t="s">
+      <c r="F220" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="F220" s="13" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="14">
+    </row>
+    <row r="221" spans="1:6" ht="13.8">
       <c r="A221" s="12">
         <v>772</v>
       </c>
       <c r="B221" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C221" s="12" t="s">
         <v>1087</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="D221" s="12" t="s">
         <v>1088</v>
       </c>
-      <c r="D221" s="12" t="s">
+      <c r="E221" s="13" t="s">
         <v>1089</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="F221" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="F221" s="13" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="14">
+    </row>
+    <row r="222" spans="1:6" ht="13.8">
       <c r="A222" s="12">
         <v>776</v>
       </c>
       <c r="B222" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>1092</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="D222" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="D222" s="12" t="s">
+      <c r="E222" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="E222" s="13" t="s">
+      <c r="F222" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="F222" s="13" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="14">
+    </row>
+    <row r="223" spans="1:6" ht="16.5">
       <c r="A223" s="12">
         <v>795</v>
       </c>
       <c r="B223" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C223" s="12" t="s">
         <v>1097</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="D223" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E223" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="D223" s="12" t="s">
+      <c r="F223" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="E223" s="13" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="14">
+    </row>
+    <row r="224" spans="1:6" ht="13.8">
       <c r="A224" s="12">
         <v>798</v>
       </c>
       <c r="B224" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D224" s="12" t="s">
         <v>1102</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="E224" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="F224" s="13" t="s">
         <v>1104</v>
       </c>
-      <c r="E224" s="13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="14">
+    </row>
+    <row r="225" spans="1:6" ht="13.8">
       <c r="A225" s="12">
         <v>788</v>
       </c>
       <c r="B225" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D225" s="12" t="s">
         <v>1107</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="E225" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="D225" s="12" t="s">
+      <c r="F225" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="E225" s="13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="14">
+    </row>
+    <row r="226" spans="1:6" ht="13.8">
       <c r="A226" s="12">
         <v>780</v>
       </c>
       <c r="B226" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D226" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="E226" s="13" t="s">
         <v>1113</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="F226" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="E226" s="13" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="14">
+    </row>
+    <row r="227" spans="1:6" ht="13.8">
       <c r="A227" s="12">
         <v>591</v>
       </c>
       <c r="B227" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D227" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="E227" s="13" t="s">
         <v>1118</v>
       </c>
-      <c r="D227" s="12" t="s">
+      <c r="F227" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="E227" s="13" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F227" s="13" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="14">
+    </row>
+    <row r="228" spans="1:6" ht="13.8">
       <c r="A228" s="12">
         <v>600</v>
       </c>
       <c r="B228" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D228" s="12" t="s">
         <v>1122</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="E228" s="13" t="s">
         <v>1123</v>
       </c>
-      <c r="D228" s="12" t="s">
+      <c r="F228" s="13" t="s">
         <v>1124</v>
       </c>
-      <c r="E228" s="13" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F228" s="13" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="14">
+    </row>
+    <row r="229" spans="1:6" ht="13.8">
       <c r="A229" s="12">
         <v>586</v>
       </c>
       <c r="B229" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D229" s="12" t="s">
         <v>1127</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="E229" s="13" t="s">
         <v>1128</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="F229" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="E229" s="13" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F229" s="15" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="14">
+    </row>
+    <row r="230" spans="1:6" ht="13.8">
       <c r="A230" s="12">
         <v>598</v>
       </c>
       <c r="B230" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D230" s="12" t="s">
         <v>1132</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="E230" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="D230" s="12" t="s">
+      <c r="F230" s="13" t="s">
         <v>1134</v>
       </c>
-      <c r="E230" s="13" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F230" s="13" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="14">
+    </row>
+    <row r="231" spans="1:6" ht="13.8">
       <c r="A231" s="12">
         <v>585</v>
       </c>
       <c r="B231" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D231" s="12" t="s">
         <v>1137</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="E231" s="13" t="s">
         <v>1138</v>
       </c>
-      <c r="D231" s="12" t="s">
+      <c r="F231" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="E231" s="13" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F231" s="13" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="14">
+    </row>
+    <row r="232" spans="1:6" ht="13.8">
       <c r="A232" s="12">
         <v>275</v>
       </c>
       <c r="B232" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D232" s="12" t="s">
         <v>1142</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="E232" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="D232" s="12" t="s">
+      <c r="F232" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="E232" s="13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="14">
+    </row>
+    <row r="233" spans="1:6" ht="13.8">
       <c r="A233" s="12">
         <v>234</v>
       </c>
       <c r="B233" s="12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D233" s="12" t="s">
         <v>1147</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="E233" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="F233" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="E233" s="13" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F233" s="13" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="14">
+    </row>
+    <row r="234" spans="1:6" ht="13.8">
       <c r="A234" s="12">
         <v>604</v>
       </c>
       <c r="B234" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D234" s="12" t="s">
         <v>1152</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="E234" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="D234" s="12" t="s">
+      <c r="F234" s="13" t="s">
         <v>1154</v>
       </c>
-      <c r="E234" s="13" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="14">
+    </row>
+    <row r="235" spans="1:6" ht="13.8">
       <c r="A235" s="12">
         <v>620</v>
       </c>
       <c r="B235" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D235" s="12" t="s">
         <v>1157</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="E235" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="F235" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="E235" s="13" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F235" s="13" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="14">
+    </row>
+    <row r="236" spans="1:6" ht="13.8">
       <c r="A236" s="12">
         <v>238</v>
       </c>
       <c r="B236" s="12" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D236" s="12" t="s">
         <v>1162</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="E236" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="F236" s="13" t="s">
         <v>1164</v>
       </c>
-      <c r="E236" s="13" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="14">
+    </row>
+    <row r="237" spans="1:6" ht="13.8">
       <c r="A237" s="12">
         <v>616</v>
       </c>
       <c r="B237" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D237" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="E237" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="D237" s="12" t="s">
+      <c r="F237" s="13" t="s">
         <v>1169</v>
       </c>
-      <c r="E237" s="13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F237" s="13" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="14">
+    </row>
+    <row r="238" spans="1:6" ht="13.8">
       <c r="A238" s="12">
         <v>630</v>
       </c>
       <c r="B238" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D238" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="E238" s="13" t="s">
         <v>1173</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="F238" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="E238" s="13" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="14">
+    </row>
+    <row r="239" spans="1:6" ht="13.8">
       <c r="A239" s="12">
         <v>250</v>
       </c>
       <c r="B239" s="12" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D239" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="E239" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="F239" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="E239" s="13" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F239" s="13" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="14">
+    </row>
+    <row r="240" spans="1:6" ht="13.8">
       <c r="A240" s="12">
         <v>254</v>
       </c>
       <c r="B240" s="12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D240" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="E240" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="D240" s="12" t="s">
+      <c r="F240" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="E240" s="13" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F240" s="13" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="14">
+    </row>
+    <row r="241" spans="1:6" ht="13.8">
       <c r="A241" s="12">
         <v>260</v>
       </c>
       <c r="B241" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D241" s="12" t="s">
         <v>1187</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="E241" s="13" t="s">
         <v>1188</v>
       </c>
-      <c r="D241" s="12" t="s">
+      <c r="F241" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="E241" s="13" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F241" s="13" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="14">
+    </row>
+    <row r="242" spans="1:6" ht="13.8">
       <c r="A242" s="12">
         <v>258</v>
       </c>
       <c r="B242" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D242" s="12" t="s">
         <v>1192</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="E242" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="D242" s="12" t="s">
+      <c r="F242" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="E242" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F242" s="13" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="14">
+    </row>
+    <row r="243" spans="1:6" ht="13.8">
       <c r="A243" s="12">
         <v>242</v>
       </c>
       <c r="B243" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D243" s="12" t="s">
         <v>1197</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="E243" s="13" t="s">
         <v>1198</v>
       </c>
-      <c r="D243" s="12" t="s">
+      <c r="F243" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="E243" s="13" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F243" s="13" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="14">
+    </row>
+    <row r="244" spans="1:6" ht="13.8">
       <c r="A244" s="12">
         <v>246</v>
       </c>
       <c r="B244" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D244" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="E244" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="D244" s="12" t="s">
+      <c r="F244" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="E244" s="13" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F244" s="13" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="14">
+    </row>
+    <row r="245" spans="1:6" ht="13.8">
       <c r="A245" s="12">
         <v>608</v>
       </c>
       <c r="B245" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D245" s="12" t="s">
         <v>1207</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="E245" s="13" t="s">
         <v>1208</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="F245" s="13" t="s">
         <v>1209</v>
       </c>
-      <c r="E245" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F245" s="13" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="14">
+    </row>
+    <row r="246" spans="1:6" ht="13.8">
       <c r="A246" s="12">
         <v>612</v>
       </c>
       <c r="B246" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D246" s="12" t="s">
         <v>1212</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="E246" s="13" t="s">
         <v>1213</v>
       </c>
-      <c r="D246" s="12" t="s">
+      <c r="F246" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="E246" s="13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F246" s="13" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="14">
+    </row>
+    <row r="247" spans="1:6" ht="13.8">
       <c r="A247" s="12">
         <v>334</v>
       </c>
       <c r="B247" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D247" s="12" t="s">
         <v>1217</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="E247" s="13" t="s">
         <v>1218</v>
       </c>
-      <c r="D247" s="12" t="s">
+      <c r="F247" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="E247" s="13" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F247" s="13" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="14">
+    </row>
+    <row r="248" spans="1:6" ht="13.8">
       <c r="A248" s="12">
         <v>348</v>
       </c>
       <c r="B248" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D248" s="12" t="s">
         <v>1222</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="E248" s="13" t="s">
         <v>1223</v>
       </c>
-      <c r="D248" s="12" t="s">
+      <c r="F248" s="13" t="s">
         <v>1224</v>
       </c>
-      <c r="E248" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="14">
+    </row>
+    <row r="249" spans="1:6" ht="13.8">
       <c r="A249" s="12">
         <v>344</v>
       </c>
       <c r="B249" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D249" s="12" t="s">
         <v>1227</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="E249" s="13" t="s">
         <v>1228</v>
       </c>
-      <c r="D249" s="12" t="s">
+      <c r="F249" s="13" t="s">
         <v>1229</v>
       </c>
-      <c r="E249" s="13" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F249" s="13" t="s">
-        <v>1231</v>
-      </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B250" s="16" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B251" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D251" s="16" t="s">
+      <c r="B250" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B252" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D252" s="16" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B253" s="16" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D253" s="16" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B254" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D254" s="16" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B255" s="17" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D255" s="16" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B256" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D256" s="16" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B257" s="16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D257" s="16" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B258" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="D258" s="16" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B259" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D259" s="16" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B260" s="16" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D260" s="16" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B261" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D261" s="16" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B262" s="16" t="s">
-        <v>882</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B263" s="16"/>
-      <c r="D263" s="16"/>
-    </row>
-    <row r="264" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B264" s="16"/>
-      <c r="D264" s="16"/>
-    </row>
-    <row r="265" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B265" s="16"/>
-      <c r="D265" s="16"/>
-    </row>
-    <row r="266" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B266" s="16"/>
-      <c r="D266" s="16"/>
-    </row>
-    <row r="267" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B267" s="16"/>
-      <c r="D267" s="16"/>
-    </row>
-    <row r="268" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B268" s="16"/>
-      <c r="D268" s="16"/>
-    </row>
-    <row r="269" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B269" s="16"/>
-      <c r="D269" s="16"/>
-    </row>
-    <row r="270" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B270" s="16"/>
-      <c r="D270" s="16"/>
-    </row>
-    <row r="271" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B271" s="16"/>
-      <c r="D271" s="16"/>
-    </row>
-    <row r="272" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B272" s="16"/>
-      <c r="D272" s="16"/>
-    </row>
-    <row r="273" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B273" s="16"/>
-      <c r="D273" s="16"/>
-    </row>
-    <row r="274" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B274" s="16"/>
-      <c r="D274" s="16"/>
-    </row>
-    <row r="275" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B275" s="16"/>
-      <c r="D275" s="16"/>
-    </row>
-    <row r="276" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B276" s="16"/>
-      <c r="D276" s="16"/>
-    </row>
-    <row r="277" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B277" s="16"/>
-      <c r="D277" s="16"/>
-    </row>
-    <row r="278" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B278" s="16"/>
-      <c r="D278" s="16"/>
-    </row>
-    <row r="279" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B279" s="16"/>
-      <c r="D279" s="16"/>
-    </row>
-    <row r="280" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B280" s="16"/>
-      <c r="D280" s="16"/>
-    </row>
-    <row r="281" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B281" s="16"/>
-      <c r="D281" s="16"/>
-    </row>
-    <row r="282" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B282" s="16"/>
-      <c r="D282" s="16"/>
-    </row>
-    <row r="283" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B283" s="16"/>
-      <c r="D283" s="16"/>
-    </row>
-    <row r="284" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B284" s="16"/>
-      <c r="D284" s="16"/>
-    </row>
-    <row r="285" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B285" s="16"/>
-      <c r="D285" s="16"/>
-    </row>
-    <row r="286" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B286" s="16"/>
-      <c r="D286" s="16"/>
-    </row>
-    <row r="287" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B287" s="16"/>
-      <c r="D287" s="16"/>
-    </row>
-    <row r="288" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B288" s="16"/>
-      <c r="D288" s="16"/>
-    </row>
-    <row r="289" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B289" s="16"/>
-      <c r="D289" s="16"/>
-    </row>
-    <row r="290" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B290" s="16"/>
-      <c r="D290" s="16"/>
-    </row>
-    <row r="291" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B291" s="16"/>
-      <c r="D291" s="16"/>
-    </row>
-    <row r="292" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B292" s="16"/>
-      <c r="D292" s="16"/>
-    </row>
-    <row r="293" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B293" s="16"/>
-      <c r="D293" s="16"/>
-    </row>
-    <row r="294" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B294" s="16"/>
-      <c r="D294" s="16"/>
-    </row>
-    <row r="295" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B295" s="16"/>
-      <c r="D295" s="16"/>
-    </row>
-    <row r="296" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B296" s="16"/>
-      <c r="D296" s="16"/>
-    </row>
-    <row r="297" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B297" s="16"/>
-      <c r="D297" s="16"/>
-    </row>
-    <row r="298" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B298" s="16"/>
-      <c r="D298" s="16"/>
-    </row>
-    <row r="299" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B299" s="16"/>
-      <c r="D299" s="16"/>
-    </row>
-    <row r="300" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B300" s="16"/>
-      <c r="D300" s="16"/>
-    </row>
-    <row r="301" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B301" s="16"/>
-      <c r="D301" s="16"/>
-    </row>
-    <row r="302" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B302" s="16"/>
-      <c r="D302" s="16"/>
-    </row>
-    <row r="303" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B303" s="16"/>
-      <c r="D303" s="16"/>
-    </row>
-    <row r="304" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B304" s="16"/>
-      <c r="D304" s="16"/>
-    </row>
-    <row r="305" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B305" s="16"/>
-      <c r="D305" s="16"/>
-    </row>
-    <row r="306" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B306" s="16"/>
-      <c r="D306" s="16"/>
-    </row>
-    <row r="307" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B307" s="16"/>
-      <c r="D307" s="16"/>
-    </row>
-    <row r="308" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B308" s="16"/>
-      <c r="D308" s="16"/>
-    </row>
-    <row r="309" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B309" s="16"/>
-      <c r="D309" s="16"/>
-    </row>
-    <row r="310" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B310" s="16"/>
-      <c r="D310" s="16"/>
-    </row>
-    <row r="311" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B311" s="16"/>
-      <c r="D311" s="16"/>
-    </row>
-    <row r="312" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B312" s="16"/>
-      <c r="D312" s="16"/>
-    </row>
-    <row r="313" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B313" s="16"/>
-      <c r="D313" s="16"/>
-    </row>
-    <row r="314" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B314" s="16"/>
-      <c r="D314" s="16"/>
-    </row>
-    <row r="315" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B315" s="16"/>
-      <c r="D315" s="16"/>
-    </row>
-    <row r="316" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B316" s="16"/>
-      <c r="D316" s="16"/>
-    </row>
-    <row r="317" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B317" s="16"/>
-      <c r="D317" s="16"/>
-    </row>
-    <row r="318" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B318" s="16"/>
-      <c r="D318" s="16"/>
-    </row>
-    <row r="319" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B319" s="16"/>
-      <c r="D319" s="16"/>
-    </row>
-    <row r="320" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B320" s="16"/>
-      <c r="D320" s="16"/>
-    </row>
-    <row r="321" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B321" s="16"/>
-      <c r="D321" s="16"/>
-    </row>
-    <row r="322" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B322" s="16"/>
-      <c r="D322" s="16"/>
-    </row>
-    <row r="323" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B323" s="16"/>
-      <c r="D323" s="16"/>
-    </row>
-    <row r="324" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B324" s="16"/>
-      <c r="D324" s="16"/>
-    </row>
-    <row r="325" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B325" s="16"/>
-      <c r="D325" s="16"/>
-    </row>
-    <row r="326" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B326" s="16"/>
-      <c r="D326" s="16"/>
-    </row>
-    <row r="327" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B327" s="16"/>
-      <c r="D327" s="16"/>
-    </row>
-    <row r="328" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B328" s="16"/>
-      <c r="D328" s="16"/>
-    </row>
-    <row r="329" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B329" s="16"/>
-      <c r="D329" s="16"/>
-    </row>
-    <row r="330" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B330" s="16"/>
-      <c r="D330" s="16"/>
-    </row>
-    <row r="331" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B331" s="16"/>
-      <c r="D331" s="16"/>
-    </row>
-    <row r="332" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B332" s="16"/>
-      <c r="D332" s="16"/>
-    </row>
-    <row r="333" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B333" s="16"/>
-      <c r="D333" s="16"/>
-    </row>
-    <row r="334" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B334" s="16"/>
-      <c r="D334" s="16"/>
-    </row>
-    <row r="335" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B335" s="16"/>
-      <c r="D335" s="16"/>
-    </row>
-    <row r="336" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B336" s="16"/>
-      <c r="D336" s="16"/>
-    </row>
-    <row r="337" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B337" s="16"/>
-      <c r="D337" s="16"/>
-    </row>
-    <row r="338" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B338" s="16"/>
-      <c r="D338" s="16"/>
-    </row>
-    <row r="339" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B339" s="16"/>
-      <c r="D339" s="16"/>
-    </row>
-    <row r="340" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B340" s="16"/>
-      <c r="D340" s="16"/>
-    </row>
-    <row r="341" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B341" s="16"/>
-      <c r="D341" s="16"/>
-    </row>
-    <row r="342" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B342" s="16"/>
-      <c r="D342" s="16"/>
-    </row>
-    <row r="343" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B343" s="16"/>
-      <c r="D343" s="16"/>
-    </row>
-    <row r="344" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B344" s="16"/>
-      <c r="D344" s="16"/>
-    </row>
-    <row r="345" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B345" s="16"/>
-      <c r="D345" s="16"/>
-    </row>
-    <row r="346" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B346" s="16"/>
-      <c r="D346" s="16"/>
-    </row>
-    <row r="347" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B347" s="16"/>
-      <c r="D347" s="16"/>
-    </row>
-    <row r="348" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B348" s="16"/>
-      <c r="D348" s="16"/>
-    </row>
-    <row r="349" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B349" s="16"/>
-      <c r="D349" s="16"/>
-    </row>
-    <row r="350" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B350" s="16"/>
-      <c r="D350" s="16"/>
-    </row>
-    <row r="351" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B351" s="16"/>
-      <c r="D351" s="16"/>
-    </row>
-    <row r="352" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B352" s="16"/>
-      <c r="D352" s="16"/>
-    </row>
-    <row r="353" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B353" s="16"/>
-      <c r="D353" s="16"/>
-    </row>
-    <row r="354" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B354" s="16"/>
-      <c r="D354" s="16"/>
-    </row>
-    <row r="355" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B355" s="16"/>
-      <c r="D355" s="16"/>
-    </row>
-    <row r="356" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B356" s="16"/>
-      <c r="D356" s="16"/>
-    </row>
-    <row r="357" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B357" s="16"/>
-      <c r="D357" s="16"/>
-    </row>
-    <row r="358" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B358" s="16"/>
-      <c r="D358" s="16"/>
-    </row>
-    <row r="359" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B359" s="16"/>
-      <c r="D359" s="16"/>
-    </row>
-    <row r="360" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B360" s="16"/>
-      <c r="D360" s="16"/>
-    </row>
-    <row r="361" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B361" s="16"/>
-      <c r="D361" s="16"/>
-    </row>
-    <row r="362" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B362" s="16"/>
-      <c r="D362" s="16"/>
-    </row>
-    <row r="363" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B363" s="16"/>
-      <c r="D363" s="16"/>
-    </row>
-    <row r="364" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B364" s="16"/>
-      <c r="D364" s="16"/>
-    </row>
-    <row r="365" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B365" s="16"/>
-      <c r="D365" s="16"/>
-    </row>
-    <row r="366" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B366" s="16"/>
-      <c r="D366" s="16"/>
-    </row>
-    <row r="367" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B367" s="16"/>
-      <c r="D367" s="16"/>
-    </row>
-    <row r="368" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B368" s="16"/>
-      <c r="D368" s="16"/>
-    </row>
-    <row r="369" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B369" s="16"/>
-      <c r="D369" s="16"/>
-    </row>
-    <row r="370" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B370" s="16"/>
-      <c r="D370" s="16"/>
-    </row>
-    <row r="371" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B371" s="16"/>
-      <c r="D371" s="16"/>
-    </row>
-    <row r="372" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B372" s="16"/>
-      <c r="D372" s="16"/>
-    </row>
-    <row r="373" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B373" s="16"/>
-      <c r="D373" s="16"/>
-    </row>
-    <row r="374" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B374" s="16"/>
-      <c r="D374" s="16"/>
-    </row>
-    <row r="375" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B375" s="16"/>
-      <c r="D375" s="16"/>
-    </row>
-    <row r="376" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B376" s="16"/>
-      <c r="D376" s="16"/>
-    </row>
-    <row r="377" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B377" s="16"/>
-      <c r="D377" s="16"/>
-    </row>
-    <row r="378" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B378" s="16"/>
-      <c r="D378" s="16"/>
-    </row>
-    <row r="379" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B379" s="16"/>
-      <c r="D379" s="16"/>
-    </row>
-    <row r="380" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B380" s="16"/>
-      <c r="D380" s="16"/>
-    </row>
-    <row r="381" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B381" s="16"/>
-      <c r="D381" s="16"/>
-    </row>
-    <row r="382" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B382" s="16"/>
-      <c r="D382" s="16"/>
-    </row>
-    <row r="383" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B383" s="16"/>
-      <c r="D383" s="16"/>
-    </row>
-    <row r="384" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B384" s="16"/>
-      <c r="D384" s="16"/>
-    </row>
-    <row r="385" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B385" s="16"/>
-      <c r="D385" s="16"/>
-    </row>
-    <row r="386" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B386" s="16"/>
-      <c r="D386" s="16"/>
-    </row>
-    <row r="387" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B387" s="16"/>
-      <c r="D387" s="16"/>
-    </row>
-    <row r="388" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B388" s="16"/>
-      <c r="D388" s="16"/>
-    </row>
-    <row r="389" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B389" s="16"/>
-      <c r="D389" s="16"/>
-    </row>
-    <row r="390" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B390" s="16"/>
-      <c r="D390" s="16"/>
-    </row>
-    <row r="391" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B391" s="16"/>
-      <c r="D391" s="16"/>
-    </row>
-    <row r="392" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B392" s="16"/>
-      <c r="D392" s="16"/>
-    </row>
-    <row r="393" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B393" s="16"/>
-      <c r="D393" s="16"/>
-    </row>
-    <row r="394" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B394" s="16"/>
-      <c r="D394" s="16"/>
-    </row>
-    <row r="395" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B395" s="16"/>
-      <c r="D395" s="16"/>
-    </row>
-    <row r="396" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B396" s="16"/>
-      <c r="D396" s="16"/>
-    </row>
-    <row r="397" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B397" s="16"/>
-      <c r="D397" s="16"/>
-    </row>
-    <row r="398" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B398" s="16"/>
-      <c r="D398" s="16"/>
-    </row>
-    <row r="399" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B399" s="16"/>
-      <c r="D399" s="16"/>
-    </row>
-    <row r="400" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B400" s="16"/>
-      <c r="D400" s="16"/>
-    </row>
-    <row r="401" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B401" s="16"/>
-      <c r="D401" s="16"/>
-    </row>
-    <row r="402" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B402" s="16"/>
-      <c r="D402" s="16"/>
-    </row>
-    <row r="403" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B403" s="16"/>
-      <c r="D403" s="16"/>
-    </row>
-    <row r="404" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B404" s="16"/>
-      <c r="D404" s="16"/>
-    </row>
-    <row r="405" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B405" s="16"/>
-      <c r="D405" s="16"/>
-    </row>
-    <row r="406" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B406" s="16"/>
-      <c r="D406" s="16"/>
-    </row>
-    <row r="407" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B407" s="16"/>
-      <c r="D407" s="16"/>
-    </row>
-    <row r="408" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B408" s="16"/>
-      <c r="D408" s="16"/>
-    </row>
-    <row r="409" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B409" s="16"/>
-      <c r="D409" s="16"/>
-    </row>
-    <row r="410" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B410" s="16"/>
-      <c r="D410" s="16"/>
-    </row>
-    <row r="411" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B411" s="16"/>
-      <c r="D411" s="16"/>
-    </row>
-    <row r="412" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B412" s="16"/>
-      <c r="D412" s="16"/>
-    </row>
-    <row r="413" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B413" s="16"/>
-      <c r="D413" s="16"/>
-    </row>
-    <row r="414" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B414" s="16"/>
-      <c r="D414" s="16"/>
-    </row>
-    <row r="415" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B415" s="16"/>
-      <c r="D415" s="16"/>
-    </row>
-    <row r="416" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B416" s="16"/>
-      <c r="D416" s="16"/>
-    </row>
-    <row r="417" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B417" s="16"/>
-      <c r="D417" s="16"/>
-    </row>
-    <row r="418" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B418" s="16"/>
-      <c r="D418" s="16"/>
-    </row>
-    <row r="419" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B419" s="16"/>
-      <c r="D419" s="16"/>
-    </row>
-    <row r="420" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B420" s="16"/>
-      <c r="D420" s="16"/>
-    </row>
-    <row r="421" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B421" s="16"/>
-      <c r="D421" s="16"/>
-    </row>
-    <row r="422" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B422" s="16"/>
-      <c r="D422" s="16"/>
-    </row>
-    <row r="423" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B423" s="16"/>
-      <c r="D423" s="16"/>
-    </row>
-    <row r="424" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B424" s="16"/>
-      <c r="D424" s="16"/>
-    </row>
-    <row r="425" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B425" s="16"/>
-      <c r="D425" s="16"/>
-    </row>
-    <row r="426" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B426" s="16"/>
-      <c r="D426" s="16"/>
-    </row>
-    <row r="427" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B427" s="16"/>
-      <c r="D427" s="16"/>
-    </row>
-    <row r="428" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B428" s="16"/>
-      <c r="D428" s="16"/>
-    </row>
-    <row r="429" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B429" s="16"/>
-      <c r="D429" s="16"/>
-    </row>
-    <row r="430" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B430" s="16"/>
-      <c r="D430" s="16"/>
-    </row>
-    <row r="431" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B431" s="16"/>
-      <c r="D431" s="16"/>
-    </row>
-    <row r="432" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B432" s="16"/>
-      <c r="D432" s="16"/>
-    </row>
-    <row r="433" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B433" s="16"/>
-      <c r="D433" s="16"/>
-    </row>
-    <row r="434" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B434" s="16"/>
-      <c r="D434" s="16"/>
-    </row>
-    <row r="435" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B435" s="16"/>
-      <c r="D435" s="16"/>
-    </row>
-    <row r="436" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B436" s="16"/>
-      <c r="D436" s="16"/>
-    </row>
-    <row r="437" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B437" s="16"/>
-      <c r="D437" s="16"/>
-    </row>
-    <row r="438" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B438" s="16"/>
-      <c r="D438" s="16"/>
-    </row>
-    <row r="439" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B439" s="16"/>
-      <c r="D439" s="16"/>
-    </row>
-    <row r="440" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B440" s="16"/>
-      <c r="D440" s="16"/>
-    </row>
-    <row r="441" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B441" s="16"/>
-      <c r="D441" s="16"/>
-    </row>
-    <row r="442" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B442" s="16"/>
-      <c r="D442" s="16"/>
-    </row>
-    <row r="443" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B443" s="16"/>
-      <c r="D443" s="16"/>
-    </row>
-    <row r="444" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B444" s="16"/>
-      <c r="D444" s="16"/>
-    </row>
-    <row r="445" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B445" s="16"/>
-      <c r="D445" s="16"/>
-    </row>
-    <row r="446" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B446" s="16"/>
-      <c r="D446" s="16"/>
-    </row>
-    <row r="447" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B447" s="16"/>
-      <c r="D447" s="16"/>
-    </row>
-    <row r="448" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B448" s="16"/>
-      <c r="D448" s="16"/>
-    </row>
-    <row r="449" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B449" s="16"/>
-      <c r="D449" s="16"/>
-    </row>
-    <row r="450" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B450" s="16"/>
-      <c r="D450" s="16"/>
-    </row>
-    <row r="451" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B451" s="16"/>
-      <c r="D451" s="16"/>
-    </row>
-    <row r="452" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B452" s="16"/>
-      <c r="D452" s="16"/>
-    </row>
-    <row r="453" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B453" s="16"/>
-      <c r="D453" s="16"/>
-    </row>
-    <row r="454" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B454" s="16"/>
-      <c r="D454" s="16"/>
-    </row>
-    <row r="455" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B455" s="16"/>
-      <c r="D455" s="16"/>
-    </row>
-    <row r="456" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B456" s="16"/>
-      <c r="D456" s="16"/>
-    </row>
-    <row r="457" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B457" s="16"/>
-      <c r="D457" s="16"/>
-    </row>
-    <row r="458" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B458" s="16"/>
-      <c r="D458" s="16"/>
-    </row>
-    <row r="459" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B459" s="16"/>
-      <c r="D459" s="16"/>
-    </row>
-    <row r="460" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B460" s="16"/>
-      <c r="D460" s="16"/>
-    </row>
-    <row r="461" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B461" s="16"/>
-      <c r="D461" s="16"/>
-    </row>
-    <row r="462" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B462" s="16"/>
-      <c r="D462" s="16"/>
-    </row>
-    <row r="463" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B463" s="16"/>
-      <c r="D463" s="16"/>
-    </row>
-    <row r="464" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B464" s="16"/>
-      <c r="D464" s="16"/>
-    </row>
-    <row r="465" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B465" s="16"/>
-      <c r="D465" s="16"/>
-    </row>
-    <row r="466" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B466" s="16"/>
-      <c r="D466" s="16"/>
-    </row>
-    <row r="467" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B467" s="16"/>
-      <c r="D467" s="16"/>
-    </row>
-    <row r="468" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B468" s="16"/>
-      <c r="D468" s="16"/>
-    </row>
-    <row r="469" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B469" s="16"/>
-      <c r="D469" s="16"/>
-    </row>
-    <row r="470" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B470" s="16"/>
-      <c r="D470" s="16"/>
-    </row>
-    <row r="471" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B471" s="16"/>
-      <c r="D471" s="16"/>
-    </row>
-    <row r="472" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B472" s="16"/>
-      <c r="D472" s="16"/>
-    </row>
-    <row r="473" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B473" s="16"/>
-      <c r="D473" s="16"/>
-    </row>
-    <row r="474" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B474" s="16"/>
-      <c r="D474" s="16"/>
-    </row>
-    <row r="475" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B475" s="16"/>
-      <c r="D475" s="16"/>
-    </row>
-    <row r="476" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B476" s="16"/>
-      <c r="D476" s="16"/>
-    </row>
-    <row r="477" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B477" s="16"/>
-      <c r="D477" s="16"/>
-    </row>
-    <row r="478" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B478" s="16"/>
-      <c r="D478" s="16"/>
-    </row>
-    <row r="479" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B479" s="16"/>
-      <c r="D479" s="16"/>
-    </row>
-    <row r="480" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B480" s="16"/>
-      <c r="D480" s="16"/>
-    </row>
-    <row r="481" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B481" s="16"/>
-      <c r="D481" s="16"/>
-    </row>
-    <row r="482" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B482" s="16"/>
-      <c r="D482" s="16"/>
-    </row>
-    <row r="483" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B483" s="16"/>
-      <c r="D483" s="16"/>
-    </row>
-    <row r="484" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B484" s="16"/>
-      <c r="D484" s="16"/>
-    </row>
-    <row r="485" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B485" s="16"/>
-      <c r="D485" s="16"/>
-    </row>
-    <row r="486" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B486" s="16"/>
-      <c r="D486" s="16"/>
-    </row>
-    <row r="487" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B487" s="16"/>
-      <c r="D487" s="16"/>
-    </row>
-    <row r="488" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B488" s="16"/>
-      <c r="D488" s="16"/>
-    </row>
-    <row r="489" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B489" s="16"/>
-      <c r="D489" s="16"/>
-    </row>
-    <row r="490" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B490" s="16"/>
-      <c r="D490" s="16"/>
-    </row>
-    <row r="491" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B491" s="16"/>
-      <c r="D491" s="16"/>
-    </row>
-    <row r="492" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B492" s="16"/>
-      <c r="D492" s="16"/>
-    </row>
-    <row r="493" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B493" s="16"/>
-      <c r="D493" s="16"/>
-    </row>
-    <row r="494" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B494" s="16"/>
-      <c r="D494" s="16"/>
-    </row>
-    <row r="495" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B495" s="16"/>
-      <c r="D495" s="16"/>
-    </row>
-    <row r="496" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B496" s="16"/>
-      <c r="D496" s="16"/>
-    </row>
-    <row r="497" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B497" s="16"/>
-      <c r="D497" s="16"/>
-    </row>
-    <row r="498" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B498" s="16"/>
-      <c r="D498" s="16"/>
-    </row>
-    <row r="499" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B499" s="16"/>
-      <c r="D499" s="16"/>
-    </row>
-    <row r="500" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B500" s="16"/>
-      <c r="D500" s="16"/>
-    </row>
-    <row r="501" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B501" s="16"/>
-      <c r="D501" s="16"/>
-    </row>
-    <row r="502" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B502" s="16"/>
-      <c r="D502" s="16"/>
-    </row>
-    <row r="503" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B503" s="16"/>
-      <c r="D503" s="16"/>
-    </row>
-    <row r="504" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B504" s="16"/>
-      <c r="D504" s="16"/>
-    </row>
-    <row r="505" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B505" s="16"/>
-      <c r="D505" s="16"/>
-    </row>
-    <row r="506" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B506" s="16"/>
-      <c r="D506" s="16"/>
-    </row>
-    <row r="507" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B507" s="16"/>
-      <c r="D507" s="16"/>
-    </row>
-    <row r="508" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B508" s="16"/>
-      <c r="D508" s="16"/>
-    </row>
-    <row r="509" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B509" s="16"/>
-      <c r="D509" s="16"/>
-    </row>
-    <row r="510" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B510" s="16"/>
-      <c r="D510" s="16"/>
-    </row>
-    <row r="511" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B511" s="16"/>
-      <c r="D511" s="16"/>
-    </row>
-    <row r="512" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B512" s="16"/>
-      <c r="D512" s="16"/>
-    </row>
-    <row r="513" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B513" s="16"/>
-      <c r="D513" s="16"/>
-    </row>
-    <row r="514" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B514" s="16"/>
-      <c r="D514" s="16"/>
-    </row>
-    <row r="515" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B515" s="16"/>
-      <c r="D515" s="16"/>
-    </row>
-    <row r="516" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B516" s="16"/>
-      <c r="D516" s="16"/>
-    </row>
-    <row r="517" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B517" s="16"/>
-      <c r="D517" s="16"/>
-    </row>
-    <row r="518" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B518" s="16"/>
-      <c r="D518" s="16"/>
-    </row>
-    <row r="519" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B519" s="16"/>
-      <c r="D519" s="16"/>
-    </row>
-    <row r="520" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B520" s="16"/>
-      <c r="D520" s="16"/>
-    </row>
-    <row r="521" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B521" s="16"/>
-      <c r="D521" s="16"/>
-    </row>
-    <row r="522" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B522" s="16"/>
-      <c r="D522" s="16"/>
-    </row>
-    <row r="523" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B523" s="16"/>
-      <c r="D523" s="16"/>
-    </row>
-    <row r="524" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B524" s="16"/>
-      <c r="D524" s="16"/>
-    </row>
-    <row r="525" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B525" s="16"/>
-      <c r="D525" s="16"/>
-    </row>
-    <row r="526" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B526" s="16"/>
-      <c r="D526" s="16"/>
-    </row>
-    <row r="527" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B527" s="16"/>
-      <c r="D527" s="16"/>
-    </row>
-    <row r="528" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B528" s="16"/>
-      <c r="D528" s="16"/>
-    </row>
-    <row r="529" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B529" s="16"/>
-      <c r="D529" s="16"/>
-    </row>
-    <row r="530" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B530" s="16"/>
-      <c r="D530" s="16"/>
-    </row>
-    <row r="531" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B531" s="16"/>
-      <c r="D531" s="16"/>
-    </row>
-    <row r="532" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B532" s="16"/>
-      <c r="D532" s="16"/>
-    </row>
-    <row r="533" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B533" s="16"/>
-      <c r="D533" s="16"/>
-    </row>
-    <row r="534" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B534" s="16"/>
-      <c r="D534" s="16"/>
-    </row>
-    <row r="535" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B535" s="16"/>
-      <c r="D535" s="16"/>
-    </row>
-    <row r="536" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B536" s="16"/>
-      <c r="D536" s="16"/>
-    </row>
-    <row r="537" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B537" s="16"/>
-      <c r="D537" s="16"/>
-    </row>
-    <row r="538" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B538" s="16"/>
-      <c r="D538" s="16"/>
-    </row>
-    <row r="539" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B539" s="16"/>
-      <c r="D539" s="16"/>
-    </row>
-    <row r="540" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B540" s="16"/>
-      <c r="D540" s="16"/>
-    </row>
-    <row r="541" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B541" s="16"/>
-      <c r="D541" s="16"/>
-    </row>
-    <row r="542" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B542" s="16"/>
-      <c r="D542" s="16"/>
-    </row>
-    <row r="543" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B543" s="16"/>
-      <c r="D543" s="16"/>
-    </row>
-    <row r="544" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B544" s="16"/>
-      <c r="D544" s="16"/>
-    </row>
-    <row r="545" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B545" s="16"/>
-      <c r="D545" s="16"/>
-    </row>
-    <row r="546" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B546" s="16"/>
-      <c r="D546" s="16"/>
-    </row>
-    <row r="547" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B547" s="16"/>
-      <c r="D547" s="16"/>
-    </row>
-    <row r="548" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B548" s="16"/>
-      <c r="D548" s="16"/>
-    </row>
-    <row r="549" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B549" s="16"/>
-      <c r="D549" s="16"/>
-    </row>
-    <row r="550" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B550" s="16"/>
-      <c r="D550" s="16"/>
-    </row>
-    <row r="551" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B551" s="16"/>
-      <c r="D551" s="16"/>
-    </row>
-    <row r="552" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B552" s="16"/>
-      <c r="D552" s="16"/>
-    </row>
-    <row r="553" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B553" s="16"/>
-      <c r="D553" s="16"/>
-    </row>
-    <row r="554" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B554" s="16"/>
-      <c r="D554" s="16"/>
-    </row>
-    <row r="555" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B555" s="16"/>
-      <c r="D555" s="16"/>
-    </row>
-    <row r="556" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B556" s="16"/>
-      <c r="D556" s="16"/>
-    </row>
-    <row r="557" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B557" s="16"/>
-      <c r="D557" s="16"/>
-    </row>
-    <row r="558" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B558" s="16"/>
-      <c r="D558" s="16"/>
-    </row>
-    <row r="559" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B559" s="16"/>
-      <c r="D559" s="16"/>
-    </row>
-    <row r="560" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B560" s="16"/>
-      <c r="D560" s="16"/>
-    </row>
-    <row r="561" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B561" s="16"/>
-      <c r="D561" s="16"/>
-    </row>
-    <row r="562" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B562" s="16"/>
-      <c r="D562" s="16"/>
-    </row>
-    <row r="563" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B563" s="16"/>
-      <c r="D563" s="16"/>
-    </row>
-    <row r="564" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B564" s="16"/>
-      <c r="D564" s="16"/>
-    </row>
-    <row r="565" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B565" s="16"/>
-      <c r="D565" s="16"/>
-    </row>
-    <row r="566" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B566" s="16"/>
-      <c r="D566" s="16"/>
-    </row>
-    <row r="567" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B567" s="16"/>
-      <c r="D567" s="16"/>
-    </row>
-    <row r="568" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B568" s="16"/>
-      <c r="D568" s="16"/>
-    </row>
-    <row r="569" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B569" s="16"/>
-      <c r="D569" s="16"/>
-    </row>
-    <row r="570" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B570" s="16"/>
-      <c r="D570" s="16"/>
-    </row>
-    <row r="571" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B571" s="16"/>
-      <c r="D571" s="16"/>
-    </row>
-    <row r="572" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B572" s="16"/>
-      <c r="D572" s="16"/>
-    </row>
-    <row r="573" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B573" s="16"/>
-      <c r="D573" s="16"/>
-    </row>
-    <row r="574" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B574" s="16"/>
-      <c r="D574" s="16"/>
-    </row>
-    <row r="575" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B575" s="16"/>
-      <c r="D575" s="16"/>
-    </row>
-    <row r="576" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B576" s="16"/>
-      <c r="D576" s="16"/>
-    </row>
-    <row r="577" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B577" s="16"/>
-      <c r="D577" s="16"/>
-    </row>
-    <row r="578" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B578" s="16"/>
-      <c r="D578" s="16"/>
-    </row>
-    <row r="579" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B579" s="16"/>
-      <c r="D579" s="16"/>
-    </row>
-    <row r="580" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B580" s="16"/>
-      <c r="D580" s="16"/>
-    </row>
-    <row r="581" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B581" s="16"/>
-      <c r="D581" s="16"/>
-    </row>
-    <row r="582" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B582" s="16"/>
-      <c r="D582" s="16"/>
-    </row>
-    <row r="583" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B583" s="16"/>
-      <c r="D583" s="16"/>
-    </row>
-    <row r="584" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B584" s="16"/>
-      <c r="D584" s="16"/>
-    </row>
-    <row r="585" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B585" s="16"/>
-      <c r="D585" s="16"/>
-    </row>
-    <row r="586" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B586" s="16"/>
-      <c r="D586" s="16"/>
-    </row>
-    <row r="587" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B587" s="16"/>
-      <c r="D587" s="16"/>
-    </row>
-    <row r="588" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B588" s="16"/>
-      <c r="D588" s="16"/>
-    </row>
-    <row r="589" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B589" s="16"/>
-      <c r="D589" s="16"/>
-    </row>
-    <row r="590" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B590" s="16"/>
-      <c r="D590" s="16"/>
-    </row>
-    <row r="591" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B591" s="16"/>
-      <c r="D591" s="16"/>
-    </row>
-    <row r="592" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B592" s="16"/>
-      <c r="D592" s="16"/>
-    </row>
-    <row r="593" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B593" s="16"/>
-      <c r="D593" s="16"/>
-    </row>
-    <row r="594" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B594" s="16"/>
-      <c r="D594" s="16"/>
-    </row>
-    <row r="595" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B595" s="16"/>
-      <c r="D595" s="16"/>
-    </row>
-    <row r="596" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B596" s="16"/>
-      <c r="D596" s="16"/>
-    </row>
-    <row r="597" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B597" s="16"/>
-      <c r="D597" s="16"/>
-    </row>
-    <row r="598" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B598" s="16"/>
-      <c r="D598" s="16"/>
-    </row>
-    <row r="599" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B599" s="16"/>
-      <c r="D599" s="16"/>
-    </row>
-    <row r="600" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B600" s="16"/>
-      <c r="D600" s="16"/>
-    </row>
-    <row r="601" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B601" s="16"/>
-      <c r="D601" s="16"/>
-    </row>
-    <row r="602" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B602" s="16"/>
-      <c r="D602" s="16"/>
-    </row>
-    <row r="603" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B603" s="16"/>
-      <c r="D603" s="16"/>
-    </row>
-    <row r="604" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B604" s="16"/>
-      <c r="D604" s="16"/>
-    </row>
-    <row r="605" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B605" s="16"/>
-      <c r="D605" s="16"/>
-    </row>
-    <row r="606" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B606" s="16"/>
-      <c r="D606" s="16"/>
-    </row>
-    <row r="607" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B607" s="16"/>
-      <c r="D607" s="16"/>
-    </row>
-    <row r="608" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B608" s="16"/>
-      <c r="D608" s="16"/>
-    </row>
-    <row r="609" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B609" s="16"/>
-      <c r="D609" s="16"/>
-    </row>
-    <row r="610" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B610" s="16"/>
-      <c r="D610" s="16"/>
-    </row>
-    <row r="611" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B611" s="16"/>
-      <c r="D611" s="16"/>
-    </row>
-    <row r="612" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B612" s="16"/>
-      <c r="D612" s="16"/>
-    </row>
-    <row r="613" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B613" s="16"/>
-      <c r="D613" s="16"/>
-    </row>
-    <row r="614" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B614" s="16"/>
-      <c r="D614" s="16"/>
-    </row>
-    <row r="615" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B615" s="16"/>
-      <c r="D615" s="16"/>
-    </row>
-    <row r="616" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B616" s="16"/>
-      <c r="D616" s="16"/>
-    </row>
-    <row r="617" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B617" s="16"/>
-      <c r="D617" s="16"/>
-    </row>
-    <row r="618" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B618" s="16"/>
-      <c r="D618" s="16"/>
-    </row>
-    <row r="619" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B619" s="16"/>
-      <c r="D619" s="16"/>
-    </row>
-    <row r="620" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B620" s="16"/>
-      <c r="D620" s="16"/>
-    </row>
-    <row r="621" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B621" s="16"/>
-      <c r="D621" s="16"/>
-    </row>
-    <row r="622" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B622" s="16"/>
-      <c r="D622" s="16"/>
-    </row>
-    <row r="623" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B623" s="16"/>
-      <c r="D623" s="16"/>
-    </row>
-    <row r="624" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B624" s="16"/>
-      <c r="D624" s="16"/>
-    </row>
-    <row r="625" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B625" s="16"/>
-      <c r="D625" s="16"/>
-    </row>
-    <row r="626" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B626" s="16"/>
-      <c r="D626" s="16"/>
-    </row>
-    <row r="627" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B627" s="16"/>
-      <c r="D627" s="16"/>
-    </row>
-    <row r="628" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B628" s="16"/>
-      <c r="D628" s="16"/>
-    </row>
-    <row r="629" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B629" s="16"/>
-      <c r="D629" s="16"/>
-    </row>
-    <row r="630" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B630" s="16"/>
-      <c r="D630" s="16"/>
-    </row>
-    <row r="631" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B631" s="16"/>
-      <c r="D631" s="16"/>
-    </row>
-    <row r="632" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B632" s="16"/>
-      <c r="D632" s="16"/>
-    </row>
-    <row r="633" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B633" s="16"/>
-      <c r="D633" s="16"/>
-    </row>
-    <row r="634" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B634" s="16"/>
-      <c r="D634" s="16"/>
-    </row>
-    <row r="635" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B635" s="16"/>
-      <c r="D635" s="16"/>
-    </row>
-    <row r="636" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B636" s="16"/>
-      <c r="D636" s="16"/>
-    </row>
-    <row r="637" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B637" s="16"/>
-      <c r="D637" s="16"/>
-    </row>
-    <row r="638" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B638" s="16"/>
-      <c r="D638" s="16"/>
-    </row>
-    <row r="639" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B639" s="16"/>
-      <c r="D639" s="16"/>
-    </row>
-    <row r="640" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B640" s="16"/>
-      <c r="D640" s="16"/>
-    </row>
-    <row r="641" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B641" s="16"/>
-      <c r="D641" s="16"/>
-    </row>
-    <row r="642" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B642" s="16"/>
-      <c r="D642" s="16"/>
-    </row>
-    <row r="643" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B643" s="16"/>
-      <c r="D643" s="16"/>
-    </row>
-    <row r="644" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B644" s="16"/>
-      <c r="D644" s="16"/>
-    </row>
-    <row r="645" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B645" s="16"/>
-      <c r="D645" s="16"/>
-    </row>
-    <row r="646" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B646" s="16"/>
-      <c r="D646" s="16"/>
-    </row>
-    <row r="647" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B647" s="16"/>
-      <c r="D647" s="16"/>
-    </row>
-    <row r="648" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B648" s="16"/>
-      <c r="D648" s="16"/>
-    </row>
-    <row r="649" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B649" s="16"/>
-      <c r="D649" s="16"/>
-    </row>
-    <row r="650" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B650" s="16"/>
-      <c r="D650" s="16"/>
-    </row>
-    <row r="651" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B651" s="16"/>
-      <c r="D651" s="16"/>
-    </row>
-    <row r="652" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B652" s="16"/>
-      <c r="D652" s="16"/>
-    </row>
-    <row r="653" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B653" s="16"/>
-      <c r="D653" s="16"/>
-    </row>
-    <row r="654" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B654" s="16"/>
-      <c r="D654" s="16"/>
-    </row>
-    <row r="655" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B655" s="16"/>
-      <c r="D655" s="16"/>
-    </row>
-    <row r="656" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B656" s="16"/>
-      <c r="D656" s="16"/>
-    </row>
-    <row r="657" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B657" s="16"/>
-      <c r="D657" s="16"/>
-    </row>
-    <row r="658" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B658" s="16"/>
-      <c r="D658" s="16"/>
-    </row>
-    <row r="659" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B659" s="16"/>
-      <c r="D659" s="16"/>
-    </row>
-    <row r="660" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B660" s="16"/>
-      <c r="D660" s="16"/>
-    </row>
-    <row r="661" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B661" s="16"/>
-      <c r="D661" s="16"/>
-    </row>
-    <row r="662" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B662" s="16"/>
-      <c r="D662" s="16"/>
-    </row>
-    <row r="663" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B663" s="16"/>
-      <c r="D663" s="16"/>
-    </row>
-    <row r="664" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B664" s="16"/>
-      <c r="D664" s="16"/>
-    </row>
-    <row r="665" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B665" s="16"/>
-      <c r="D665" s="16"/>
-    </row>
-    <row r="666" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B666" s="16"/>
-      <c r="D666" s="16"/>
-    </row>
-    <row r="667" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B667" s="16"/>
-      <c r="D667" s="16"/>
-    </row>
-    <row r="668" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B668" s="16"/>
-      <c r="D668" s="16"/>
-    </row>
-    <row r="669" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B669" s="16"/>
-      <c r="D669" s="16"/>
-    </row>
-    <row r="670" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B670" s="16"/>
-      <c r="D670" s="16"/>
-    </row>
-    <row r="671" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B671" s="16"/>
-      <c r="D671" s="16"/>
-    </row>
-    <row r="672" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B672" s="16"/>
-      <c r="D672" s="16"/>
-    </row>
-    <row r="673" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B673" s="16"/>
-      <c r="D673" s="16"/>
-    </row>
-    <row r="674" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B674" s="16"/>
-      <c r="D674" s="16"/>
-    </row>
-    <row r="675" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B675" s="16"/>
-      <c r="D675" s="16"/>
-    </row>
-    <row r="676" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B676" s="16"/>
-      <c r="D676" s="16"/>
-    </row>
-    <row r="677" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B677" s="16"/>
-      <c r="D677" s="16"/>
-    </row>
-    <row r="678" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B678" s="16"/>
-      <c r="D678" s="16"/>
-    </row>
-    <row r="679" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B679" s="16"/>
-      <c r="D679" s="16"/>
-    </row>
-    <row r="680" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B680" s="16"/>
-      <c r="D680" s="16"/>
-    </row>
-    <row r="681" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B681" s="16"/>
-      <c r="D681" s="16"/>
-    </row>
-    <row r="682" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B682" s="16"/>
-      <c r="D682" s="16"/>
-    </row>
-    <row r="683" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B683" s="16"/>
-      <c r="D683" s="16"/>
-    </row>
-    <row r="684" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B684" s="16"/>
-      <c r="D684" s="16"/>
-    </row>
-    <row r="685" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B685" s="16"/>
-      <c r="D685" s="16"/>
-    </row>
-    <row r="686" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B686" s="16"/>
-      <c r="D686" s="16"/>
-    </row>
-    <row r="687" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B687" s="16"/>
-      <c r="D687" s="16"/>
-    </row>
-    <row r="688" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B688" s="16"/>
-      <c r="D688" s="16"/>
-    </row>
-    <row r="689" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B689" s="16"/>
-      <c r="D689" s="16"/>
-    </row>
-    <row r="690" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B690" s="16"/>
-      <c r="D690" s="16"/>
-    </row>
-    <row r="691" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B691" s="16"/>
-      <c r="D691" s="16"/>
-    </row>
-    <row r="692" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B692" s="16"/>
-      <c r="D692" s="16"/>
-    </row>
-    <row r="693" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B693" s="16"/>
-      <c r="D693" s="16"/>
-    </row>
-    <row r="694" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B694" s="16"/>
-      <c r="D694" s="16"/>
-    </row>
-    <row r="695" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B695" s="16"/>
-      <c r="D695" s="16"/>
-    </row>
-    <row r="696" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B696" s="16"/>
-      <c r="D696" s="16"/>
-    </row>
-    <row r="697" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B697" s="16"/>
-      <c r="D697" s="16"/>
-    </row>
-    <row r="698" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B698" s="16"/>
-      <c r="D698" s="16"/>
-    </row>
-    <row r="699" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B699" s="16"/>
-      <c r="D699" s="16"/>
-    </row>
-    <row r="700" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B700" s="16"/>
-      <c r="D700" s="16"/>
-    </row>
-    <row r="701" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B701" s="16"/>
-      <c r="D701" s="16"/>
-    </row>
-    <row r="702" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B702" s="16"/>
-      <c r="D702" s="16"/>
-    </row>
-    <row r="703" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B703" s="16"/>
-      <c r="D703" s="16"/>
-    </row>
-    <row r="704" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B704" s="16"/>
-      <c r="D704" s="16"/>
-    </row>
-    <row r="705" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B705" s="16"/>
-      <c r="D705" s="16"/>
-    </row>
-    <row r="706" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B706" s="16"/>
-      <c r="D706" s="16"/>
-    </row>
-    <row r="707" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B707" s="16"/>
-      <c r="D707" s="16"/>
-    </row>
-    <row r="708" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B708" s="16"/>
-      <c r="D708" s="16"/>
-    </row>
-    <row r="709" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B709" s="16"/>
-      <c r="D709" s="16"/>
-    </row>
-    <row r="710" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B710" s="16"/>
-      <c r="D710" s="16"/>
-    </row>
-    <row r="711" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B711" s="16"/>
-      <c r="D711" s="16"/>
-    </row>
-    <row r="712" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B712" s="16"/>
-      <c r="D712" s="16"/>
-    </row>
-    <row r="713" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B713" s="16"/>
-      <c r="D713" s="16"/>
-    </row>
-    <row r="714" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B714" s="16"/>
-      <c r="D714" s="16"/>
-    </row>
-    <row r="715" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B715" s="16"/>
-      <c r="D715" s="16"/>
-    </row>
-    <row r="716" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B716" s="16"/>
-      <c r="D716" s="16"/>
-    </row>
-    <row r="717" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B717" s="16"/>
-      <c r="D717" s="16"/>
-    </row>
-    <row r="718" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B718" s="16"/>
-      <c r="D718" s="16"/>
-    </row>
-    <row r="719" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B719" s="16"/>
-      <c r="D719" s="16"/>
-    </row>
-    <row r="720" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B720" s="16"/>
-      <c r="D720" s="16"/>
-    </row>
-    <row r="721" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B721" s="16"/>
-      <c r="D721" s="16"/>
-    </row>
-    <row r="722" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B722" s="16"/>
-      <c r="D722" s="16"/>
-    </row>
-    <row r="723" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B723" s="16"/>
-      <c r="D723" s="16"/>
-    </row>
-    <row r="724" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B724" s="16"/>
-      <c r="D724" s="16"/>
-    </row>
-    <row r="725" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B725" s="16"/>
-      <c r="D725" s="16"/>
-    </row>
-    <row r="726" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B726" s="16"/>
-      <c r="D726" s="16"/>
-    </row>
-    <row r="727" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B727" s="16"/>
-      <c r="D727" s="16"/>
-    </row>
-    <row r="728" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B728" s="16"/>
-      <c r="D728" s="16"/>
-    </row>
-    <row r="729" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B729" s="16"/>
-      <c r="D729" s="16"/>
-    </row>
-    <row r="730" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B730" s="16"/>
-      <c r="D730" s="16"/>
-    </row>
-    <row r="731" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B731" s="16"/>
-      <c r="D731" s="16"/>
-    </row>
-    <row r="732" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B732" s="16"/>
-      <c r="D732" s="16"/>
-    </row>
-    <row r="733" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B733" s="16"/>
-      <c r="D733" s="16"/>
-    </row>
-    <row r="734" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B734" s="16"/>
-      <c r="D734" s="16"/>
-    </row>
-    <row r="735" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B735" s="16"/>
-      <c r="D735" s="16"/>
-    </row>
-    <row r="736" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B736" s="16"/>
-      <c r="D736" s="16"/>
-    </row>
-    <row r="737" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B737" s="16"/>
-      <c r="D737" s="16"/>
-    </row>
-    <row r="738" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B738" s="16"/>
-      <c r="D738" s="16"/>
-    </row>
-    <row r="739" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B739" s="16"/>
-      <c r="D739" s="16"/>
-    </row>
-    <row r="740" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B740" s="16"/>
-      <c r="D740" s="16"/>
-    </row>
-    <row r="741" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B741" s="16"/>
-      <c r="D741" s="16"/>
-    </row>
-    <row r="742" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B742" s="16"/>
-      <c r="D742" s="16"/>
-    </row>
-    <row r="743" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B743" s="16"/>
-      <c r="D743" s="16"/>
-    </row>
-    <row r="744" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B744" s="16"/>
-      <c r="D744" s="16"/>
-    </row>
-    <row r="745" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B745" s="16"/>
-      <c r="D745" s="16"/>
-    </row>
-    <row r="746" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B746" s="16"/>
-      <c r="D746" s="16"/>
-    </row>
-    <row r="747" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B747" s="16"/>
-      <c r="D747" s="16"/>
-    </row>
-    <row r="748" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B748" s="16"/>
-      <c r="D748" s="16"/>
-    </row>
-    <row r="749" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B749" s="16"/>
-      <c r="D749" s="16"/>
-    </row>
-    <row r="750" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B750" s="16"/>
-      <c r="D750" s="16"/>
-    </row>
-    <row r="751" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B751" s="16"/>
-      <c r="D751" s="16"/>
-    </row>
-    <row r="752" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B752" s="16"/>
-      <c r="D752" s="16"/>
-    </row>
-    <row r="753" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B753" s="16"/>
-      <c r="D753" s="16"/>
-    </row>
-    <row r="754" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B754" s="16"/>
-      <c r="D754" s="16"/>
-    </row>
-    <row r="755" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B755" s="16"/>
-      <c r="D755" s="16"/>
-    </row>
-    <row r="756" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B756" s="16"/>
-      <c r="D756" s="16"/>
-    </row>
-    <row r="757" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B757" s="16"/>
-      <c r="D757" s="16"/>
-    </row>
-    <row r="758" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B758" s="16"/>
-      <c r="D758" s="16"/>
-    </row>
-    <row r="759" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B759" s="16"/>
-      <c r="D759" s="16"/>
-    </row>
-    <row r="760" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B760" s="16"/>
-      <c r="D760" s="16"/>
-    </row>
-    <row r="761" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B761" s="16"/>
-      <c r="D761" s="16"/>
-    </row>
-    <row r="762" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B762" s="16"/>
-      <c r="D762" s="16"/>
-    </row>
-    <row r="763" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B763" s="16"/>
-      <c r="D763" s="16"/>
-    </row>
-    <row r="764" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B764" s="16"/>
-      <c r="D764" s="16"/>
-    </row>
-    <row r="765" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B765" s="16"/>
-      <c r="D765" s="16"/>
-    </row>
-    <row r="766" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B766" s="16"/>
-      <c r="D766" s="16"/>
-    </row>
-    <row r="767" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B767" s="16"/>
-      <c r="D767" s="16"/>
-    </row>
-    <row r="768" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B768" s="16"/>
-      <c r="D768" s="16"/>
-    </row>
-    <row r="769" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B769" s="16"/>
-      <c r="D769" s="16"/>
-    </row>
-    <row r="770" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B770" s="16"/>
-      <c r="D770" s="16"/>
-    </row>
-    <row r="771" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B771" s="16"/>
-      <c r="D771" s="16"/>
-    </row>
-    <row r="772" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B772" s="16"/>
-      <c r="D772" s="16"/>
-    </row>
-    <row r="773" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B773" s="16"/>
-      <c r="D773" s="16"/>
-    </row>
-    <row r="774" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B774" s="16"/>
-      <c r="D774" s="16"/>
-    </row>
-    <row r="775" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B775" s="16"/>
-      <c r="D775" s="16"/>
-    </row>
-    <row r="776" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B776" s="16"/>
-      <c r="D776" s="16"/>
-    </row>
-    <row r="777" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B777" s="16"/>
-      <c r="D777" s="16"/>
-    </row>
-    <row r="778" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B778" s="16"/>
-      <c r="D778" s="16"/>
-    </row>
-    <row r="779" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B779" s="16"/>
-      <c r="D779" s="16"/>
-    </row>
-    <row r="780" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B780" s="16"/>
-      <c r="D780" s="16"/>
-    </row>
-    <row r="781" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B781" s="16"/>
-      <c r="D781" s="16"/>
-    </row>
-    <row r="782" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B782" s="16"/>
-      <c r="D782" s="16"/>
-    </row>
-    <row r="783" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B783" s="16"/>
-      <c r="D783" s="16"/>
-    </row>
-    <row r="784" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B784" s="16"/>
-      <c r="D784" s="16"/>
-    </row>
-    <row r="785" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B785" s="16"/>
-      <c r="D785" s="16"/>
-    </row>
-    <row r="786" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B786" s="16"/>
-      <c r="D786" s="16"/>
-    </row>
-    <row r="787" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B787" s="16"/>
-      <c r="D787" s="16"/>
-    </row>
-    <row r="788" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B788" s="16"/>
-      <c r="D788" s="16"/>
-    </row>
-    <row r="789" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B789" s="16"/>
-      <c r="D789" s="16"/>
-    </row>
-    <row r="790" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B790" s="16"/>
-      <c r="D790" s="16"/>
-    </row>
-    <row r="791" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B791" s="16"/>
-      <c r="D791" s="16"/>
-    </row>
-    <row r="792" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B792" s="16"/>
-      <c r="D792" s="16"/>
-    </row>
-    <row r="793" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B793" s="16"/>
-      <c r="D793" s="16"/>
-    </row>
-    <row r="794" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B794" s="16"/>
-      <c r="D794" s="16"/>
-    </row>
-    <row r="795" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B795" s="16"/>
-      <c r="D795" s="16"/>
-    </row>
-    <row r="796" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B796" s="16"/>
-      <c r="D796" s="16"/>
-    </row>
-    <row r="797" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B797" s="16"/>
-      <c r="D797" s="16"/>
-    </row>
-    <row r="798" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B798" s="16"/>
-      <c r="D798" s="16"/>
-    </row>
-    <row r="799" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B799" s="16"/>
-      <c r="D799" s="16"/>
-    </row>
-    <row r="800" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B800" s="16"/>
-      <c r="D800" s="16"/>
-    </row>
-    <row r="801" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B801" s="16"/>
-      <c r="D801" s="16"/>
-    </row>
-    <row r="802" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B802" s="16"/>
-      <c r="D802" s="16"/>
-    </row>
-    <row r="803" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B803" s="16"/>
-      <c r="D803" s="16"/>
-    </row>
-    <row r="804" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B804" s="16"/>
-      <c r="D804" s="16"/>
-    </row>
-    <row r="805" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B805" s="16"/>
-      <c r="D805" s="16"/>
-    </row>
-    <row r="806" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B806" s="16"/>
-      <c r="D806" s="16"/>
-    </row>
-    <row r="807" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B807" s="16"/>
-      <c r="D807" s="16"/>
-    </row>
-    <row r="808" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B808" s="16"/>
-      <c r="D808" s="16"/>
-    </row>
-    <row r="809" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B809" s="16"/>
-      <c r="D809" s="16"/>
-    </row>
-    <row r="810" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B810" s="16"/>
-      <c r="D810" s="16"/>
-    </row>
-    <row r="811" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B811" s="16"/>
-      <c r="D811" s="16"/>
-    </row>
-    <row r="812" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B812" s="16"/>
-      <c r="D812" s="16"/>
-    </row>
-    <row r="813" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B813" s="16"/>
-      <c r="D813" s="16"/>
-    </row>
-    <row r="814" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B814" s="16"/>
-      <c r="D814" s="16"/>
-    </row>
-    <row r="815" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B815" s="16"/>
-      <c r="D815" s="16"/>
-    </row>
-    <row r="816" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B816" s="16"/>
-      <c r="D816" s="16"/>
-    </row>
-    <row r="817" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B817" s="16"/>
-      <c r="D817" s="16"/>
-    </row>
-    <row r="818" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B818" s="16"/>
-      <c r="D818" s="16"/>
-    </row>
-    <row r="819" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B819" s="16"/>
-      <c r="D819" s="16"/>
-    </row>
-    <row r="820" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B820" s="16"/>
-      <c r="D820" s="16"/>
-    </row>
-    <row r="821" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B821" s="16"/>
-      <c r="D821" s="16"/>
-    </row>
-    <row r="822" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B822" s="16"/>
-      <c r="D822" s="16"/>
-    </row>
-    <row r="823" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B823" s="16"/>
-      <c r="D823" s="16"/>
-    </row>
-    <row r="824" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B824" s="16"/>
-      <c r="D824" s="16"/>
-    </row>
-    <row r="825" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B825" s="16"/>
-      <c r="D825" s="16"/>
-    </row>
-    <row r="826" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B826" s="16"/>
-      <c r="D826" s="16"/>
-    </row>
-    <row r="827" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B827" s="16"/>
-      <c r="D827" s="16"/>
-    </row>
-    <row r="828" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B828" s="16"/>
-      <c r="D828" s="16"/>
-    </row>
-    <row r="829" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B829" s="16"/>
-      <c r="D829" s="16"/>
-    </row>
-    <row r="830" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B830" s="16"/>
-      <c r="D830" s="16"/>
-    </row>
-    <row r="831" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B831" s="16"/>
-      <c r="D831" s="16"/>
-    </row>
-    <row r="832" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B832" s="16"/>
-      <c r="D832" s="16"/>
-    </row>
-    <row r="833" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B833" s="16"/>
-      <c r="D833" s="16"/>
-    </row>
-    <row r="834" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B834" s="16"/>
-      <c r="D834" s="16"/>
-    </row>
-    <row r="835" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B835" s="16"/>
-      <c r="D835" s="16"/>
-    </row>
-    <row r="836" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B836" s="16"/>
-      <c r="D836" s="16"/>
-    </row>
-    <row r="837" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B837" s="16"/>
-      <c r="D837" s="16"/>
-    </row>
-    <row r="838" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B838" s="16"/>
-      <c r="D838" s="16"/>
-    </row>
-    <row r="839" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B839" s="16"/>
-      <c r="D839" s="16"/>
-    </row>
-    <row r="840" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B840" s="16"/>
-      <c r="D840" s="16"/>
-    </row>
-    <row r="841" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B841" s="16"/>
-      <c r="D841" s="16"/>
-    </row>
-    <row r="842" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B842" s="16"/>
-      <c r="D842" s="16"/>
-    </row>
-    <row r="843" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B843" s="16"/>
-      <c r="D843" s="16"/>
-    </row>
-    <row r="844" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B844" s="16"/>
-      <c r="D844" s="16"/>
-    </row>
-    <row r="845" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B845" s="16"/>
-      <c r="D845" s="16"/>
-    </row>
-    <row r="846" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B846" s="16"/>
-      <c r="D846" s="16"/>
-    </row>
-    <row r="847" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B847" s="16"/>
-      <c r="D847" s="16"/>
-    </row>
-    <row r="848" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B848" s="16"/>
-      <c r="D848" s="16"/>
-    </row>
-    <row r="849" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B849" s="16"/>
-      <c r="D849" s="16"/>
-    </row>
-    <row r="850" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B850" s="16"/>
-      <c r="D850" s="16"/>
-    </row>
-    <row r="851" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B851" s="16"/>
-      <c r="D851" s="16"/>
-    </row>
-    <row r="852" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B852" s="16"/>
-      <c r="D852" s="16"/>
-    </row>
-    <row r="853" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B853" s="16"/>
-      <c r="D853" s="16"/>
-    </row>
-    <row r="854" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B854" s="16"/>
-      <c r="D854" s="16"/>
-    </row>
-    <row r="855" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B855" s="16"/>
-      <c r="D855" s="16"/>
-    </row>
-    <row r="856" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B856" s="16"/>
-      <c r="D856" s="16"/>
-    </row>
-    <row r="857" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B857" s="16"/>
-      <c r="D857" s="16"/>
-    </row>
-    <row r="858" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B858" s="16"/>
-      <c r="D858" s="16"/>
-    </row>
-    <row r="859" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B859" s="16"/>
-      <c r="D859" s="16"/>
-    </row>
-    <row r="860" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B860" s="16"/>
-      <c r="D860" s="16"/>
-    </row>
-    <row r="861" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B861" s="16"/>
-      <c r="D861" s="16"/>
-    </row>
-    <row r="862" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B862" s="16"/>
-      <c r="D862" s="16"/>
-    </row>
-    <row r="863" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B863" s="16"/>
-      <c r="D863" s="16"/>
-    </row>
-    <row r="864" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B864" s="16"/>
-      <c r="D864" s="16"/>
-    </row>
-    <row r="865" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B865" s="16"/>
-      <c r="D865" s="16"/>
-    </row>
-    <row r="866" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B866" s="16"/>
-      <c r="D866" s="16"/>
-    </row>
-    <row r="867" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B867" s="16"/>
-      <c r="D867" s="16"/>
-    </row>
-    <row r="868" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B868" s="16"/>
-      <c r="D868" s="16"/>
-    </row>
-    <row r="869" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B869" s="16"/>
-      <c r="D869" s="16"/>
-    </row>
-    <row r="870" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B870" s="16"/>
-      <c r="D870" s="16"/>
-    </row>
-    <row r="871" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B871" s="16"/>
-      <c r="D871" s="16"/>
-    </row>
-    <row r="872" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B872" s="16"/>
-      <c r="D872" s="16"/>
-    </row>
-    <row r="873" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B873" s="16"/>
-      <c r="D873" s="16"/>
-    </row>
-    <row r="874" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B874" s="16"/>
-      <c r="D874" s="16"/>
-    </row>
-    <row r="875" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B875" s="16"/>
-      <c r="D875" s="16"/>
-    </row>
-    <row r="876" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B876" s="16"/>
-      <c r="D876" s="16"/>
-    </row>
-    <row r="877" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B877" s="16"/>
-      <c r="D877" s="16"/>
-    </row>
-    <row r="878" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B878" s="16"/>
-      <c r="D878" s="16"/>
-    </row>
-    <row r="879" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B879" s="16"/>
-      <c r="D879" s="16"/>
-    </row>
-    <row r="880" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B880" s="16"/>
-      <c r="D880" s="16"/>
-    </row>
-    <row r="881" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B881" s="16"/>
-      <c r="D881" s="16"/>
-    </row>
-    <row r="882" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B882" s="16"/>
-      <c r="D882" s="16"/>
-    </row>
-    <row r="883" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B883" s="16"/>
-      <c r="D883" s="16"/>
-    </row>
-    <row r="884" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B884" s="16"/>
-      <c r="D884" s="16"/>
-    </row>
-    <row r="885" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B885" s="16"/>
-      <c r="D885" s="16"/>
-    </row>
-    <row r="886" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B886" s="16"/>
-      <c r="D886" s="16"/>
-    </row>
-    <row r="887" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B887" s="16"/>
-      <c r="D887" s="16"/>
-    </row>
-    <row r="888" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B888" s="16"/>
-      <c r="D888" s="16"/>
-    </row>
-    <row r="889" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B889" s="16"/>
-      <c r="D889" s="16"/>
-    </row>
-    <row r="890" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B890" s="16"/>
-      <c r="D890" s="16"/>
-    </row>
-    <row r="891" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B891" s="16"/>
-      <c r="D891" s="16"/>
-    </row>
-    <row r="892" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B892" s="16"/>
-      <c r="D892" s="16"/>
-    </row>
-    <row r="893" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B893" s="16"/>
-      <c r="D893" s="16"/>
-    </row>
-    <row r="894" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B894" s="16"/>
-      <c r="D894" s="16"/>
-    </row>
-    <row r="895" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B895" s="16"/>
-      <c r="D895" s="16"/>
-    </row>
-    <row r="896" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B896" s="16"/>
-      <c r="D896" s="16"/>
-    </row>
-    <row r="897" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B897" s="16"/>
-      <c r="D897" s="16"/>
-    </row>
-    <row r="898" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B898" s="16"/>
-      <c r="D898" s="16"/>
-    </row>
-    <row r="899" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B899" s="16"/>
-      <c r="D899" s="16"/>
-    </row>
-    <row r="900" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B900" s="16"/>
-      <c r="D900" s="16"/>
-    </row>
-    <row r="901" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B901" s="16"/>
-      <c r="D901" s="16"/>
-    </row>
-    <row r="902" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B902" s="16"/>
-      <c r="D902" s="16"/>
-    </row>
-    <row r="903" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B903" s="16"/>
-      <c r="D903" s="16"/>
-    </row>
-    <row r="904" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B904" s="16"/>
-      <c r="D904" s="16"/>
-    </row>
-    <row r="905" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B905" s="16"/>
-      <c r="D905" s="16"/>
-    </row>
-    <row r="906" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B906" s="16"/>
-      <c r="D906" s="16"/>
-    </row>
-    <row r="907" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B907" s="16"/>
-      <c r="D907" s="16"/>
-    </row>
-    <row r="908" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B908" s="16"/>
-      <c r="D908" s="16"/>
-    </row>
-    <row r="909" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B909" s="16"/>
-      <c r="D909" s="16"/>
-    </row>
-    <row r="910" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B910" s="16"/>
-      <c r="D910" s="16"/>
-    </row>
-    <row r="911" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B911" s="16"/>
-      <c r="D911" s="16"/>
-    </row>
-    <row r="912" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B912" s="16"/>
-      <c r="D912" s="16"/>
-    </row>
-    <row r="913" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B913" s="16"/>
-      <c r="D913" s="16"/>
-    </row>
-    <row r="914" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B914" s="16"/>
-      <c r="D914" s="16"/>
-    </row>
-    <row r="915" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B915" s="16"/>
-      <c r="D915" s="16"/>
-    </row>
-    <row r="916" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B916" s="16"/>
-      <c r="D916" s="16"/>
-    </row>
-    <row r="917" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B917" s="16"/>
-      <c r="D917" s="16"/>
-    </row>
-    <row r="918" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B918" s="16"/>
-      <c r="D918" s="16"/>
-    </row>
-    <row r="919" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B919" s="16"/>
-      <c r="D919" s="16"/>
-    </row>
-    <row r="920" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B920" s="16"/>
-      <c r="D920" s="16"/>
-    </row>
-    <row r="921" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B921" s="16"/>
-      <c r="D921" s="16"/>
-    </row>
-    <row r="922" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B922" s="16"/>
-      <c r="D922" s="16"/>
-    </row>
-    <row r="923" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B923" s="16"/>
-      <c r="D923" s="16"/>
-    </row>
-    <row r="924" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B924" s="16"/>
-      <c r="D924" s="16"/>
-    </row>
-    <row r="925" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B925" s="16"/>
-      <c r="D925" s="16"/>
-    </row>
-    <row r="926" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B926" s="16"/>
-      <c r="D926" s="16"/>
-    </row>
-    <row r="927" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B927" s="16"/>
-      <c r="D927" s="16"/>
-    </row>
-    <row r="928" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B928" s="16"/>
-      <c r="D928" s="16"/>
-    </row>
-    <row r="929" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B929" s="16"/>
-      <c r="D929" s="16"/>
-    </row>
-    <row r="930" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B930" s="16"/>
-      <c r="D930" s="16"/>
-    </row>
-    <row r="931" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B931" s="16"/>
-      <c r="D931" s="16"/>
-    </row>
-    <row r="932" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B932" s="16"/>
-      <c r="D932" s="16"/>
-    </row>
-    <row r="933" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B933" s="16"/>
-      <c r="D933" s="16"/>
-    </row>
-    <row r="934" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B934" s="16"/>
-      <c r="D934" s="16"/>
-    </row>
-    <row r="935" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B935" s="16"/>
-      <c r="D935" s="16"/>
-    </row>
-    <row r="936" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B936" s="16"/>
-      <c r="D936" s="16"/>
-    </row>
-    <row r="937" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B937" s="16"/>
-      <c r="D937" s="16"/>
-    </row>
-    <row r="938" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B938" s="16"/>
-      <c r="D938" s="16"/>
-    </row>
-    <row r="939" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B939" s="16"/>
-      <c r="D939" s="16"/>
-    </row>
-    <row r="940" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B940" s="16"/>
-      <c r="D940" s="16"/>
-    </row>
-    <row r="941" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B941" s="16"/>
-      <c r="D941" s="16"/>
-    </row>
-    <row r="942" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B942" s="16"/>
-      <c r="D942" s="16"/>
-    </row>
-    <row r="943" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B943" s="16"/>
-      <c r="D943" s="16"/>
-    </row>
-    <row r="944" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B944" s="16"/>
-      <c r="D944" s="16"/>
-    </row>
-    <row r="945" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B945" s="16"/>
-      <c r="D945" s="16"/>
-    </row>
-    <row r="946" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B946" s="16"/>
-      <c r="D946" s="16"/>
-    </row>
-    <row r="947" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B947" s="16"/>
-      <c r="D947" s="16"/>
-    </row>
-    <row r="948" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B948" s="16"/>
-      <c r="D948" s="16"/>
-    </row>
-    <row r="949" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B949" s="16"/>
-      <c r="D949" s="16"/>
-    </row>
-    <row r="950" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B950" s="16"/>
-      <c r="D950" s="16"/>
-    </row>
-    <row r="951" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B951" s="16"/>
-      <c r="D951" s="16"/>
-    </row>
-    <row r="952" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B952" s="16"/>
-      <c r="D952" s="16"/>
-    </row>
-    <row r="953" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B953" s="16"/>
-      <c r="D953" s="16"/>
-    </row>
-    <row r="954" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B954" s="16"/>
-      <c r="D954" s="16"/>
-    </row>
-    <row r="955" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B955" s="16"/>
-      <c r="D955" s="16"/>
-    </row>
-    <row r="956" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B956" s="16"/>
-      <c r="D956" s="16"/>
-    </row>
-    <row r="957" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B957" s="16"/>
-      <c r="D957" s="16"/>
-    </row>
-    <row r="958" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B958" s="16"/>
-      <c r="D958" s="16"/>
-    </row>
-    <row r="959" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B959" s="16"/>
-      <c r="D959" s="16"/>
-    </row>
-    <row r="960" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B960" s="16"/>
-      <c r="D960" s="16"/>
-    </row>
-    <row r="961" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B961" s="16"/>
-      <c r="D961" s="16"/>
-    </row>
-    <row r="962" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B962" s="16"/>
-      <c r="D962" s="16"/>
-    </row>
-    <row r="963" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B963" s="16"/>
-      <c r="D963" s="16"/>
-    </row>
-    <row r="964" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B964" s="16"/>
-      <c r="D964" s="16"/>
-    </row>
-    <row r="965" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B965" s="16"/>
-      <c r="D965" s="16"/>
-    </row>
-    <row r="966" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B966" s="16"/>
-      <c r="D966" s="16"/>
-    </row>
-    <row r="967" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B967" s="16"/>
-      <c r="D967" s="16"/>
-    </row>
-    <row r="968" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B968" s="16"/>
-      <c r="D968" s="16"/>
-    </row>
-    <row r="969" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B969" s="16"/>
-      <c r="D969" s="16"/>
-    </row>
-    <row r="970" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B970" s="16"/>
-      <c r="D970" s="16"/>
-    </row>
-    <row r="971" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B971" s="16"/>
-      <c r="D971" s="16"/>
-    </row>
-    <row r="972" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B972" s="16"/>
-      <c r="D972" s="16"/>
-    </row>
-    <row r="973" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B973" s="16"/>
-      <c r="D973" s="16"/>
-    </row>
-    <row r="974" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B974" s="16"/>
-      <c r="D974" s="16"/>
-    </row>
-    <row r="975" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B975" s="16"/>
-      <c r="D975" s="16"/>
-    </row>
-    <row r="976" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B976" s="16"/>
-      <c r="D976" s="16"/>
-    </row>
-    <row r="977" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B977" s="16"/>
-      <c r="D977" s="16"/>
-    </row>
-    <row r="978" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B978" s="16"/>
-      <c r="D978" s="16"/>
-    </row>
-    <row r="979" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B979" s="16"/>
-      <c r="D979" s="16"/>
-    </row>
-    <row r="980" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B980" s="16"/>
-      <c r="D980" s="16"/>
-    </row>
-    <row r="981" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B981" s="16"/>
-      <c r="D981" s="16"/>
-    </row>
-    <row r="982" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B982" s="16"/>
-      <c r="D982" s="16"/>
-    </row>
-    <row r="983" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B983" s="16"/>
-      <c r="D983" s="16"/>
-    </row>
-    <row r="984" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B984" s="16"/>
-      <c r="D984" s="16"/>
-    </row>
-    <row r="985" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B985" s="16"/>
-      <c r="D985" s="16"/>
-    </row>
-    <row r="986" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B986" s="16"/>
-      <c r="D986" s="16"/>
-    </row>
-    <row r="987" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B987" s="16"/>
-      <c r="D987" s="16"/>
-    </row>
-    <row r="988" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B988" s="16"/>
-      <c r="D988" s="16"/>
-    </row>
-    <row r="989" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B989" s="16"/>
-      <c r="D989" s="16"/>
-    </row>
-    <row r="990" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B990" s="16"/>
-      <c r="D990" s="16"/>
-    </row>
-    <row r="991" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B991" s="16"/>
-      <c r="D991" s="16"/>
-    </row>
-    <row r="992" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B992" s="16"/>
-      <c r="D992" s="16"/>
-    </row>
-    <row r="993" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B993" s="16"/>
-      <c r="D993" s="16"/>
-    </row>
-    <row r="994" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B994" s="16"/>
-      <c r="D994" s="16"/>
-    </row>
-    <row r="995" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B995" s="16"/>
-      <c r="D995" s="16"/>
-    </row>
-    <row r="996" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B996" s="16"/>
-      <c r="D996" s="16"/>
-    </row>
-    <row r="997" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B997" s="16"/>
-      <c r="D997" s="16"/>
-    </row>
-    <row r="998" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B998" s="16"/>
-      <c r="D998" s="16"/>
-    </row>
-    <row r="999" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B999" s="16"/>
-      <c r="D999" s="16"/>
-    </row>
-    <row r="1000" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1000" s="16"/>
-      <c r="D1000" s="16"/>
-    </row>
-    <row r="1001" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1001" s="16"/>
-      <c r="D1001" s="16"/>
-    </row>
-    <row r="1002" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1002" s="16"/>
-      <c r="D1002" s="16"/>
-    </row>
-    <row r="1003" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1003" s="16"/>
-      <c r="D1003" s="16"/>
-    </row>
-    <row r="1004" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1004" s="16"/>
-      <c r="D1004" s="16"/>
-    </row>
-    <row r="1005" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1005" s="16"/>
-      <c r="D1005" s="16"/>
-    </row>
-    <row r="1006" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1006" s="16"/>
-      <c r="D1006" s="16"/>
-    </row>
-    <row r="1007" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1007" s="16"/>
-      <c r="D1007" s="16"/>
-    </row>
-    <row r="1008" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1008" s="16"/>
-      <c r="D1008" s="16"/>
-    </row>
-    <row r="1009" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1009" s="16"/>
-      <c r="D1009" s="16"/>
-    </row>
-    <row r="1010" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1010" s="16"/>
-      <c r="D1010" s="16"/>
-    </row>
-    <row r="1011" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1011" s="16"/>
-      <c r="D1011" s="16"/>
-    </row>
-    <row r="1012" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1012" s="16"/>
-      <c r="D1012" s="16"/>
-    </row>
-    <row r="1013" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1013" s="16"/>
-      <c r="D1013" s="16"/>
-    </row>
-    <row r="1014" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1014" s="16"/>
-      <c r="D1014" s="16"/>
-    </row>
-    <row r="1015" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1015" s="16"/>
-      <c r="D1015" s="16"/>
-    </row>
-    <row r="1016" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1016" s="16"/>
-      <c r="D1016" s="16"/>
-    </row>
-    <row r="1017" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1017" s="16"/>
-      <c r="D1017" s="16"/>
-    </row>
-    <row r="1018" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1018" s="16"/>
-      <c r="D1018" s="16"/>
-    </row>
-    <row r="1019" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1019" s="16"/>
-      <c r="D1019" s="16"/>
-    </row>
-    <row r="1020" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1020" s="16"/>
-      <c r="D1020" s="16"/>
-    </row>
-    <row r="1021" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1021" s="16"/>
-      <c r="D1021" s="16"/>
-    </row>
-    <row r="1022" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1022" s="16"/>
-      <c r="D1022" s="16"/>
-    </row>
-    <row r="1023" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1023" s="16"/>
-      <c r="D1023" s="16"/>
-    </row>
-    <row r="1024" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1024" s="16"/>
-      <c r="D1024" s="16"/>
-    </row>
-    <row r="1025" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1025" s="16"/>
-      <c r="D1025" s="16"/>
-    </row>
-    <row r="1026" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1026" s="16"/>
-      <c r="D1026" s="16"/>
-    </row>
-    <row r="1027" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1027" s="16"/>
-      <c r="D1027" s="16"/>
-    </row>
-    <row r="1028" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1028" s="16"/>
-      <c r="D1028" s="16"/>
-    </row>
-    <row r="1029" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1029" s="16"/>
-      <c r="D1029" s="16"/>
-    </row>
-    <row r="1030" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1030" s="16"/>
-      <c r="D1030" s="16"/>
-    </row>
-    <row r="1031" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1031" s="16"/>
-      <c r="D1031" s="16"/>
-    </row>
-    <row r="1032" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1032" s="16"/>
-      <c r="D1032" s="16"/>
-    </row>
-    <row r="1033" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1033" s="16"/>
-      <c r="D1033" s="16"/>
-    </row>
-    <row r="1034" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1034" s="16"/>
-      <c r="D1034" s="16"/>
-    </row>
-    <row r="1035" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1035" s="16"/>
-      <c r="D1035" s="16"/>
-    </row>
-    <row r="1036" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1036" s="16"/>
-      <c r="D1036" s="16"/>
-    </row>
-    <row r="1037" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1037" s="16"/>
-      <c r="D1037" s="16"/>
-    </row>
-    <row r="1038" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1038" s="16"/>
-      <c r="D1038" s="16"/>
-    </row>
-    <row r="1039" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1039" s="16"/>
-      <c r="D1039" s="16"/>
-    </row>
-    <row r="1040" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1040" s="16"/>
-      <c r="D1040" s="16"/>
-    </row>
-    <row r="1041" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1041" s="16"/>
-      <c r="D1041" s="16"/>
-    </row>
-    <row r="1042" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1042" s="16"/>
-      <c r="D1042" s="16"/>
-    </row>
-    <row r="1043" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1043" s="16"/>
-      <c r="D1043" s="16"/>
-    </row>
-    <row r="1044" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1044" s="16"/>
-      <c r="D1044" s="16"/>
-    </row>
-    <row r="1045" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1045" s="16"/>
-      <c r="D1045" s="16"/>
-    </row>
-    <row r="1046" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1046" s="16"/>
-      <c r="D1046" s="16"/>
-    </row>
-    <row r="1047" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1047" s="16"/>
-      <c r="D1047" s="16"/>
-    </row>
-    <row r="1048" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1048" s="16"/>
-      <c r="D1048" s="16"/>
-    </row>
-    <row r="1049" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1049" s="16"/>
-      <c r="D1049" s="16"/>
-    </row>
-    <row r="1050" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1050" s="16"/>
-      <c r="D1050" s="16"/>
-    </row>
-    <row r="1051" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1051" s="16"/>
-      <c r="D1051" s="16"/>
-    </row>
-    <row r="1052" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1052" s="16"/>
-      <c r="D1052" s="16"/>
-    </row>
-    <row r="1053" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1053" s="16"/>
-      <c r="D1053" s="16"/>
-    </row>
-    <row r="1054" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1054" s="16"/>
-      <c r="D1054" s="16"/>
-    </row>
-    <row r="1055" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1055" s="16"/>
-      <c r="D1055" s="16"/>
-    </row>
-    <row r="1056" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1056" s="16"/>
-      <c r="D1056" s="16"/>
-    </row>
-    <row r="1057" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1057" s="16"/>
-      <c r="D1057" s="16"/>
-    </row>
-    <row r="1058" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1058" s="16"/>
-      <c r="D1058" s="16"/>
-    </row>
-    <row r="1059" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1059" s="16"/>
-      <c r="D1059" s="16"/>
-    </row>
-    <row r="1060" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1060" s="16"/>
-      <c r="D1060" s="16"/>
-    </row>
-    <row r="1061" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1061" s="16"/>
-      <c r="D1061" s="16"/>
-    </row>
-    <row r="1062" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1062" s="16"/>
-      <c r="D1062" s="16"/>
-    </row>
-    <row r="1063" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1063" s="16"/>
-      <c r="D1063" s="16"/>
-    </row>
-    <row r="1064" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1064" s="16"/>
-      <c r="D1064" s="16"/>
-    </row>
-    <row r="1065" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1065" s="16"/>
-      <c r="D1065" s="16"/>
-    </row>
-    <row r="1066" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1066" s="16"/>
-      <c r="D1066" s="16"/>
-    </row>
-    <row r="1067" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1067" s="16"/>
-      <c r="D1067" s="16"/>
-    </row>
-    <row r="1068" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1068" s="16"/>
-      <c r="D1068" s="16"/>
-    </row>
-    <row r="1069" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1069" s="16"/>
-      <c r="D1069" s="16"/>
-    </row>
-    <row r="1070" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1070" s="16"/>
-      <c r="D1070" s="16"/>
-    </row>
-    <row r="1071" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1071" s="16"/>
-      <c r="D1071" s="16"/>
-    </row>
-    <row r="1072" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1072" s="16"/>
-      <c r="D1072" s="16"/>
-    </row>
-    <row r="1073" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1073" s="16"/>
-      <c r="D1073" s="16"/>
-    </row>
-    <row r="1074" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1074" s="16"/>
-      <c r="D1074" s="16"/>
-    </row>
-    <row r="1075" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1075" s="16"/>
-      <c r="D1075" s="16"/>
-    </row>
-    <row r="1076" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1076" s="16"/>
-      <c r="D1076" s="16"/>
-    </row>
-    <row r="1077" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1077" s="16"/>
-      <c r="D1077" s="16"/>
-    </row>
-    <row r="1078" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1078" s="16"/>
-      <c r="D1078" s="16"/>
-    </row>
-    <row r="1079" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1079" s="16"/>
-      <c r="D1079" s="16"/>
-    </row>
-    <row r="1080" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1080" s="16"/>
-      <c r="D1080" s="16"/>
-    </row>
-    <row r="1081" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1081" s="16"/>
-      <c r="D1081" s="16"/>
-    </row>
-    <row r="1082" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1082" s="16"/>
-      <c r="D1082" s="16"/>
-    </row>
-    <row r="1083" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1083" s="16"/>
-      <c r="D1083" s="16"/>
-    </row>
-    <row r="1084" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1084" s="16"/>
-      <c r="D1084" s="16"/>
-    </row>
-    <row r="1085" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1085" s="16"/>
-      <c r="D1085" s="16"/>
-    </row>
-    <row r="1086" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1086" s="16"/>
-      <c r="D1086" s="16"/>
-    </row>
-    <row r="1087" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1087" s="16"/>
-      <c r="D1087" s="16"/>
-    </row>
-    <row r="1088" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1088" s="16"/>
-      <c r="D1088" s="16"/>
-    </row>
-    <row r="1089" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1089" s="16"/>
-      <c r="D1089" s="16"/>
-    </row>
-    <row r="1090" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1090" s="16"/>
-      <c r="D1090" s="16"/>
-    </row>
-    <row r="1091" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1091" s="16"/>
-      <c r="D1091" s="16"/>
-    </row>
-    <row r="1092" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1092" s="16"/>
-      <c r="D1092" s="16"/>
-    </row>
-    <row r="1093" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1093" s="16"/>
-      <c r="D1093" s="16"/>
-    </row>
-    <row r="1094" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1094" s="16"/>
-      <c r="D1094" s="16"/>
-    </row>
-    <row r="1095" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1095" s="16"/>
-      <c r="D1095" s="16"/>
-    </row>
-    <row r="1096" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1096" s="16"/>
-      <c r="D1096" s="16"/>
-    </row>
-    <row r="1097" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1097" s="16"/>
-      <c r="D1097" s="16"/>
-    </row>
-    <row r="1098" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1098" s="16"/>
-      <c r="D1098" s="16"/>
-    </row>
-    <row r="1099" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1099" s="16"/>
-      <c r="D1099" s="16"/>
-    </row>
-    <row r="1100" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1100" s="16"/>
-      <c r="D1100" s="16"/>
-    </row>
-    <row r="1101" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1101" s="16"/>
-      <c r="D1101" s="16"/>
-    </row>
-    <row r="1102" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1102" s="16"/>
-      <c r="D1102" s="16"/>
-    </row>
-    <row r="1103" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1103" s="16"/>
-      <c r="D1103" s="16"/>
-    </row>
-    <row r="1104" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1104" s="16"/>
-      <c r="D1104" s="16"/>
-    </row>
-    <row r="1105" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1105" s="16"/>
-      <c r="D1105" s="16"/>
-    </row>
-    <row r="1106" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1106" s="16"/>
-      <c r="D1106" s="16"/>
-    </row>
-    <row r="1107" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1107" s="16"/>
-      <c r="D1107" s="16"/>
-    </row>
-    <row r="1108" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1108" s="16"/>
-      <c r="D1108" s="16"/>
-    </row>
-    <row r="1109" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1109" s="16"/>
-      <c r="D1109" s="16"/>
-    </row>
-    <row r="1110" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1110" s="16"/>
-      <c r="D1110" s="16"/>
-    </row>
-    <row r="1111" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1111" s="16"/>
-      <c r="D1111" s="16"/>
-    </row>
-    <row r="1112" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1112" s="16"/>
-      <c r="D1112" s="16"/>
-    </row>
-    <row r="1113" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1113" s="16"/>
-      <c r="D1113" s="16"/>
-    </row>
-    <row r="1114" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1114" s="16"/>
-      <c r="D1114" s="16"/>
-    </row>
-    <row r="1115" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1115" s="16"/>
-      <c r="D1115" s="16"/>
-    </row>
-    <row r="1116" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1116" s="16"/>
-      <c r="D1116" s="16"/>
-    </row>
-    <row r="1117" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1117" s="16"/>
-      <c r="D1117" s="16"/>
-    </row>
-    <row r="1118" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1118" s="16"/>
-      <c r="D1118" s="16"/>
-    </row>
-    <row r="1119" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1119" s="16"/>
-      <c r="D1119" s="16"/>
-    </row>
-    <row r="1120" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1120" s="16"/>
-      <c r="D1120" s="16"/>
-    </row>
-    <row r="1121" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1121" s="16"/>
-      <c r="D1121" s="16"/>
-    </row>
-    <row r="1122" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1122" s="16"/>
-      <c r="D1122" s="16"/>
-    </row>
-    <row r="1123" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1123" s="16"/>
-      <c r="D1123" s="16"/>
-    </row>
-    <row r="1124" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1124" s="16"/>
-      <c r="D1124" s="16"/>
-    </row>
-    <row r="1125" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1125" s="16"/>
-      <c r="D1125" s="16"/>
-    </row>
-    <row r="1126" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1126" s="16"/>
-      <c r="D1126" s="16"/>
-    </row>
-    <row r="1127" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1127" s="16"/>
-      <c r="D1127" s="16"/>
-    </row>
-    <row r="1128" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1128" s="16"/>
-      <c r="D1128" s="16"/>
-    </row>
-    <row r="1129" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1129" s="16"/>
-      <c r="D1129" s="16"/>
-    </row>
-    <row r="1130" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1130" s="16"/>
-      <c r="D1130" s="16"/>
-    </row>
-    <row r="1131" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1131" s="16"/>
-      <c r="D1131" s="16"/>
-    </row>
-    <row r="1132" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1132" s="16"/>
-      <c r="D1132" s="16"/>
-    </row>
-    <row r="1133" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1133" s="16"/>
-      <c r="D1133" s="16"/>
-    </row>
-    <row r="1134" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1134" s="16"/>
-      <c r="D1134" s="16"/>
-    </row>
-    <row r="1135" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1135" s="16"/>
-      <c r="D1135" s="16"/>
-    </row>
-    <row r="1136" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1136" s="16"/>
-      <c r="D1136" s="16"/>
-    </row>
-    <row r="1137" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1137" s="16"/>
-      <c r="D1137" s="16"/>
-    </row>
-    <row r="1138" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1138" s="16"/>
-      <c r="D1138" s="16"/>
-    </row>
-    <row r="1139" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1139" s="16"/>
-      <c r="D1139" s="16"/>
-    </row>
-    <row r="1140" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1140" s="16"/>
-      <c r="D1140" s="16"/>
-    </row>
-    <row r="1141" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1141" s="16"/>
-      <c r="D1141" s="16"/>
-    </row>
-    <row r="1142" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1142" s="16"/>
-      <c r="D1142" s="16"/>
-    </row>
-    <row r="1143" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1143" s="16"/>
-      <c r="D1143" s="16"/>
-    </row>
-    <row r="1144" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1144" s="16"/>
-      <c r="D1144" s="16"/>
-    </row>
-    <row r="1145" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1145" s="16"/>
-      <c r="D1145" s="16"/>
-    </row>
-    <row r="1146" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1146" s="16"/>
-      <c r="D1146" s="16"/>
-    </row>
-    <row r="1147" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1147" s="16"/>
-      <c r="D1147" s="16"/>
-    </row>
-    <row r="1148" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1148" s="16"/>
-      <c r="D1148" s="16"/>
-    </row>
-    <row r="1149" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1149" s="16"/>
-      <c r="D1149" s="16"/>
-    </row>
-    <row r="1150" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1150" s="16"/>
-      <c r="D1150" s="16"/>
-    </row>
-    <row r="1151" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1151" s="16"/>
-      <c r="D1151" s="16"/>
-    </row>
-    <row r="1152" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1152" s="16"/>
-      <c r="D1152" s="16"/>
-    </row>
-    <row r="1153" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1153" s="16"/>
-      <c r="D1153" s="16"/>
-    </row>
-    <row r="1154" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1154" s="16"/>
-      <c r="D1154" s="16"/>
-    </row>
-    <row r="1155" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1155" s="16"/>
-      <c r="D1155" s="16"/>
-    </row>
-    <row r="1156" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1156" s="16"/>
-      <c r="D1156" s="16"/>
-    </row>
-    <row r="1157" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1157" s="16"/>
-      <c r="D1157" s="16"/>
-    </row>
-    <row r="1158" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1158" s="16"/>
-      <c r="D1158" s="16"/>
-    </row>
-    <row r="1159" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1159" s="16"/>
-      <c r="D1159" s="16"/>
-    </row>
-    <row r="1160" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1160" s="16"/>
-      <c r="D1160" s="16"/>
-    </row>
-    <row r="1161" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1161" s="16"/>
-      <c r="D1161" s="16"/>
-    </row>
-    <row r="1162" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1162" s="16"/>
-      <c r="D1162" s="16"/>
-    </row>
-    <row r="1163" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1163" s="16"/>
-      <c r="D1163" s="16"/>
-    </row>
-    <row r="1164" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1164" s="16"/>
-      <c r="D1164" s="16"/>
-    </row>
-    <row r="1165" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1165" s="16"/>
-      <c r="D1165" s="16"/>
-    </row>
-    <row r="1166" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1166" s="16"/>
-      <c r="D1166" s="16"/>
-    </row>
-    <row r="1167" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1167" s="16"/>
-      <c r="D1167" s="16"/>
-    </row>
-    <row r="1168" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1168" s="16"/>
-      <c r="D1168" s="16"/>
-    </row>
-    <row r="1169" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1169" s="16"/>
-      <c r="D1169" s="16"/>
-    </row>
-    <row r="1170" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1170" s="16"/>
-      <c r="D1170" s="16"/>
-    </row>
-    <row r="1171" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1171" s="16"/>
-      <c r="D1171" s="16"/>
-    </row>
-    <row r="1172" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1172" s="16"/>
-      <c r="D1172" s="16"/>
-    </row>
-    <row r="1173" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1173" s="16"/>
-      <c r="D1173" s="16"/>
-    </row>
-    <row r="1174" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1174" s="16"/>
-      <c r="D1174" s="16"/>
-    </row>
-    <row r="1175" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1175" s="16"/>
-      <c r="D1175" s="16"/>
-    </row>
-    <row r="1176" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1176" s="16"/>
-      <c r="D1176" s="16"/>
-    </row>
-    <row r="1177" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1177" s="16"/>
-      <c r="D1177" s="16"/>
-    </row>
-    <row r="1178" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1178" s="16"/>
-      <c r="D1178" s="16"/>
-    </row>
-    <row r="1179" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1179" s="16"/>
-      <c r="D1179" s="16"/>
-    </row>
-    <row r="1180" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1180" s="16"/>
-      <c r="D1180" s="16"/>
-    </row>
-    <row r="1181" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1181" s="16"/>
-      <c r="D1181" s="16"/>
-    </row>
-    <row r="1182" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1182" s="16"/>
-      <c r="D1182" s="16"/>
-    </row>
-    <row r="1183" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1183" s="16"/>
-      <c r="D1183" s="16"/>
-    </row>
-    <row r="1184" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1184" s="16"/>
-      <c r="D1184" s="16"/>
-    </row>
-    <row r="1185" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1185" s="16"/>
-      <c r="D1185" s="16"/>
-    </row>
-    <row r="1186" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1186" s="16"/>
-      <c r="D1186" s="16"/>
-    </row>
-    <row r="1187" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1187" s="16"/>
-      <c r="D1187" s="16"/>
-    </row>
-    <row r="1188" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1188" s="16"/>
-      <c r="D1188" s="16"/>
-    </row>
-    <row r="1189" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1189" s="16"/>
-      <c r="D1189" s="16"/>
-    </row>
-    <row r="1190" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1190" s="16"/>
-      <c r="D1190" s="16"/>
-    </row>
-    <row r="1191" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1191" s="16"/>
-      <c r="D1191" s="16"/>
-    </row>
-    <row r="1192" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1192" s="16"/>
-      <c r="D1192" s="16"/>
-    </row>
-    <row r="1193" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1193" s="16"/>
-      <c r="D1193" s="16"/>
-    </row>
-    <row r="1194" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1194" s="16"/>
-      <c r="D1194" s="16"/>
-    </row>
-    <row r="1195" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1195" s="16"/>
-      <c r="D1195" s="16"/>
-    </row>
-    <row r="1196" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1196" s="16"/>
-      <c r="D1196" s="16"/>
-    </row>
-    <row r="1197" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1197" s="16"/>
-      <c r="D1197" s="16"/>
-    </row>
-    <row r="1198" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1198" s="16"/>
-      <c r="D1198" s="16"/>
-    </row>
-    <row r="1199" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1199" s="16"/>
-      <c r="D1199" s="16"/>
-    </row>
-    <row r="1200" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1200" s="16"/>
-      <c r="D1200" s="16"/>
-    </row>
-    <row r="1201" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1201" s="16"/>
-      <c r="D1201" s="16"/>
-    </row>
-    <row r="1202" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1202" s="16"/>
-      <c r="D1202" s="16"/>
-    </row>
-    <row r="1203" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1203" s="16"/>
-      <c r="D1203" s="16"/>
-    </row>
-    <row r="1204" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1204" s="16"/>
-      <c r="D1204" s="16"/>
-    </row>
-    <row r="1205" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1205" s="16"/>
-      <c r="D1205" s="16"/>
-    </row>
-    <row r="1206" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1206" s="16"/>
-      <c r="D1206" s="16"/>
-    </row>
-    <row r="1207" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1207" s="16"/>
-      <c r="D1207" s="16"/>
-    </row>
-    <row r="1208" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1208" s="16"/>
-      <c r="D1208" s="16"/>
-    </row>
-    <row r="1209" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1209" s="16"/>
-      <c r="D1209" s="16"/>
-    </row>
-    <row r="1210" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1210" s="16"/>
-      <c r="D1210" s="16"/>
-    </row>
-    <row r="1211" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1211" s="16"/>
-      <c r="D1211" s="16"/>
-    </row>
-    <row r="1212" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1212" s="16"/>
-      <c r="D1212" s="16"/>
-    </row>
-    <row r="1213" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1213" s="16"/>
-      <c r="D1213" s="16"/>
-    </row>
-    <row r="1214" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1214" s="16"/>
-      <c r="D1214" s="16"/>
-    </row>
-    <row r="1215" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1215" s="16"/>
-      <c r="D1215" s="16"/>
-    </row>
-    <row r="1216" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1216" s="16"/>
-      <c r="D1216" s="16"/>
-    </row>
-    <row r="1217" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1217" s="16"/>
-      <c r="D1217" s="16"/>
-    </row>
-    <row r="1218" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1218" s="16"/>
-      <c r="D1218" s="16"/>
-    </row>
-    <row r="1219" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1219" s="16"/>
-      <c r="D1219" s="16"/>
-    </row>
-    <row r="1220" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1220" s="16"/>
-      <c r="D1220" s="16"/>
-    </row>
-    <row r="1221" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1221" s="16"/>
-      <c r="D1221" s="16"/>
-    </row>
-    <row r="1222" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1222" s="16"/>
-      <c r="D1222" s="16"/>
-    </row>
-    <row r="1223" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1223" s="16"/>
-      <c r="D1223" s="16"/>
-    </row>
-    <row r="1224" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1224" s="16"/>
-      <c r="D1224" s="16"/>
-    </row>
-    <row r="1225" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1225" s="16"/>
-      <c r="D1225" s="16"/>
-    </row>
-    <row r="1226" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1226" s="16"/>
-      <c r="D1226" s="16"/>
-    </row>
-    <row r="1227" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1227" s="16"/>
-      <c r="D1227" s="16"/>
-    </row>
-    <row r="1228" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1228" s="16"/>
-      <c r="D1228" s="16"/>
-    </row>
-    <row r="1229" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1229" s="16"/>
-      <c r="D1229" s="16"/>
-    </row>
-    <row r="1230" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1230" s="16"/>
-      <c r="D1230" s="16"/>
-    </row>
-    <row r="1231" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1231" s="16"/>
-      <c r="D1231" s="16"/>
-    </row>
-    <row r="1232" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1232" s="16"/>
-      <c r="D1232" s="16"/>
-    </row>
-    <row r="1233" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1233" s="16"/>
-      <c r="D1233" s="16"/>
-    </row>
-    <row r="1234" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1234" s="16"/>
-      <c r="D1234" s="16"/>
-    </row>
-    <row r="1235" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1235" s="16"/>
-      <c r="D1235" s="16"/>
-    </row>
-    <row r="1236" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1236" s="16"/>
-      <c r="D1236" s="16"/>
-    </row>
-    <row r="1237" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1237" s="16"/>
-      <c r="D1237" s="16"/>
-    </row>
-    <row r="1238" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1238" s="16"/>
-      <c r="D1238" s="16"/>
-    </row>
-    <row r="1239" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1239" s="16"/>
-      <c r="D1239" s="16"/>
-    </row>
-    <row r="1240" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1240" s="16"/>
-      <c r="D1240" s="16"/>
-    </row>
-    <row r="1241" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1241" s="16"/>
-      <c r="D1241" s="16"/>
-    </row>
-    <row r="1242" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1242" s="16"/>
-      <c r="D1242" s="16"/>
-    </row>
-    <row r="1243" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1243" s="16"/>
-      <c r="D1243" s="16"/>
-    </row>
-    <row r="1244" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1244" s="16"/>
-      <c r="D1244" s="16"/>
-    </row>
-    <row r="1245" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1245" s="16"/>
-      <c r="D1245" s="16"/>
-    </row>
-    <row r="1246" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1246" s="16"/>
-      <c r="D1246" s="16"/>
-    </row>
-    <row r="1247" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1247" s="16"/>
-      <c r="D1247" s="16"/>
-    </row>
-    <row r="1248" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1248" s="16"/>
-      <c r="D1248" s="16"/>
-    </row>
-    <row r="1249" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1249" s="16"/>
-      <c r="D1249" s="16"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>